--- a/result/生词本导入模版_11.xlsx
+++ b/result/生词本导入模版_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>grit</t>
+          <t>demotion</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n. （面对困难时所表现出来的）毅力： the strength of mind that enables a person to endure pain orhardship</t>
+          <t>n. 降级，降职： the act or an instance of bringing to a lower grade or rank</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>She was an athlete with true grit, continuing her training despite bad weather and an injury.   她 是 真 正 一个有着惊人毅力的运动员，即便是在受了伤外加天气恶劣的情况下仍然坚持训练。</t>
+          <t>Anyone who objects will get a demotion.   任何胆敢反对的人都会被降职。
+received a demotion fromsergeant to corporal  从中士降为下士</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +481,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>infraction</t>
+          <t>glower</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 违背，违犯： a failure to uphold the requirements of law, duty, or obligation</t>
+          <t>vi. 怒目而视： to look or stare with sullen annoyance or anger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Speeding is only a minor infraction, but vehicular homicide is a serious felony.   超速只是小的违章，但是用机动车故意杀人就是重罪了。</t>
+          <t>Baseball fans glowering at their TVs as they watched their favorite team lose.   看着他们支持的球队输球，棒球迷们恶狠狠地盯着电视屏幕。
+He just glowered without speaking.   他一言不发地怒视着我。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,69 +504,65 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>grit</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n. （面对困难时所表现出来的）毅力： the strength of mind that enables a person to endure pain orhardship</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>She was an athlete with true grit, continuing her training despite bad weather and an injury.   她 是 真 正 一个有着惊人毅力的运动员，即便是在受了伤外加天气恶劣的情况下仍然坚持训练。</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>infraction</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>n. 违背，违犯： a failure to uphold the requirements of law, duty, or obligation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Speeding is only a minor infraction, but vehicular homicide is a serious felony.   超速只是小的违章，但是用机动车故意杀人就是重罪了。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>madcap</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>n. 热爱冒险的人： a person who seeks out very dangerous or foolhardy adventures with noapparent fear
 adj. 大胆的，鲁莽的： behaving or acting impulsively or rashly; foolishly adventurous or bold</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>an incorrigible madcap who loves drag racing and white-water rafting  一个热爱飙车和激流竹筏的无药可救的冒险狂
 They switched from one madcap scheme to another.   他们从一个鲁莽的方案换到了另一个。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>novice</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>n. 新手，初学者： a person new to a field or activity</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>a novice chess player  象棋初学者</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>observant</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>adj. 警惕的，警觉的： paying close attention usually for the purpose of anticipating approachingdanger or opportunity
-adj. 严格遵守（规章、制度或原则）的： diligent in observing a law, custom, duty, or principle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Good reporters are keenly observant of everything around them.   优秀的记者应该对身边所有的事情都保持高度的警惕。
-If you were more observant, you would perceive that something is troubling her deeply.  如果你能再警觉一些的话，你就会发现她正被某些东西困扰。
-observant of the speed limit  严格遵守速度限制
-pious and religiously observant families  虔 诚 而 严 守教规的家庭</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -574,228 +572,229 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>novice</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>n. 新手，初学者： a person new to a field or activity</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>a novice chess player  象棋初学者</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>observant</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adj. 警惕的，警觉的： paying close attention usually for the purpose of anticipating approachingdanger or opportunity</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Good reporters are keenly observant of everything around them.   优秀的记者应该对身边所有的事情都保持高度的警惕。
+If you were more observant, you would perceive that something is troubling her deeply.  如果你能再警觉一些的话，你就会发现她正被某些东西困扰。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>plenitude</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>n. 丰富，充沛： an amount or supply more than sufficient to meet one's needs
 n. 大量： a considerable amount</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>a region blessed with a plenitude of natural resources  充满着上帝赐予的丰富资源的地区
 She has gathered a plenitude of information on the topic.  有关这个话题她收集了大量的资料。</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>replenish</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>vt. 补充： to fill or make complete again; add a new stock or supply to</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>He went to replenish her glass.   他去续杯了。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>stasis</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>n. 平衡，停滞： a condition of balance among various forces</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>For the time being, the populations of the national park's predators and prey remain in stasis.  目 前 国家公园中捕食者和猎物的数量保持着一定的平衡。
 Language is a primary element of culture,and stasis in the artsis tantamount to death.   (Charles Marsh) 语言是文化当中的主要元素，艺术的停滞和平衡就等同于死亡。——查理斯·马氏</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>tycoon</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>n. 大亨，巨头： a person of rank, power, or influence in a particular field</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>an oil tycoon who's widely considered the most powerful man in the county  被认为是郡上最有势力的一个石油大亨
 The automobile tycoon is on the verge of bankruptcy.  汽车巨头濒临破产的边缘。</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>umbrage</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>n. 不悦，生气： the feeling of being offended or resentful after a slight or indignity</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>He would take umbrage at the slightest suggestion of disrespect.  哪怕是一点点的不敬也会让他不悦。</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>wilt</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>vi. （花、植物等）萎蔫： to become limp or flaccid
 vi. 精神萎靡，憔悴： to feel or exhibit the effects of fatigue or exhaustion</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>The plants wilted after I forgot to water them for three whole days.  在我整整三天忘记浇水之后，植物们全都萎蔫了。
 She had wilted a bit after walking around the hot and humid city.   在炎热潮湿的城市中行走使得她略显憔悴。
 His brain wilted from hitherto unprecedented weariness.   在前所未有的疲劳面前，他的开始变得神情憔悴。</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>agape</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>adj. 急切盼望的： having or showing signs of eagerly awaiting something</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>At the sound of the sleigh bells the children were all agape, waiting for Santa to appear.  听到雪橇铃，孩子们开始好奇地等待圣诞老人的到来。</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>annex</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>n. 裙楼，副楼： a building added on to a larger one or an auxiliary building situated near a main one
 vt. 添加，合并： to join (something) to a mass, quantity, or number so as to bring about an overallincrease
 vt. 吞并，夺取（土地等）： to incorporate (a country or other territory) within the domain of a state</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>The new annex that will serve as the permanent home for the school library.   新的裙楼将成为学校图书馆的永久住所。
 plans to annex the supply room so as to make the classroom bigger  计划将工具房并入教室，从而扩充其容量
 Rome annexed the Nabatean kingdom in 106 AD.   公元前 106 年罗马帝国吞并了古城那巴顿。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>baffling</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>adj. 令人疑惑的，难以理解的： making great mental demands; hard to comprehend or solve</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>I was constantly ill, with a baffling array of symptoms.   我常常生病，而且有着一系列令人困惑的症状。</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>bewitching</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adj. 迷人的，令人着迷的： having an often mysterious or magical power to attract</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>bewitching woman who has never lacked for suitors  一个从不缺乏追求者的迷人女子</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -805,205 +804,205 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>baffling</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>adj. 令人疑惑的，难以理解的： making great mental demands; hard to comprehend or solve</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>I was constantly ill, with a baffling array of symptoms.   我常常生病，而且有着一系列令人困惑的症状。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bewitching</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>adj. 迷人的，令人着迷的： having an often mysterious or magical power to attract</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bewitching woman who has never lacked for suitors  一个从不缺乏追求者的迷人女子</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bore</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>n. 令人厌烦的人或事物： one that causes boredom
 vt. 使厌倦，使厌烦： to make weary by being dull, repetitive, or tedious</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>For once, the graduation speaker wasn't a real bore.   就这一次毕业演讲者不是那么令人厌倦。
 The professor's lifeless and unimaginative teaching style bored the students to death.   教 授 毫 无 生 气 和想象力的说教方式让学生厌倦至极。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>bumble</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>vi. 含糊不清地说，杂乱无章地说： to speak rapidly, inarticulately, and usually unintelligibly
 vi. 笨拙地行动： to move, act, or proceed clumsily</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Overcome with stage fright, I could only bumble through the speech.   由于怯场，我结结巴巴地说完了演讲稿。
 I sort of bumbled through the dance number, hoping that it would soon end.   我笨拙地跟着曲子舞蹈，心里指望着它快点结束。</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>carefree</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>adj. 无忧无虑的： free from care as having no worries or troubles</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>passengers on a luxury cruise ship enjoying a carefree vacation  在豪华游轮上享受着无忧旅途的乘客
 carefree college students on spring break  春假期间无忧无虑的大学生</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>chaperone</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>vt. 同行，护送： to go along with in order to provide assistance, protection, or companionship</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Three parents will chaperone the students on the school trip.  本次班级旅行将有三名家长同行。</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>charisma</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>n. 魅力，吸引力： a special magnetic charm or appeal</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">a movie star with unique charisma  有着独特魅力的电影明星
 The candidate was lacking in charisma.  </t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>conflagration</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>n. 大火： a large destructive fire
 n. 武装冲突，战争： a state of armed violent struggle between states, nations, or groups</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">All the stock was destroyed in a warehouse conflagration.   仓库里所有的货物都被一场大火烧毁了。
 What began as a skirmish over disputed territory erupted into a conflagration that swept the continent.  </t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>crow</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>vi. 感到高兴： to feel or express joy or triumph
 vi. 自鸣得意： to praise or express pride in one's own possessions, qualities, or accomplishmentsoften to excess</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Being the home of the new Super Bowl champs was the first thing that city residents had to crow about ina very long time.   当地的队伍获得超级碗冠军队伍是这个城市居民长期以来得以感到高兴的第一件事情。
 He is already crowing over his victory.  他已经在那里为自己的胜利而自鸣得意了。</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>dashing</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>adj. 爱好冒险的，大胆的： inclined or willing to take risks</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>the dashing heroes in stories about the American West  美国西部故事中那些勇敢无畏的英雄</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>dated</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>adj. 过时的： having passed its time of use or usefulness; out-of-date</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>His jokes are awfully dated, referring to things that happened years ago.   他的笑话全是些关于几年前的事情的过时货。</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1013,352 +1012,347 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>dashing</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>adj. 爱好冒险的，大胆的： inclined or willing to take risks</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>the dashing heroes in stories about the American West  美国西部故事中那些勇敢无畏的英雄</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>dated</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>adj. 过时的： having passed its time of use or usefulness; out-of-date</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>His jokes are awfully dated, referring to things that happened years ago.   他的笑话全是些关于几年前的事情的过时货。</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>dependable</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>adj. 可靠的，值得信赖的： capable of being depended on</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">a dependable source of income  可靠的收入来源
 He was a good friend and a dependable companion.  </t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>deplorable</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>adj. 可鄙的，可耻的： worthy of severe condemnation or reproach
 adj. 悲惨的，可悲的： of a kind to cause great distress</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>We will not tolerate such deplorable behavior in a house of worship.   我们绝不能容许这样一种可鄙的行为出现在礼拜堂中。
 Many of them work under deplorable conditions.   许多人的工作环境十分悲惨。</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>dike</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>n. 堤坝，水坝： a bank usually of earth constructed to control or confine water</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">An elaborate system of dikes was built to protect the lowlands from the relentless onslaught of the sea.  </t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>escort</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>n. 护卫队，护送者： a person or group of persons accompanying another to give protection or as acourtesy
 vt. 同行，护送： to go along with in order to provide assistance, protection, or companionship</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>The mayor served as the First Lady's escort for her tour of the city.   市长陪同第一夫人参观了城市。
 Asenior student from the college escorted my parents and me on our tour of the campus.   来 自 学 院 的一个师兄陪同我和我父母参观了校园。
 a VIP escorted by an army of bodyguards and journalists  被 一 群 保 镖和记者包围的重要人物</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>felony</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>n. 重罪： one of several grave crimes, such as murder, rape, or burglary, punishable by a morestringent sentence than that given for a misdemeanor</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>a felony punishable by life imprisonment  可被判处无期徒刑的重罪</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>grumble</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>vi. （尤指低声地）抱怨，埋怨： to complain in a surly manner; mutter discontentedly</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The governed will always find something to grumble about.   (Crane Brinton)被统治者总能找到发牢骚的理由。——瑞恩·布林顿</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>heckle</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>vt. 起哄，使难堪： to harass and try to disconcert with questions, challenges, or gibes</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>a controversial player who was constantly heckled by the fans  一个时常被粉丝起哄的有争议的歌手
 Several protesters were heckling the speaker at the rally.   不少示威者在集会上起哄让发言者难堪。</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>lag</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>adj. 最终的，最后的： following all others of the same kind in order or time
 vi. 缓慢行走： to proceed or develop with comparative slowness
 vi. 萎靡，失去活力： to lose bodily strength or vigor</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>We're now in the lag end of the project.   现在我们到了项目的尾声阶段。
 The tired puppy was lagging behind the rest of the pack.  疲倦的小狗在队伍的后面缓缓地走着。
 During the fourth quarter the whole team seemed to lag.  到了第四节整支队伍似乎都已经精疲力竭了。</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>lance</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>n. 长矛，标枪： a weapon with a long straight handle and sharp head or blade
 vt. 刺穿，刺破： to penetrate or hold (something) with a pointed object</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>The lance struck squarely on the knight's shield, knocking him from his horse.   标枪正中盾牌，将骑士掀于马下。
 Doctors used to lance infected sores, so that they could drain clean.   以前医生会刺破受感染的疮，从而使脓液流出。</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>magnitude</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>n. 重要，重大： greatness in significance or influence
 n. 巨大： greatness in size or extent</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>The magnitude of the issue is severely underestimated.  这个事件的重要性被严重低估了。
 The mountain's sheer magnitude usually leaves tourists speechless.   巨大的山脉往往让旅游者哑口无言。</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>maneuver</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>vt. 巧妙地操纵： to guide with adroitness and design or to bring about or secure as a result of skillfulmanagement</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>They maneuvered him into signing the contract.  他们巧妙地诱使他签下合同。
 The host maneuveredthe conversation so as to avoid the touchy subject of her divorce.  主人巧妙地控制着对话的内容，以避免触及有关她离婚的敏感话题。</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>rampant</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>adj. （植物）生长茂盛的： growing thickly and vigorously
 adj. 猖獗的，不受限制的： occurring without restraint and frequently, widely, or menacingly</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>a rampant growth of weeds in the neglected yard  被遗忘的院子里杂草疯长
 Mayor promised to put a stop to the rampant crime that plagued the city.   市长承诺要采取措施，消灭那些扰乱城市治安的猖獗的犯罪活动。
 rampant corruption in city government  市政府中猖獗的腐败</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>remnant</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>n. 残余，剩余物： something left over</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">a remnant of his past glory  他辉煌过去的一丝残余
 The shop is selling remnants of cloth at half price.  </t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>residual</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>adj. 剩余的，残存的： of, relating to, or characteristic of a residue</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>residual radiation from nuclear tests  核试验所遗留下来的残余辐射</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>screen</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>n. 掩护物，屏障： something that shelters, protects, or hides本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-vt. 保护，使…免受攻击： to drive danger or attack away from
-vt. 掩护，遮蔽： to keep secret or shut off from view</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>The target will be difficult to reach as it is behind a screen of anti-aircraft batteries.   目标在防空炮火的掩护之下难以靠近。
-Please keep away from the screen door.   请不要倚靠屏蔽门。
-Gunships were called in to help screen the troops from further attacks.  武装直升机被呼叫对步兵进行支援，使之免受进一步的攻击。
-Bushes screened the swimming pool from passersby on the street.   灌木丛将游泳池和外面的行人隔绝开来。</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>scrimp</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>vi. 节俭： to avoid unnecessary waste or expense</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>They had to scrimp and save for years in order to be able to afford a house.   他们不得不节俭度日才能攒够钱买房。</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1368,17 +1362,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>adjudicate</t>
+          <t>residual</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vt. 裁决，判定： to hear and settlea case, dispute or conflict</t>
+          <t>adj. 剩余的，残存的： of, relating to, or characteristic of a residue</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>When my wife and I asked the salesclerk to adjudicate our disagreement, she agreed with me that thewhite shoes looked better.   我和我妻子要求售货员来裁决我们之间的争论，最后她还是同意了我的观点，认为白色的鞋子看起来更漂亮。</t>
+          <t>residual radiation from nuclear tests  核试验所遗留下来的残余辐射</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1390,19 +1384,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>belligerence</t>
+          <t>screen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>n. 好斗，好战： an aggressive or truculent attitude, atmosphere, or disposition</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Among the Native American tribes of the colonial period, the Iroquois were known for their belligerence.  </t>
-        </is>
-      </c>
+          <t>n. 掩护物，屏障： something that shelters, protects, or hides</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1412,17 +1402,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>canny</t>
+          <t>scrimp</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>adj. 精明的，聪明的： careful and shrewd, especially where one's own interests are concerned</t>
+          <t>vi. 节俭： to avoid unnecessary waste or expense</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>He is a canny card player who is good at psyching out his opponents.  他是一个善于琢磨对手心思的精明的扑克玩家。</t>
+          <t>They had to scrimp and save for years in order to be able to afford a house.   他们不得不节俭度日才能攒够钱买房。</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1434,17 +1424,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>disenchant</t>
+          <t>adjudicate</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>vt. 使清醒： to free from illusion</t>
+          <t>vt. 裁决，判定： to hear and settlea case, dispute or conflict</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you thought that you could pass this course without doing any work, let me be the first to disenchant you.  Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  </t>
+          <t>When my wife and I asked the salesclerk to adjudicate our disagreement, she agreed with me that thewhite shoes looked better.   我和我妻子要求售货员来裁决我们之间的争论，最后她还是同意了我的观点，认为白色的鞋子看起来更漂亮。</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1456,17 +1446,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>forage</t>
+          <t>belligerence</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vi. 寻找： to make a search</t>
+          <t>n. 好斗，好战： an aggressive or truculent attitude, atmosphere, or disposition</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>went foraging for change for the parking meter  寻找付停车费的零钱</t>
+          <t xml:space="preserve">Among the Native American tribes of the colonial period, the Iroquois were known for their belligerence.  </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1478,17 +1468,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>illustrious</t>
+          <t>canny</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 著名的，杰出的： well known and very distinguished</t>
+          <t>adj. 精明的，聪明的： careful and shrewd, especially where one's own interests are concerned</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>the most illustrious scientists of the century  本世纪最为杰出的科学家</t>
+          <t>He is a canny card player who is good at psyching out his opponents.  他是一个善于琢磨对手心思的精明的扑克玩家。</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1500,284 +1490,348 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>disenchant</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>vt. 使清醒： to free from illusion</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you thought that you could pass this course without doing any work, let me be the first to disenchant you.  </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>forage</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vi. 寻找： to make a search</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>went foraging for change for the parking meter  寻找付停车费的零钱</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>illustrious</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>adj. 著名的，杰出的： well known and very distinguished</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>the most illustrious scientists of the century  本世纪最为杰出的科学家</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>monarch</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>n. 君主，帝王： one who rules over a people with a sole, supreme, and usually hereditary authority
 n. 巨头，大亨： a person of rank, power, or influence in a particular field</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>The ruling monarch of Britain at that time was Queen Elizabeth I.  伊丽莎白一世是当时英国的君主。
 the reigning monarchs of the recording industry  唱片业的巨头们</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>plebeian</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>adj. 平民的，社会下层的： belonging to the class of people of low social or economic rank</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>a man who rose to greatness but never forgot his plebeian past  一个仕途通达，但从未忘却自己平民出身的人</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>squeamish</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>adj. 恶心的，晕船的： affected with nausea</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>wrest</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>vt. 拧，扭动： to pull, force, or move by violent wringing or twisting movements
 vt. 辛苦地获得： to gain with difficulty by or as if by force, violence, or determined labor</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>wrest the lid off this pickle jar  把泡菜罐的盖子拧下来
 farmers who were used to wresting a living from the barren land  一度依靠贫瘠的土地恶劣度日的农民</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>complacent</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>adj. 自满的，自鸣得意的： feeling or showing an often excessive or unjustified satisfaction andpleasure in one's status, possessions, or attainments
 adj. 无所谓的，不关心的： having or showing a lack of interest or concern</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>a complacent junior accountant who was certain of her indispensability to the company  一 个 确 信 自 己 对于公司而言无可替代而自满的年轻会计
 We can't afford to be complacent about rural illiteracy rates.   我们不能对农村的文盲率坐视不理。</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>imposter</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>n. 冒名顶替者，骗子： one that assumes false identity or title for the purpose of deception</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>The man who claimed to be my townsman turned out to be an impostor.   那个自称是我老乡的人结果是个骗子。</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>incumbent</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>adj. 义不容辞的，必须的： imposed as an obligation or duty</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>It is incumbent upon individuals to sacrifice for their country when it is in danger.   当国家受难时，个人应该义不容辞地为国做出牺牲。
 It is incumbent upon the press to act not in its own best interests, but in society'sbest interests.  对于媒体来说，为社会的利益（而非自身利益）服务是其应尽的义务。</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>splinter</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>n. 尖细条，刺： a sharp, slender piece, as of wood, bone, glass, or metal, split or broken off from amain body
-vt. 切成细条： to split or break into sharp, slender pieces</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>She got a splinter from the unfinished wall.  她的手被还没有装修的墙扎了一根刺。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-splintered the carrots into little sticks  把胡萝卜切成丝</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>n. 尖细条，刺： a sharp, slender piece, as of wood, bone, glass, or metal, split or broken off from amain body</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>She got a splinter from the unfinished wall.  她的手被还没有装修的墙扎了一根刺。</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>calibrate</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>vt. 校准，调校： to check, adjust, or determine by comparison with a standard (the graduations ofa quantitative measuring instrument)</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>We need to calibrate the sextants navigation.   我们要为航行校准六分仪。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>commiserate</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>vi. 表示怜悯，同情： to feel or express sympathy</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>commiserated over their failure  对他们的失败表示同情
 We commiserated with him but there was littlewe could do to make the situation better.   我们很同情他的遭遇，但是也只能表示无能为力。</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>nullification</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>n. （尤指法律条文等正式的）废除，废弃： the doing away with something by formal action</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>the nullification of a treaty  废除条约</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>behoove</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>vt. 对…有利的： to be necessary, proper or advantageous for</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>It behooves you at least to try.   你至少也应该尝试一下。</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>coarse</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>adj. 粗糙的，表面不平整的： not having a level or smooth surface
 adj. （声音）刺耳的： harsh, raucous, or rough in tone
@@ -1785,7 +1839,7 @@
 adj. （质量）低劣的： of low, common, or inferior quality</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>the coarse surface of the sandpaper  砂纸的粗糙表面
 a coarse laugh from the living room  客厅里传来的一阵刺耳笑声
@@ -1793,264 +1847,191 @@
 coarse imitations of quality merchandise  高级商品的粗劣仿制品</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>defray</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>vt. 支付： to undertake the payment of</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>The government has committed billions toward defraying the costs of the war.   政府为战争付出了成百上千亿元的代价。
 I don’t have sufficient fund to defray the expense.   我身上的现金还不够埋单。</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>imperishable</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>adj. 不能被摧毁的： impossible to destroy; not subject to decay
 adj. 不朽的，永恒的： enduring or occurring forever</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Energy is imperishable.   能量本身是不能被毁灭的。
 My memories are within me, imperishable.  我的回忆已经和我融为一体，不可改变。</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>machination</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>n. 诡计： a scheming or crafty action or artful design intended to accomplish some usually evil end</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>The incredibly complicated machination to assassinate the president inevitably failed.   刺 杀 总 统 的 诡 计极其复杂，以至于不可避免地失败了。</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>onset</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>n. 攻击，进攻： attack, assault
 n. 起始，开始： the point at which something begins</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>withstand the onset of the army  抵挡住了敌人军队的进攻
 If you take enough vitamin C at the onset of a cold, you'll probably recover faster.   如果你感冒刚一开始就服用足量的维他命 C，你可能会康复得更快。</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>automatic</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>adj. （机器等）自动的： acting or operating in a manner essentially independent of external influenceMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.or control
-adj. 自发的，情不自禁的： acting or done spontaneously or unconsciously</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Will your next car be a manual or an automatic? 你 下 辆 车 是 手 动 挡 还 是 自 动 挡 ？
-Modernsubwaysare equipped with automatic screen doors.  现代地铁都装备了自动屏蔽门。
-Carl’s automatic use of the brakes narrowly averted a collision.   卡尔不经意间所踩的刹车勉强避免了一场车祸。</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>adj. （机器等）自动的： acting or operating in a manner essentially independent of external influence</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>bustle</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>n. 忙乱，喧闹： noisy, energetic, and often obtrusive activity
 vi. （快速地）行走： to move briskly and often ostentatiously</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>the hustle and bustle of the big city  熙熙攘攘的大都市
 I couldn't concentrate in all the bustle of thestudent lounge.   学生休息室里过于嘈杂，我无法专心。
 the hostess bustled about, taking care of last-minute preparations for the party.  女主人四处走着，为聚会做最后的准备。</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>canonize</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>vt. 过分宠爱，过分崇拜： to love or admire too much
 vt. 使…崇高，使…神圣： to assign a high status or value to</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>a singing star so canonized by his fans that they refuse to believe anything bad about him  一 个 受 到 粉丝疯狂追捧的歌星，他们不会相信任何关于他的负面新闻
 Some movie buffs canonized David Fincher as today’s most preeminent director.   一些影迷把大卫·芬奇视作是当今世界上最为出色的导演。</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>endeavor</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>n. 努力，奋斗： a conscientious or concerted effort toward an end
 vt. 努力做…，拼搏： to devote serious and sustained effort</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>We hope that this latest endeavor will yield much information about the atmosphere of the planet.  我们希望这最后一次的努力能够获取关于行星大气层的大量信息。
 endeavor to improve the quality of life in the inner city  努力改善市内的生活质量
 They endeavored tocreate a government that truly serves its people.   他们在努力地创立一个一心为人民服务的政府。</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>fitful</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>adj. 无规律的，缺乏周期的： having an erratic or intermittent character</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>He drifted off into a fitful sleep.   他慢慢地陷入了时睡时醒的状态。</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>oaf</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>n. 愚蠢的人： a stupid person</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Anyone who took him for an oaf and tried to cheat him would be in for a nasty surprise.   任 何 把 他 当 成 傻子然后想借机欺骗他的人就等着大吃一惊吧。</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>retentive</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>adj. 记性好的： having the ability or capacity to retain knowledge or information with ease</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Her retentive memory helped her sail through the history test.  她的好记性帮助她顺利通过了历史考试。</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2060,17 +2041,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>secede</t>
+          <t>fitful</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vi. 脱离，退出（组织、团体、联盟等）： to withdraw from an organization (as a religious communionor political party or federation)</t>
+          <t>adj. 无规律的，缺乏周期的： having an erratic or intermittent character</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>They threatened to secede from the coalition.   他们以退出联盟相要挟。</t>
+          <t>He drifted off into a fitful sleep.   他慢慢地陷入了时睡时醒的状态。</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2082,201 +2063,192 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>oaf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>n. 愚蠢的人： a stupid person</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Anyone who took him for an oaf and tried to cheat him would be in for a nasty surprise.   任 何 把 他 当 成 傻子然后想借机欺骗他的人就等着大吃一惊吧。</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>retentive</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>adj. 记性好的： having the ability or capacity to retain knowledge or information with ease</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Her retentive memory helped her sail through the history test.  她的好记性帮助她顺利通过了历史考试。</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>secede</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>vi. 脱离，退出（组织、团体、联盟等）： to withdraw from an organization (as a religious communionor political party or federation)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>They threatened to secede from the coalition.   他们以退出联盟相要挟。</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>glacial</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 极冷的：extremely cold
 adj. 冷漠的，无感情的： devoid of warmth and cordiality</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>The air from the sea felt glacial.   海上的空气冷极了。
 The Duchess gave him a glacial look and moved on.   公爵夫人冷冷地看了他一眼，然后就继续上路了。</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>glide</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>vt. 轻松地行动，轻松地通过： to move or proceedsmoothly, continuously, and effortlessly</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>swans gliding over the lake  在湖面悠然划水的天鹅
-looking for a college course that he could just glidethrough  正在寻找一门很容易就能通过的课程</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>monopolize</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>vt. 垄断，主宰： to have complete control over</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>They are virtually monopolizing the market.  他们实际上已经垄断了整个市场。
 To their surprise is wasthe vice president who monopolized the conversation.   令他们惊讶的是，主导整个谈话的居然是副总裁。</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>pedagogical</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>adj. 教学的，教师的： of, relating to, or befitting a teacher or education</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>I have no brow of such a pedagogical tone.  我一点也不喜欢这种说教的口吻。</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>perilous</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>adj. 危险的： involving potential loss or injury</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>perilous journey through hostile territory  穿过敌方领土的危险行程</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>pointer</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>n. （仪表上的）指针： a scale indicator on a watch, balance, or other measuring instrument
 n. 忠告，建议： a useful suggestion or hintusually from an expert</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>The pointer on my bathroom scale must be stuck - I know I lost weight.   浴室磅秤里的指针肯定坏了——我知道我体重有下降的。
 Here are a few pointers to help you make a choice.  这里有一些能帮助你抉择的建议。</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>affliction</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>n. 痛苦，悲伤，折磨： a state of great suffering of body or mind</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>She listened with deep affliction as her daughter told her about the latest trouble she was in.  她 怀 着巨大的痛苦聆听着女儿告诉她目前艰难的处境。</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>dishearten</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>vt. 使沮丧，使失去信心： to cause to lose spirit or morale</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>We were greatly disheartened by the news that our grandmother was seriously ill.   听到祖母病重的消息，我们都很沮丧。</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>disjunctive</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>adj. 分离的： marked by breaks or disunity</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>a disjunctive narrative sequence  分散的叙述顺序</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2286,17 +2258,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>featureless</t>
+          <t>affliction</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 缺乏特征的： lacking distinguishing characteristics or features</t>
+          <t>n. 痛苦，悲伤，折磨： a state of great suffering of body or mind</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>the featureless landscape of the steppe  大草原上缺乏特色的地貌</t>
+          <t>She listened with deep affliction as her daughter told her about the latest trouble she was in.  她 怀 着巨大的痛苦聆听着女儿告诉她目前艰难的处境。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2308,150 +2280,150 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>dishearten</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>vt. 使沮丧，使失去信心： to cause to lose spirit or morale</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>We were greatly disheartened by the news that our grandmother was seriously ill.   听到祖母病重的消息，我们都很沮丧。</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>disjunctive</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>adj. 分离的： marked by breaks or disunity</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>a disjunctive narrative sequence  分散的叙述顺序</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>featureless</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adj. 缺乏特征的： lacking distinguishing characteristics or features</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>the featureless landscape of the steppe  大草原上缺乏特色的地貌</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>frosty</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>adj. 寒冷的： having a low or subnormal temperature
 adj. 无强烈感情的，冷淡的： lacking in friendliness or warmth of feeling</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>a frosty autumn that was a sign of the brutal winter that followed  一个极为寒冷的秋天，它象征着随之而来的、可能更加残暴的冬季
 She gave the telemarketer on the phone a frosty “No, thank you” and hung up.  她 向 电 话那 头 的推 销员冷冷地说了一句“不，谢谢”之后就挂掉了电话。</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>sacrosanct</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>adj. 极为神圣的，不可侵犯的： most sacred or holy</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">The teacher's book of grades is sacrosanct, and someone could be expelled for changing anything in it.  </t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>shifty</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>adj. （显得）狡诈的，（显得）欺诈的： having, displaying, or suggestive of deceitful character</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>wayward</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>adj. 刚愎自用的，不服管束的： following one's own capricious, wanton, or depraved inclinations</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>had always been the most wayward of their three children  总是三个小孩里最不听话的一个
 waywardchildren with a history of behavioral problems  过去行为上有些问题的调皮小孩</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>backslide</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>vi. （情况等）倒退，固态萌发： to revert to a worse condition</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Keep these things in mind to help prevent you from backsliding.   牢记这些东西，他们能防止你旧病复犯。</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>beholden</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>adj. 欠他人人情的： owing something, such as gratitude, to another</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Not wanting to be beholden to anyone, he insisted on paying his own way.  因为不想欠别人的人情，所以他坚持出自己的那一份钱。</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>beige</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>adj. 缺乏特征的： lacking distinction</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Some food critics have dismissed that chef's version of French cuisine as beige and boring.   一 些 美 食 评论家认为那名厨师所做的法国菜平凡无奇，令人厌倦。</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2461,703 +2433,704 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>backslide</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>vi. （情况等）倒退，固态萌发： to revert to a worse condition</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Keep these things in mind to help prevent you from backsliding.   牢记这些东西，他们能防止你旧病复犯。</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>beholden</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>adj. 欠他人人情的： owing something, such as gratitude, to another</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Not wanting to be beholden to anyone, he insisted on paying his own way.  因为不想欠别人的人情，所以他坚持出自己的那一份钱。</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>beige</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>adj. 缺乏特征的： lacking distinction</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Some food critics have dismissed that chef's version of French cuisine as beige and boring.   一 些 美 食 评论家认为那名厨师所做的法国菜平凡无奇，令人厌倦。</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>menial</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>n. 仆人，奴仆： a servant, especially a domestic servant
 adj. 卑贱的，低下的： showing, expressing, or offered in a spirit of humility or unseemlysubmissiveness</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Immigrants to that country faced fierce prejudice and could expect to find work only as menials.   前 往 那个国家的移民遭到了严重的歧视，他们也许只能找到像仆人一类的工作。
 low-paid menial jobs such as cleaning the street  一些低收入的卑贱工作，比如扫大街</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>peculiarity</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>n. 特征，特点： a distinguishing characteristic</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>It is a peculiarity of the house that there is no front door.  没有大门是这座房子的一个特色。</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>premeditate</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>vt. 预谋： to think about and revolve in the mind beforehand</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>carefully premeditating each step of his plan of campaign  仔细地计划着竞选计划中的每一个步骤</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 未出现的，缺少的： not present or in evidence
 adj. 未达到要求的： not being up to standards or expectations</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Grass is almost entirely wanting in that arid wasteland.   那片荒漠几乎没有长一丝青草。
 He examined her work and found it wanting.   他检查了她的作业，发现不合要求。
 We tried her cookingand found it to be very wanting.   我们试了试她的厨艺，结果发现很不尽人意。</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>idiosyncrasy</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>n. 独特而奇怪的习惯： an odd or peculiar habit</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>august</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>adj. 威严的，庄重的： having or showing a formal and serious or reserved manner
 adj. 盛大的，令人印象深刻的： large and impressive in size, grandeur, extent, or conception</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Unsurprisingly, the head of the bank is an august white-haired gentleman.  不出所料的，银行的总裁是一名白发苍苍的、令人顿生敬意的绅士。
 an august golden anniversary celebration for the company  盛大的周年庆祝会</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>coy</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>adj. 故作羞涩的： affectedly and usually flirtatiously shy or modest
 adj. 不愿与人交往的，内向的： tending to avoid people and social situations</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Not wanting him to know that she was interested in him, she acted very coy at the dance.   她 在 舞 会 上故意装得很娇羞的样子，不想让他知道她喜欢他。
 She was modest without being coy.   她很低调，但又不至于内向。</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>demote</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>vt. 降职，降级： to reduce to a lower grade or rank</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>The court-martial’s decision was to demote the officer responsible for the failed mission.  军 事 法 庭 决定对为此次失败任务负责的军官进行降职处理。</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>staunch</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>adj. 忠诚的，坚定的： steadfast in loyalty or principle</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>a staunch believer in the democratic system  民主制度的坚定拥护者
 No matter what happens I will beyour staunchest supporters.  不论发生什么，我都会是你最忠诚的支持者。</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>atrophy</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>vi. 萎缩，衰退： to waste away; wither or deteriorate</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>The years following the closing of the last textile mill, the town atrophied.   随着最后一家纺织厂的倒闭，整个城镇开始衰退。</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>idle</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>adj. 闲置的，未使用的： not turned to normal or appropriate use
 adj. 懒散的： shiftless, lazy
 vi. 懒散度日，无所事事： to pass (time) without working or while avoiding work</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>The car was idle for two weeks while they went on vacation.   因为他们出去旅行了，他们的车闲置了两周。
 an idle employee who always seems to be either on break or at lunch  这个懒散的员工似乎不是在休息就是在吃饭
 idle the afternoon away  打发下午的时光</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>splutter</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>vi. 急切而不清楚地说： to speak hastily and incoherently, as when confused or angry</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">They begin to splutter and move restlessly about if they feel time is slipping away without some return.  </t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>vouchsafe</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>vt. 允诺，给予： to grant or furnish often in a gracious or condescending manner</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>refused to vouchsafe an explanation  拒绝给出任何解释</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>deadlock</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>n. 僵局： a state of inaction or neutralization resulting from the opposition of equally powerfuluncompromising persons or factions
 vt. 使陷入僵局，使停顿： to bring or come to a deadlock</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>The deadlock was broken with a key compromise.   一个关键性的妥协打破了僵局。</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>groggy</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>adj. 虚弱的，（走路）不稳的： weak and unsteady on the feet or in action
+adj. 无法思考的，头脑不清的： not able to think or move normally because of being tired, sick, etc.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>She was feeling a bit groggy when I saw her.   当我看到她的时候她显得有些走路不稳。
+I'm still a little groggy from my nap.   我还没完全从睡梦中清醒过来。
+The medicine sometimes makespatients groggy.   这种药偶尔会让病人产生醉酒一样的麻醉感。</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>acquisitive</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>adj. 贪婪的： strongly desirous of acquiring and possessing</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Acquisitive developers are trying to tear down the ancient temple and build a shopping mall instead.   贪婪的开发商打算铲平这座古老的神庙，取而代之地建造一座购物中心。</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>agonize</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>vt. 折磨，使痛苦： to cause to suffer agony
 vi. 感到痛苦： to suffer agony, torture, or anguish</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>She got into more trouble, further agonizing her poor mother.  她惹上了更多的麻烦，进一步加剧了她可怜的母亲所遭受的痛苦。
 She agonized for days over the moral issues involved.   一连几天她都为被卷入的道德纠纷而感到痛苦。</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>alienate</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>vt. 使…疏远： to make unfriendly, hostile, or indifferent especially where attachment formerlyexisted
 vt. 转让，让渡： to convey or transfer (as property or a right) usually by a specific act rather than thedue course of law</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>His heartless treatment of their mother during the divorce proceeding has completely alienated the twochildren.   他在离婚过程中对妻子表现出来的残酷，已经彻底地让两个孩子与他疏远起来。
 A landowner has a right to alienate his right of ownership - in other words, he can sell the land if he wantsto.   地主拥有转让所有权的权力——也就是说如果愿意，他可以出售他的土地。</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>anachronistic</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>adj. 时代错误的： chronologically misplaced</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Despite the occasional anachronistic word or concept, he has a good feel for the period.  尽 管 有 时 会犯一些词汇和概念上的时代性错误，但他对于那个时代的整体把握还是不错的。</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>antedate</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>vt. 比…早，早于： to be of an earlier date than</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>The church antedates the village itself.  这 座 教 堂 甚 至 在 村 庄 之 前 就 存 在 了 。
 Dinosaurs antedatecavemen by millions of years.   恐龙比穴居人要早几百万年出现。</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>arbitrary</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>adj. 专横的，独断专行的： having or showing a tendency to force one's will on others without anyregard to fairness or necessity
 adj. 独裁的，拥有无限权力的： exercising power or authority without interference by others
 adj. 缺乏计划的，随意的： lacking a definite plan, purpose, or pattern</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>an arbitrary piano teacher who makes all her students do the same exercises over and over again  一个让学生反复练习同一首曲子的专横的老师
 a nation with no tradition of democracy, only a long history of arbitrary rulers  一个从来没有民主的传统，只有长期的独裁统治的国家
 The order of the names of the 10 semifinalists is entirely arbitrary.  半决赛上十名上场选手的顺序完全是随机的。</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>bogus</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>adj. 伪造的，假冒的： being such in appearance only and made or manufactured with the intentionof committing fraud
-adj. 虚伪的，做作的： lacking in natural or spontaneous quality</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>The evidence turned out to be completely bogus and the suspect may be innocent.  由 于 证 据 被 发 现是彻底伪造的，嫌犯很有可能是无辜的。
-There was often a lot of bogus conviviality at the company’s parties.   公司的聚会上往往有着虚伪的欢乐。</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>adj. 伪造的，假冒的： being such in appearance only and made or manufactured with the intentionof committing fraud</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>The evidence turned out to be completely bogus and the suspect may be innocent.  由 于 证 据 被 发 现是彻底伪造的，嫌犯很有可能是无辜的。</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>brandish</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>vt. （带有威胁性地）挥舞： to shake or wave (as a weapon) menacingly</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>I could see that the suspect was brandishing a knife and was in no way inclined to surrender.  我 可 以看到嫌犯在挥舞着一把刀，完全没有要投降的倾向。</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>cherished</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>adj. 受喜爱的，珍爱的： granted special treatment or attention</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>a cherished heirloom that has been in the family for generations  在这个家族里流传了几代的为大家喜爱的纺织机
 He described the picture with his wife as his most cherished possession.   他把这张与妻子和合影看作是自己最为珍爱的财富。</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>counterproductive</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>adj. 反效果的，阻碍预期目标的： not producing or tending to hinder the attainment of a desired goal</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Violence as a means to achieve an end is counterproductive.   (W.   E.   Brock)用暴力来实现目标往往是事与愿违的。——W.   E.   布洛克
 His uncontrollable anger is very counterproductive to his attempt at saving hismarriage.  他无法自控的愤怒只会对他拯救婚姻的企图起反作用。</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>deflect</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>vt. 使偏斜，使转向： to turn aside especially from a straight course or fixed direction</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>The goalie deflected the ball with his hands.   守门员用双手将球击出。
 They are trying to deflect thepublic attention from the troubled economy.   他们试图将公众的注意力从经济的困境中移开。</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>erroneous</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>adj. 错误的，不正确的： containing or characterized by error</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>The news article about the new drug was filled with much erroneous information.   有关新药的新闻报道里充斥着大量的错误信息。</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>fanciful</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>adj. 幻想中的，不真实的： not real and existing only in the imagination
 adj. 不切实际的，荒谬的： conceived or made without regard for reason or reality</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>a fanciful tale of a monster in the woods  一个有关栖息在丛林中的怪兽的传说故事</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>fleeting</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>adj. 稍纵即逝的，短暂的： lasting only for a short time; passing swiftly</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>They have been waiting for more than 4 hours but caught only a fleeting glimpse of the movie star.   他们苦等了至少四个小时，却最终只短短地瞟到了电影明星一眼。</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>foreground</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>vt. 强调，重视： to indicate the importance of by centering attention on</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>He repeatedly foregrounded his experience in international affairs in the course of his campaign for thepresidency.   在他竞选总统的过程中，他一再强调自己在处理国际事务方面的经验。</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>gawky</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>adj. （举止）笨拙的： having or showing an inability to move in a graceful manner</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>The pathetic gawky woman was once a lithe ballerina but got severely injured in a car accident.   这 个 可怜的步态笨拙的妇女本来是一名轻巧优雅的芭蕾舞女，但是在一次车祸中受了重伤。</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>indecorous</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>adj. 不合乎礼节的，不得体的： conflicting with accepted standards of good conduct or good taste</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>How can you make such an indecorous joke for a solemn moment in the marriage ceremony ? 你 怎 么能在庄严肃穆的结婚典礼上开那样一个不得体的玩笑呢？</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3169,20 +3142,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>lax</t>
+          <t>fleeting</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 松弛的，不紧的，不严格的： not tense, firm, or rigid
-adj. 懈怠的，漫不经心的： failing to give proper care and attention</t>
+          <t>adj. 稍纵即逝的，短暂的： lasting only for a short time; passing swiftly</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>exercises to improve lax muscles  锻炼松弛的肌肉
-The guidelines for the essay contest were fairlylax, permitting a wide variety of topics.   本次作文大赛的要求相对比较宽松，允许写多种类型的主题。
-The university has been lax about enforcing these rules.  学校对于这些规定的施行显得漫不经心。</t>
+          <t>They have been waiting for more than 4 hours but caught only a fleeting glimpse of the movie star.   他们苦等了至少四个小时，却最终只短短地瞟到了电影明星一眼。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3194,17 +3164,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>lionize</t>
+          <t>foreground</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vt. 追捧，把…捧为名人： to look on or treat (a person) as a celebrity</t>
+          <t>vt. 强调，重视： to indicate the importance of by centering attention on</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>She was lionized everywhere after her novel won the Pulitzer Prize.   在她的小说获得普利策奖之后，她无论走到哪都受到追捧。</t>
+          <t>He repeatedly foregrounded his experience in international affairs in the course of his campaign for thepresidency.   在他竞选总统的过程中，他一再强调自己在处理国际事务方面的经验。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3216,113 +3186,193 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>gawky</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>adj. （举止）笨拙的： having or showing an inability to move in a graceful manner</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>The pathetic gawky woman was once a lithe ballerina but got severely injured in a car accident.   这 个 可怜的步态笨拙的妇女本来是一名轻巧优雅的芭蕾舞女，但是在一次车祸中受了重伤。</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>indecorous</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>adj. 不合乎礼节的，不得体的： conflicting with accepted standards of good conduct or good taste</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>How can you make such an indecorous joke for a solemn moment in the marriage ceremony ? 你 怎 么能在庄严肃穆的结婚典礼上开那样一个不得体的玩笑呢？</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>lax</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>lionize</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>vt. 追捧，把…捧为名人： to look on or treat (a person) as a celebrity</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>She was lionized everywhere after her novel won the Pulitzer Prize.   在她的小说获得普利策奖之后，她无论走到哪都受到追捧。</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>lurid</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>adj. 恐怖的，令人反感的： causing horror or revulsion
 adj. 面色苍白的，病态的： wan and ghastly pale in appearance</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>We quickly drove past the lurid scene of the crash.   我们迅速驶过了可怕的车祸现场。
 The doctor was alarmed by the patient's lurid complexion.   病人惨白的面色给医生敲响了警钟。</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>malignant</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>adj. 恶毒的，邪恶的： having or showing a desire to cause someone pain or suffering for the sheerenjoyment of it; disposed to do evil</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t xml:space="preserve">She has a malignant wish to poison everyone who was smarter, richer, or better-looking than she was.  </t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>notoriety</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>n. （尤指因为丑闻而出名的）名人： a person who is widely known and usually much talked about,especially for something bad; a notorious person
 n. 坏名声： the quality or condition of being notorious; ill fame</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>a television show featuring notorieties from 20 years of scandals  以二十年来因各色丑闻而出名的名人为卖点的电视节目
 She gained notoriety when nude photographs of her appeared in a magazine.   她的裸照出现在杂志上让她声名远播。
 His comment about the President has given him a notoriety that he enjoys very much.   他 对 于总统的评论让他获得了很让他满意的名声。</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>overshadow</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 使变黯淡： to make dark, dim, or indistinct
 vt. （在重要性上）超越，超过： to exceed in importance</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t xml:space="preserve">Large trees overshadow the yard and darken the house for much of the day.   大树为院子遮挡了阳光，并使屋子里一天之中的大多数时候都很昏暗。
 Her mother's illness overshadowed her childhood.  她 母 亲 的 疾病让她的童年缺乏亮色。
 The forward’s outstanding performance should not overshadow the achievements of the rest of the team.  </t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>pioneer</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>n. 扩荒者，先驱者： one of the first to settle in a territory
 adj. 最初的，最早的： coming before all others in time or order
 vt. 开创，创造： to open up (an area) or prepare (a way)</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>the hardships that the pioneers endured while taming the wilderness  在驯服自然的过程中扩荒者所受到的种种磨难
 a pioneer in aviation  航空业的先驱
@@ -3331,307 +3381,301 @@
 rockets that pioneered outer space  开创了外太空纪元的火箭</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>pragmatic</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>adj. 实用主义的，务实的： a practical approach to problems and affairs</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Pragmatic men of power have had no time or inclination to deal withsocial morality.  (K.   B.   Clark) 务 实 的当权者不会有时间或者意向去处理社会道德的问题。——K.   B.   克拉克
-a pragmatic man, not given to grand,Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  visionary schemes  一个不迷恋花哨空想的计划，而更注重实际的人</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+a pragmatic man, not given to grand,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>refreshing</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>adj. 令人心身振奋的，提神的： having a renewing effect on the state of the body or mind</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>A glass of cold water is very refreshing on such a hot day.   大热天里的一杯冰水真是让人心旷神怡。
 Itis refreshing to hear some good news about him.   能听到他的好消息真是让人振奋。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>skittish</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>adj. 容易受到惊吓的，胆小的： easily frightened
 adj. 容易激动的： easily excited by nature
 adj. 善变的，多变的： likely to change frequently, suddenly, or unexpectedly</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>The kitty is skittish around people she doesn't know.  小猫看到不认识的人就会显得特别胆小害怕。
 The skittish colt leapt up when we approached.  一看到我们靠近，小马驹就激动地猛跳起来。
 The skittish housing market had both buyers and sellers on edge.  变幻莫测的房市让买家和卖家都坐立不安。</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>stigmatize</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>vt. 使蒙上污名： to characterize or brand as disgraceful or ignominious</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Urban construction workers are often stigmatized by the rest of society as lazy and dirty.  城 市 里 的 建筑工人往往被社会里的其他人污蔑为是懒惰而肮脏的。</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>surpass</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>vt. 超越，强于： to become better, greater, or stronger than
 vt. 突破（界限，纪录等）： to go beyond the limit of</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>She always tried to surpass her older brother at anything he did, which results in his diffidence.   她 在 任何一个方面都要比她哥哥优秀，由此导致了他自信心的匮乏。
 The sales of the band's newest CD have surpassed the combined sales of its last two albums.   乐 队 新专辑的发售量甚至超过了前两张销售量的总和。</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>thrill</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>n. 强烈的兴奋感，快感： a pleasurably intense stimulation of the feelings本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-vt. 使兴奋，使激动： a pleasurably intense stimulation of the feelings</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Everyone gets a real thrill out of the Independence Day fireworks.  每个人都因独立日的焰火表演而感到无比的兴奋。
-I was thrilled to hear that you got the promotion that you’d been so desperately wanting.  听 到 你 终 于获得了梦寐已久的升迁，我感到非常激动。</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>n. 强烈的兴奋感，快感： a pleasurably intense stimulation of the feelings</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>timely</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>adj. 及时的，无拖延的： done, carried out, or given without delay
 adj. 恰到好处的，合乎适宜的： appropriate or adapted to the times or the occasion</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>When I order a pizza, I expect it to be delivered in a timely manner.   当我在外面点了披萨饼，我就希望它能按时送到。
 Timely invitation to lunch that came just as I was starting to feel hungry.   正当我开始感到饥饿的时候，就有人适时地邀请我吃午饭了。</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>trifling</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 细微的，不重要的： lacking in significance or solid worth</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Deciding what you want to do for a living is no trifling matter.  决定维持生计的行当可不是一件小事。
 trifling differences between the theatrical and DVD versions of the movie  影院版和 DVD  版电影当中的细微区别</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>abreast</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>adv. 并排地： beside one another with bodies in line
 adj. 熟知的： up to a particular standard or level especially of knowledge of recent developments</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>a group of youths riding four abreast  四个一排骑着车的孩子们
 She tried to keep abreast of the latest fashion trends.   她总是尽可能地跟上时尚的潮流。</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>absent</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>adj. 未出现的，缺乏的： not present, attending or existing</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t xml:space="preserve">The city's usual stir of activity was conspicuously absent due to the report of an escaped lion from the zoo.  </t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>acclaim</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>n. 称赞： public acknowledgment or admiration for an achievement
 vt. 赞扬，赞颂： to declare enthusiastic approval of</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Many people were involved in the search, but the person who actually found the missing girl got all theacclaim.   许许多多的人都参与了搜救行动，但是只有真正找到那个迷失的小女孩的人才受到称赞。
 He was acclaimed as the country's greatest modern painter.   他被盛赞为国内最优秀的现代画家。</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>accomplish</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>vt. 完成，实现： to carry through (as a process) to completion</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>I don’t think we can accomplish our goal unless we cooperate.   我认为只有合作才能实现我们的目标。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>accord</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>n. 一致： a state of consistency
 vi. 相符合，相一致： to be consistent or in harmony
 vt. 授予，给予： to grant or give especially as appropriate, due, or earned</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>This map doesn't seem to be in accord with the current layout of the streets.   这幅地图似乎与当前的街道情况不尽一致。
 a theory that accords with the known facts  与已知事实相一致的理论
@@ -3639,302 +3683,271 @@
 Women were finally accorded the right to vote in 1920.   女性最终在 1920 年获得了投票权。</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>acknowledge</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>vt. 承认： to admit the existence, reality, or truth of</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>He refused to acknowledge the fact that her daughter has gone.   他拒绝承认女儿已经死去的事实。</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>acquire</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>vt. 获取，获得： to get as one’s own</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>bacteria that acquire tolerance to antibiotics  产生了抗药性的细菌
 I have never acquired a taste forwine.  我从来就不具备对葡萄酒酒的品味能力。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>adversity</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>n. 厄运，逆境： a state, condition, or instance of serious or continued difficulty or adverse fortune</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>The fire is the test of gold, adversity of strong man.  (Martha Graham) 烈火试真金，逆境炼勇士。——玛莎·葛兰姆
 finally overcame all the adversities of the Great Depression and rebuilt their fortunes  终 于 度 过 了 大 萧条的困境，开始重新创造他们的财富</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>affectation</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>n. 虚伪，做作： the act of taking on or displaying an attitude or mode of behavior not natural to oneselfor not genuinely felt</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>affirm</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>vt. 声称为真，肯定属实： to assert (as a judgment or decree) as valid or confirmed</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>He was unwilling to affirm without further study that the painting is an original Rembrandt.   在 缺 乏 进 一步研究的情况下，他不愿意声称这幅画作是出自伦布兰特的正品。</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>agility</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>n. （身手）敏捷： ease and grace in physical activity</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>His agility on the parallel bars has won him several medals.   他在双杠上的矫捷身姿助他赢得了数枚奖牌。</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>agreeable</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>adj. 令人愉悦的： pleasing to the mind or senses especially as according well with one's tastes orneeds</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Would you mind putting on some agreeable music for dinner ? 你 介 意 为 晚 饭 放 一 些 令 人 愉 快 的 音 乐吗？
 the agreeable melancholy resulting from a sense of the transitoriness of natural beauty  因 为 感 慨 自 然 之美稍纵即逝而产生的令人愉悦的忧伤</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>alloy</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>n. 合金，混合物： a distinct entity formed by the combining of two or more different things
 vt. 掺杂，降低纯度： to debase by the addition of an inferior element</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Brass is an alloy, consisting of copper and zinc.  黄铜是一种由铜和锌组成的合金。
 Television news hasalways been an alloy of journalism and show business.  电视新闻一直以来都是新闻界和演艺圈的混合体。
 idealism that was alloyed with political skill  因为掺入了政治技能而被削弱理想主义</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>ambivalent</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>adj. （尤指感情、态度）矛盾的： having a mixture of opposing feelings</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>He maintained an ambivalent attitude to religion throughout his life.   他一生都对宗教抱有矛盾的心态。</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>analogous</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>adj. 相似的，可比较的： having qualities in common</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Bad-mouthing your sister is analogous to slapping her in the face - it's just as bad.   说你姐姐的坏话和当本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。面扇她耳光是类似的——它们都是不好的行为。</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Bad-mouthing your sister is analogous to slapping her in the face - it's just as bad.   说你姐姐的坏话和当</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>annotate</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>vt. 做注解： to furnish (a literary work) with critical commentary or explanatory notes</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>The advent of e-books enables user to freely annotate what they are reading without worrying about beingfined by libraries.   电子书的出现使得用户可以在不用担心被图书馆处以罚金的情况下自由地在读物上作注。</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>antipathy</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>n. 厌恶，反感： settled aversion or dislike
 n. 令人反感的事物： an object of aversion</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>I feel no antipathy towards any of my opponents in the tournament.   我对锦标赛中碰到的任何对手都不存在反感。
 Cruelty to animals is one of my most deeply felt antipathies.   虐待动物是最让我反感的行为之一。</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>antiquated</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>adj. 古老的，过时的： outmoded or discredited by reason of age: being out of style or fashion</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>We saw an antiquated hand-cranked rope-making machine at the textiles museum.  我 们 在 纺 织 博 物馆里看到了一台手摇式古董制绳机。
-antiquated methods of farming  已经过时的耕种技术</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_11.xlsx
+++ b/result/生词本导入模版_11.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +422,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>demotion</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>n. 降级，降职： the act or an instance of bringing to a lower grade or rank</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Anyone who objects will get a demotion.   任何胆敢反对的人都会被降职。
+received a demotion fromsergeant to corporal  从中士降为下士</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>demotion</t>
+          <t>glower</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n. 降级，降职： the act or an instance of bringing to a lower grade or rank</t>
+          <t>vi. 怒目而视： to look or stare with sullen annoyance or anger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anyone who objects will get a demotion.   任何胆敢反对的人都会被降职。
-received a demotion fromsergeant to corporal  从中士降为下士</t>
+          <t>Baseball fans glowering at their TVs as they watched their favorite team lose.   看着他们支持的球队输球，棒球迷们恶狠狠地盯着电视屏幕。
+He just glowered without speaking.   他一言不发地怒视着我。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,18 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>glower</t>
+          <t>grit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vi. 怒目而视： to look or stare with sullen annoyance or anger</t>
+          <t>n. （面对困难时所表现出来的）毅力： the strength of mind that enables a person to endure pain orhardship</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Baseball fans glowering at their TVs as they watched their favorite team lose.   看着他们支持的球队输球，棒球迷们恶狠狠地盯着电视屏幕。
-He just glowered without speaking.   他一言不发地怒视着我。</t>
+          <t>She was an athlete with true grit, continuing her training despite bad weather and an injury.   她 是 真 正 一个有着惊人毅力的运动员，即便是在受了伤外加天气恶劣的情况下仍然坚持训练。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,17 +492,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>grit</t>
+          <t>infraction</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. （面对困难时所表现出来的）毅力： the strength of mind that enables a person to endure pain orhardship</t>
+          <t>n. 违背，违犯： a failure to uphold the requirements of law, duty, or obligation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>She was an athlete with true grit, continuing her training despite bad weather and an injury.   她 是 真 正 一个有着惊人毅力的运动员，即便是在受了伤外加天气恶劣的情况下仍然坚持训练。</t>
+          <t>Speeding is only a minor infraction, but vehicular homicide is a serious felony.   超速只是小的违章，但是用机动车故意杀人就是重罪了。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,17 +514,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>infraction</t>
+          <t>madcap</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>n. 违背，违犯： a failure to uphold the requirements of law, duty, or obligation</t>
+          <t>n. 热爱冒险的人： a person who seeks out very dangerous or foolhardy adventures with noapparent fear
+adj. 大胆的，鲁莽的： behaving or acting impulsively or rashly; foolishly adventurous or bold</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Speeding is only a minor infraction, but vehicular homicide is a serious felony.   超速只是小的违章，但是用机动车故意杀人就是重罪了。</t>
+          <t>an incorrigible madcap who loves drag racing and white-water rafting  一个热爱飙车和激流竹筏的无药可救的冒险狂
+They switched from one madcap scheme to another.   他们从一个鲁莽的方案换到了另一个。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -548,19 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>madcap</t>
+          <t>novice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. 热爱冒险的人： a person who seeks out very dangerous or foolhardy adventures with noapparent fear
-adj. 大胆的，鲁莽的： behaving or acting impulsively or rashly; foolishly adventurous or bold</t>
+          <t>n. 新手，初学者： a person new to a field or activity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>an incorrigible madcap who loves drag racing and white-water rafting  一个热爱飙车和激流竹筏的无药可救的冒险狂
-They switched from one madcap scheme to another.   他们从一个鲁莽的方案换到了另一个。</t>
+          <t>a novice chess player  象棋初学者</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -572,17 +560,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>novice</t>
+          <t>observant</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 新手，初学者： a person new to a field or activity</t>
+          <t>adj. 警惕的，警觉的： paying close attention usually for the purpose of anticipating approachingdanger or opportunity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a novice chess player  象棋初学者</t>
+          <t>Good reporters are keenly observant of everything around them.   优秀的记者应该对身边所有的事情都保持高度的警惕。
+If you were more observant, you would perceive that something is troubling her deeply.  如果你能再警觉一些的话，你就会发现她正被某些东西困扰。</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -594,18 +583,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>observant</t>
+          <t>plenitude</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adj. 警惕的，警觉的： paying close attention usually for the purpose of anticipating approachingdanger or opportunity</t>
+          <t>n. 丰富，充沛： an amount or supply more than sufficient to meet one's needs
+n. 大量： a considerable amount</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Good reporters are keenly observant of everything around them.   优秀的记者应该对身边所有的事情都保持高度的警惕。
-If you were more observant, you would perceive that something is troubling her deeply.  如果你能再警觉一些的话，你就会发现她正被某些东西困扰。</t>
+          <t>a region blessed with a plenitude of natural resources  充满着上帝赐予的丰富资源的地区
+She has gathered a plenitude of information on the topic.  有关这个话题她收集了大量的资料。</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,19 +607,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>plenitude</t>
+          <t>replenish</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>n. 丰富，充沛： an amount or supply more than sufficient to meet one's needs
-n. 大量： a considerable amount</t>
+          <t>vt. 补充： to fill or make complete again; add a new stock or supply to</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a region blessed with a plenitude of natural resources  充满着上帝赐予的丰富资源的地区
-She has gathered a plenitude of information on the topic.  有关这个话题她收集了大量的资料。</t>
+          <t>He went to replenish her glass.   他去续杯了。</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -641,17 +629,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>replenish</t>
+          <t>stasis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>vt. 补充： to fill or make complete again; add a new stock or supply to</t>
+          <t>n. 平衡，停滞： a condition of balance among various forces</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>He went to replenish her glass.   他去续杯了。</t>
+          <t>For the time being, the populations of the national park's predators and prey remain in stasis.  目 前 国家公园中捕食者和猎物的数量保持着一定的平衡。
+Language is a primary element of culture,and stasis in the artsis tantamount to death.   (Charles Marsh) 语言是文化当中的主要元素，艺术的停滞和平衡就等同于死亡。——查理斯·马氏</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -663,18 +652,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>stasis</t>
+          <t>tycoon</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>n. 平衡，停滞： a condition of balance among various forces</t>
+          <t>n. 大亨，巨头： a person of rank, power, or influence in a particular field</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>For the time being, the populations of the national park's predators and prey remain in stasis.  目 前 国家公园中捕食者和猎物的数量保持着一定的平衡。
-Language is a primary element of culture,and stasis in the artsis tantamount to death.   (Charles Marsh) 语言是文化当中的主要元素，艺术的停滞和平衡就等同于死亡。——查理斯·马氏</t>
+          <t>an oil tycoon who's widely considered the most powerful man in the county  被认为是郡上最有势力的一个石油大亨
+The automobile tycoon is on the verge of bankruptcy.  汽车巨头濒临破产的边缘。</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -686,18 +675,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tycoon</t>
+          <t>umbrage</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>n. 大亨，巨头： a person of rank, power, or influence in a particular field</t>
+          <t>n. 不悦，生气： the feeling of being offended or resentful after a slight or indignity</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>an oil tycoon who's widely considered the most powerful man in the county  被认为是郡上最有势力的一个石油大亨
-The automobile tycoon is on the verge of bankruptcy.  汽车巨头濒临破产的边缘。</t>
+          <t>He would take umbrage at the slightest suggestion of disrespect.  哪怕是一点点的不敬也会让他不悦。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -709,44 +697,44 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>umbrage</t>
+          <t>wilt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>n. 不悦，生气： the feeling of being offended or resentful after a slight or indignity</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>He would take umbrage at the slightest suggestion of disrespect.  哪怕是一点点的不敬也会让他不悦。</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>wilt</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
         <is>
           <t>vi. （花、植物等）萎蔫： to become limp or flaccid
 vi. 精神萎靡，憔悴： to feel or exhibit the effects of fatigue or exhaustion</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>The plants wilted after I forgot to water them for three whole days.  在我整整三天忘记浇水之后，植物们全都萎蔫了。
 She had wilted a bit after walking around the hot and humid city.   在炎热潮湿的城市中行走使得她略显憔悴。
 His brain wilted from hitherto unprecedented weariness.   在前所未有的疲劳面前，他的开始变得神情憔悴。</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>agape</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adj. 急切盼望的： having or showing signs of eagerly awaiting something</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>At the sound of the sleigh bells the children were all agape, waiting for Santa to appear.  听到雪橇铃，孩子们开始好奇地等待圣诞老人的到来。</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -756,45 +744,45 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>agape</t>
+          <t>annex</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>adj. 急切盼望的： having or showing signs of eagerly awaiting something</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>At the sound of the sleigh bells the children were all agape, waiting for Santa to appear.  听到雪橇铃，孩子们开始好奇地等待圣诞老人的到来。</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>annex</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
         <is>
           <t>n. 裙楼，副楼： a building added on to a larger one or an auxiliary building situated near a main one
 vt. 添加，合并： to join (something) to a mass, quantity, or number so as to bring about an overallincrease
 vt. 吞并，夺取（土地等）： to incorporate (a country or other territory) within the domain of a state</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>The new annex that will serve as the permanent home for the school library.   新的裙楼将成为学校图书馆的永久住所。
 plans to annex the supply room so as to make the classroom bigger  计划将工具房并入教室，从而扩充其容量
 Rome annexed the Nabatean kingdom in 106 AD.   公元前 106 年罗马帝国吞并了古城那巴顿。</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>baffling</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adj. 令人疑惑的，难以理解的： making great mental demands; hard to comprehend or solve</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>I was constantly ill, with a baffling array of symptoms.   我常常生病，而且有着一系列令人困惑的症状。</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -804,17 +792,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>baffling</t>
+          <t>bewitching</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adj. 令人疑惑的，难以理解的： making great mental demands; hard to comprehend or solve</t>
+          <t>adj. 迷人的，令人着迷的： having an often mysterious or magical power to attract</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I was constantly ill, with a baffling array of symptoms.   我常常生病，而且有着一系列令人困惑的症状。</t>
+          <t>bewitching woman who has never lacked for suitors  一个从不缺乏追求者的迷人女子</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -826,17 +814,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bewitching</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>adj. 迷人的，令人着迷的： having an often mysterious or magical power to attract</t>
+          <t>n. 令人厌烦的人或事物： one that causes boredom
+vt. 使厌倦，使厌烦： to make weary by being dull, repetitive, or tedious</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>bewitching woman who has never lacked for suitors  一个从不缺乏追求者的迷人女子</t>
+          <t>For once, the graduation speaker wasn't a real bore.   就这一次毕业演讲者不是那么令人厌倦。
+The professor's lifeless and unimaginative teaching style bored the students to death.   教 授 毫 无 生 气 和想象力的说教方式让学生厌倦至极。</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,19 +838,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>bumble</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n. 令人厌烦的人或事物： one that causes boredom
-vt. 使厌倦，使厌烦： to make weary by being dull, repetitive, or tedious</t>
+          <t>vi. 含糊不清地说，杂乱无章地说： to speak rapidly, inarticulately, and usually unintelligibly
+vi. 笨拙地行动： to move, act, or proceed clumsily</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>For once, the graduation speaker wasn't a real bore.   就这一次毕业演讲者不是那么令人厌倦。
-The professor's lifeless and unimaginative teaching style bored the students to death.   教 授 毫 无 生 气 和想象力的说教方式让学生厌倦至极。</t>
+          <t>Overcome with stage fright, I could only bumble through the speech.   由于怯场，我结结巴巴地说完了演讲稿。
+I sort of bumbled through the dance number, hoping that it would soon end.   我笨拙地跟着曲子舞蹈，心里指望着它快点结束。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -872,19 +862,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bumble</t>
+          <t>carefree</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>vi. 含糊不清地说，杂乱无章地说： to speak rapidly, inarticulately, and usually unintelligibly
-vi. 笨拙地行动： to move, act, or proceed clumsily</t>
+          <t>adj. 无忧无虑的： free from care as having no worries or troubles</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Overcome with stage fright, I could only bumble through the speech.   由于怯场，我结结巴巴地说完了演讲稿。
-I sort of bumbled through the dance number, hoping that it would soon end.   我笨拙地跟着曲子舞蹈，心里指望着它快点结束。</t>
+          <t>passengers on a luxury cruise ship enjoying a carefree vacation  在豪华游轮上享受着无忧旅途的乘客
+carefree college students on spring break  春假期间无忧无虑的大学生</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -896,18 +885,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>carefree</t>
+          <t>chaperone</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 无忧无虑的： free from care as having no worries or troubles</t>
+          <t>vt. 同行，护送： to go along with in order to provide assistance, protection, or companionship</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>passengers on a luxury cruise ship enjoying a carefree vacation  在豪华游轮上享受着无忧旅途的乘客
-carefree college students on spring break  春假期间无忧无虑的大学生</t>
+          <t>Three parents will chaperone the students on the school trip.  本次班级旅行将有三名家长同行。</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -919,17 +907,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>chaperone</t>
+          <t>charisma</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>vt. 同行，护送： to go along with in order to provide assistance, protection, or companionship</t>
+          <t>n. 魅力，吸引力： a special magnetic charm or appeal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Three parents will chaperone the students on the school trip.  本次班级旅行将有三名家长同行。</t>
+          <t xml:space="preserve">a movie star with unique charisma  有着独特魅力的电影明星
+The candidate was lacking in charisma.  </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -941,18 +930,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>charisma</t>
+          <t>conflagration</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n. 魅力，吸引力： a special magnetic charm or appeal</t>
+          <t>n. 大火： a large destructive fire
+n. 武装冲突，战争： a state of armed violent struggle between states, nations, or groups</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">a movie star with unique charisma  有着独特魅力的电影明星
-The candidate was lacking in charisma.  </t>
+          <t xml:space="preserve">All the stock was destroyed in a warehouse conflagration.   仓库里所有的货物都被一场大火烧毁了。
+What began as a skirmish over disputed territory erupted into a conflagration that swept the continent.  </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -964,19 +954,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>conflagration</t>
+          <t>crow</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>n. 大火： a large destructive fire
-n. 武装冲突，战争： a state of armed violent struggle between states, nations, or groups</t>
+          <t>vi. 感到高兴： to feel or express joy or triumph
+vi. 自鸣得意： to praise or express pride in one's own possessions, qualities, or accomplishmentsoften to excess</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">All the stock was destroyed in a warehouse conflagration.   仓库里所有的货物都被一场大火烧毁了。
-What began as a skirmish over disputed territory erupted into a conflagration that swept the continent.  </t>
+          <t>Being the home of the new Super Bowl champs was the first thing that city residents had to crow about ina very long time.   当地的队伍获得超级碗冠军队伍是这个城市居民长期以来得以感到高兴的第一件事情。
+He is already crowing over his victory.  他已经在那里为自己的胜利而自鸣得意了。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -988,19 +978,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>crow</t>
+          <t>dashing</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>vi. 感到高兴： to feel or express joy or triumph
-vi. 自鸣得意： to praise or express pride in one's own possessions, qualities, or accomplishmentsoften to excess</t>
+          <t>adj. 爱好冒险的，大胆的： inclined or willing to take risks</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Being the home of the new Super Bowl champs was the first thing that city residents had to crow about ina very long time.   当地的队伍获得超级碗冠军队伍是这个城市居民长期以来得以感到高兴的第一件事情。
-He is already crowing over his victory.  他已经在那里为自己的胜利而自鸣得意了。</t>
+          <t>the dashing heroes in stories about the American West  美国西部故事中那些勇敢无畏的英雄</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1012,17 +1000,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dashing</t>
+          <t>dated</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>adj. 爱好冒险的，大胆的： inclined or willing to take risks</t>
+          <t>adj. 过时的： having passed its time of use or usefulness; out-of-date</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>the dashing heroes in stories about the American West  美国西部故事中那些勇敢无畏的英雄</t>
+          <t>His jokes are awfully dated, referring to things that happened years ago.   他的笑话全是些关于几年前的事情的过时货。</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1034,17 +1022,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dated</t>
+          <t>dependable</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 过时的： having passed its time of use or usefulness; out-of-date</t>
+          <t>adj. 可靠的，值得信赖的： capable of being depended on</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>His jokes are awfully dated, referring to things that happened years ago.   他的笑话全是些关于几年前的事情的过时货。</t>
+          <t xml:space="preserve">a dependable source of income  可靠的收入来源
+He was a good friend and a dependable companion.  </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1056,18 +1045,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dependable</t>
+          <t>deplorable</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>adj. 可靠的，值得信赖的： capable of being depended on</t>
+          <t>adj. 可鄙的，可耻的： worthy of severe condemnation or reproach
+adj. 悲惨的，可悲的： of a kind to cause great distress</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">a dependable source of income  可靠的收入来源
-He was a good friend and a dependable companion.  </t>
+          <t>We will not tolerate such deplorable behavior in a house of worship.   我们绝不能容许这样一种可鄙的行为出现在礼拜堂中。
+Many of them work under deplorable conditions.   许多人的工作环境十分悲惨。</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1079,19 +1069,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>deplorable</t>
+          <t>dike</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 可鄙的，可耻的： worthy of severe condemnation or reproach
-adj. 悲惨的，可悲的： of a kind to cause great distress</t>
+          <t>n. 堤坝，水坝： a bank usually of earth constructed to control or confine water</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>We will not tolerate such deplorable behavior in a house of worship.   我们绝不能容许这样一种可鄙的行为出现在礼拜堂中。
-Many of them work under deplorable conditions.   许多人的工作环境十分悲惨。</t>
+          <t xml:space="preserve">An elaborate system of dikes was built to protect the lowlands from the relentless onslaught of the sea.  </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1103,44 +1091,44 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dike</t>
+          <t>escort</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>n. 堤坝，水坝： a bank usually of earth constructed to control or confine water</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An elaborate system of dikes was built to protect the lowlands from the relentless onslaught of the sea.  </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>escort</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
         <is>
           <t>n. 护卫队，护送者： a person or group of persons accompanying another to give protection or as acourtesy
 vt. 同行，护送： to go along with in order to provide assistance, protection, or companionship</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>The mayor served as the First Lady's escort for her tour of the city.   市长陪同第一夫人参观了城市。
 Asenior student from the college escorted my parents and me on our tour of the campus.   来 自 学 院 的一个师兄陪同我和我父母参观了校园。
 a VIP escorted by an army of bodyguards and journalists  被 一 群 保 镖和记者包围的重要人物</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>felony</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>n. 重罪： one of several grave crimes, such as murder, rape, or burglary, punishable by a morestringent sentence than that given for a misdemeanor</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>a felony punishable by life imprisonment  可被判处无期徒刑的重罪</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1150,17 +1138,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>felony</t>
+          <t>grumble</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. 重罪： one of several grave crimes, such as murder, rape, or burglary, punishable by a morestringent sentence than that given for a misdemeanor</t>
+          <t>vi. （尤指低声地）抱怨，埋怨： to complain in a surly manner; mutter discontentedly</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a felony punishable by life imprisonment  可被判处无期徒刑的重罪</t>
+          <t>The governed will always find something to grumble about.   (Crane Brinton)被统治者总能找到发牢骚的理由。——瑞恩·布林顿</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1172,17 +1160,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>grumble</t>
+          <t>heckle</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vi. （尤指低声地）抱怨，埋怨： to complain in a surly manner; mutter discontentedly</t>
+          <t>vt. 起哄，使难堪： to harass and try to disconcert with questions, challenges, or gibes</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The governed will always find something to grumble about.   (Crane Brinton)被统治者总能找到发牢骚的理由。——瑞恩·布林顿</t>
+          <t>a controversial player who was constantly heckled by the fans  一个时常被粉丝起哄的有争议的歌手
+Several protesters were heckling the speaker at the rally.   不少示威者在集会上起哄让发言者难堪。</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1194,46 +1183,47 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>heckle</t>
+          <t>lag</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>vt. 起哄，使难堪： to harass and try to disconcert with questions, challenges, or gibes</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>a controversial player who was constantly heckled by the fans  一个时常被粉丝起哄的有争议的歌手
-Several protesters were heckling the speaker at the rally.   不少示威者在集会上起哄让发言者难堪。</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>lag</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
         <is>
           <t>adj. 最终的，最后的： following all others of the same kind in order or time
 vi. 缓慢行走： to proceed or develop with comparative slowness
 vi. 萎靡，失去活力： to lose bodily strength or vigor</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>We're now in the lag end of the project.   现在我们到了项目的尾声阶段。
 The tired puppy was lagging behind the rest of the pack.  疲倦的小狗在队伍的后面缓缓地走着。
 During the fourth quarter the whole team seemed to lag.  到了第四节整支队伍似乎都已经精疲力竭了。</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>lance</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>n. 长矛，标枪： a weapon with a long straight handle and sharp head or blade
+vt. 刺穿，刺破： to penetrate or hold (something) with a pointed object</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The lance struck squarely on the knight's shield, knocking him from his horse.   标枪正中盾牌，将骑士掀于马下。
+Doctors used to lance infected sores, so that they could drain clean.   以前医生会刺破受感染的疮，从而使脓液流出。</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1243,19 +1233,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lance</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n. 长矛，标枪： a weapon with a long straight handle and sharp head or blade
-vt. 刺穿，刺破： to penetrate or hold (something) with a pointed object</t>
+          <t>n. 重要，重大： greatness in significance or influence
+n. 巨大： greatness in size or extent</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The lance struck squarely on the knight's shield, knocking him from his horse.   标枪正中盾牌，将骑士掀于马下。
-Doctors used to lance infected sores, so that they could drain clean.   以前医生会刺破受感染的疮，从而使脓液流出。</t>
+          <t>The magnitude of the issue is severely underestimated.  这个事件的重要性被严重低估了。
+The mountain's sheer magnitude usually leaves tourists speechless.   巨大的山脉往往让旅游者哑口无言。</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1267,19 +1257,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>maneuver</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>n. 重要，重大： greatness in significance or influence
-n. 巨大： greatness in size or extent</t>
+          <t>vt. 巧妙地操纵： to guide with adroitness and design or to bring about or secure as a result of skillfulmanagement</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The magnitude of the issue is severely underestimated.  这个事件的重要性被严重低估了。
-The mountain's sheer magnitude usually leaves tourists speechless.   巨大的山脉往往让旅游者哑口无言。</t>
+          <t>They maneuvered him into signing the contract.  他们巧妙地诱使他签下合同。
+The host maneuveredthe conversation so as to avoid the touchy subject of her divorce.  主人巧妙地控制着对话的内容，以避免触及有关她离婚的敏感话题。</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1291,45 +1280,45 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>maneuver</t>
+          <t>rampant</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>vt. 巧妙地操纵： to guide with adroitness and design or to bring about or secure as a result of skillfulmanagement</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>They maneuvered him into signing the contract.  他们巧妙地诱使他签下合同。
-The host maneuveredthe conversation so as to avoid the touchy subject of her divorce.  主人巧妙地控制着对话的内容，以避免触及有关她离婚的敏感话题。</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>rampant</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
         <is>
           <t>adj. （植物）生长茂盛的： growing thickly and vigorously
 adj. 猖獗的，不受限制的： occurring without restraint and frequently, widely, or menacingly</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>a rampant growth of weeds in the neglected yard  被遗忘的院子里杂草疯长
 Mayor promised to put a stop to the rampant crime that plagued the city.   市长承诺要采取措施，消灭那些扰乱城市治安的猖獗的犯罪活动。
 rampant corruption in city government  市政府中猖獗的腐败</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>remnant</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>n. 残余，剩余物： something left over</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">a remnant of his past glory  他辉煌过去的一丝残余
+The shop is selling remnants of cloth at half price.  </t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1339,18 +1328,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>remnant</t>
+          <t>residual</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>n. 残余，剩余物： something left over</t>
+          <t>adj. 剩余的，残存的： of, relating to, or characteristic of a residue</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">a remnant of his past glory  他辉煌过去的一丝残余
-The shop is selling remnants of cloth at half price.  </t>
+          <t>residual radiation from nuclear tests  核试验所遗留下来的残余辐射</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1362,19 +1350,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>residual</t>
+          <t>screen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 剩余的，残存的： of, relating to, or characteristic of a residue</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>residual radiation from nuclear tests  核试验所遗留下来的残余辐射</t>
-        </is>
-      </c>
+          <t>n. 掩护物，屏障： something that shelters, protects, or hides</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1384,15 +1368,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>screen</t>
+          <t>scrimp</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>n. 掩护物，屏障： something that shelters, protects, or hides</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>vi. 节俭： to avoid unnecessary waste or expense</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>They had to scrimp and save for years in order to be able to afford a house.   他们不得不节俭度日才能攒够钱买房。</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1402,17 +1390,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>scrimp</t>
+          <t>adjudicate</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>vi. 节俭： to avoid unnecessary waste or expense</t>
+          <t>vt. 裁决，判定： to hear and settlea case, dispute or conflict</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>They had to scrimp and save for years in order to be able to afford a house.   他们不得不节俭度日才能攒够钱买房。</t>
+          <t>When my wife and I asked the salesclerk to adjudicate our disagreement, she agreed with me that thewhite shoes looked better.   我和我妻子要求售货员来裁决我们之间的争论，最后她还是同意了我的观点，认为白色的鞋子看起来更漂亮。</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1424,17 +1412,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>adjudicate</t>
+          <t>belligerence</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>vt. 裁决，判定： to hear and settlea case, dispute or conflict</t>
+          <t>n. 好斗，好战： an aggressive or truculent attitude, atmosphere, or disposition</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>When my wife and I asked the salesclerk to adjudicate our disagreement, she agreed with me that thewhite shoes looked better.   我和我妻子要求售货员来裁决我们之间的争论，最后她还是同意了我的观点，认为白色的鞋子看起来更漂亮。</t>
+          <t xml:space="preserve">Among the Native American tribes of the colonial period, the Iroquois were known for their belligerence.  </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1446,17 +1434,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>belligerence</t>
+          <t>canny</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>n. 好斗，好战： an aggressive or truculent attitude, atmosphere, or disposition</t>
+          <t>adj. 精明的，聪明的： careful and shrewd, especially where one's own interests are concerned</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Among the Native American tribes of the colonial period, the Iroquois were known for their belligerence.  </t>
+          <t>He is a canny card player who is good at psyching out his opponents.  他是一个善于琢磨对手心思的精明的扑克玩家。</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1468,17 +1456,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>canny</t>
+          <t>disenchant</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 精明的，聪明的： careful and shrewd, especially where one's own interests are concerned</t>
+          <t>vt. 使清醒： to free from illusion</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>He is a canny card player who is good at psyching out his opponents.  他是一个善于琢磨对手心思的精明的扑克玩家。</t>
+          <t xml:space="preserve">If you thought that you could pass this course without doing any work, let me be the first to disenchant you.  </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1490,17 +1478,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>disenchant</t>
+          <t>forage</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vt. 使清醒： to free from illusion</t>
+          <t>vi. 寻找： to make a search</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you thought that you could pass this course without doing any work, let me be the first to disenchant you.  </t>
+          <t>went foraging for change for the parking meter  寻找付停车费的零钱</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1512,17 +1500,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>forage</t>
+          <t>illustrious</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vi. 寻找： to make a search</t>
+          <t>adj. 著名的，杰出的： well known and very distinguished</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>went foraging for change for the parking meter  寻找付停车费的零钱</t>
+          <t>the most illustrious scientists of the century  本世纪最为杰出的科学家</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1534,17 +1522,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>illustrious</t>
+          <t>monarch</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 著名的，杰出的： well known and very distinguished</t>
+          <t>n. 君主，帝王： one who rules over a people with a sole, supreme, and usually hereditary authority
+n. 巨头，大亨： a person of rank, power, or influence in a particular field</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>the most illustrious scientists of the century  本世纪最为杰出的科学家</t>
+          <t>The ruling monarch of Britain at that time was Queen Elizabeth I.  伊丽莎白一世是当时英国的君主。
+the reigning monarchs of the recording industry  唱片业的巨头们</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1556,19 +1546,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>monarch</t>
+          <t>plebeian</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>n. 君主，帝王： one who rules over a people with a sole, supreme, and usually hereditary authority
-n. 巨头，大亨： a person of rank, power, or influence in a particular field</t>
+          <t>adj. 平民的，社会下层的： belonging to the class of people of low social or economic rank</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The ruling monarch of Britain at that time was Queen Elizabeth I.  伊丽莎白一世是当时英国的君主。
-the reigning monarchs of the recording industry  唱片业的巨头们</t>
+          <t>a man who rose to greatness but never forgot his plebeian past  一个仕途通达，但从未忘却自己平民出身的人</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1580,17 +1568,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>plebeian</t>
+          <t>squeamish</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 平民的，社会下层的： belonging to the class of people of low social or economic rank</t>
+          <t>adj. 恶心的，晕船的： affected with nausea</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>a man who rose to greatness but never forgot his plebeian past  一个仕途通达，但从未忘却自己平民出身的人</t>
+          <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1602,17 +1590,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>squeamish</t>
+          <t>wrest</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 恶心的，晕船的： affected with nausea</t>
+          <t>vt. 拧，扭动： to pull, force, or move by violent wringing or twisting movements
+vt. 辛苦地获得： to gain with difficulty by or as if by force, violence, or determined labor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
+          <t>wrest the lid off this pickle jar  把泡菜罐的盖子拧下来
+farmers who were used to wresting a living from the barren land  一度依靠贫瘠的土地恶劣度日的农民</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1624,19 +1614,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>wrest</t>
+          <t>complacent</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vt. 拧，扭动： to pull, force, or move by violent wringing or twisting movements
-vt. 辛苦地获得： to gain with difficulty by or as if by force, violence, or determined labor</t>
+          <t>adj. 自满的，自鸣得意的： feeling or showing an often excessive or unjustified satisfaction andpleasure in one's status, possessions, or attainments
+adj. 无所谓的，不关心的： having or showing a lack of interest or concern</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>wrest the lid off this pickle jar  把泡菜罐的盖子拧下来
-farmers who were used to wresting a living from the barren land  一度依靠贫瘠的土地恶劣度日的农民</t>
+          <t>a complacent junior accountant who was certain of her indispensability to the company  一 个 确 信 自 己 对于公司而言无可替代而自满的年轻会计
+We can't afford to be complacent about rural illiteracy rates.   我们不能对农村的文盲率坐视不理。</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1648,19 +1638,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>complacent</t>
+          <t>imposter</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>adj. 自满的，自鸣得意的： feeling or showing an often excessive or unjustified satisfaction andpleasure in one's status, possessions, or attainments
-adj. 无所谓的，不关心的： having or showing a lack of interest or concern</t>
+          <t>n. 冒名顶替者，骗子： one that assumes false identity or title for the purpose of deception</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>a complacent junior accountant who was certain of her indispensability to the company  一 个 确 信 自 己 对于公司而言无可替代而自满的年轻会计
-We can't afford to be complacent about rural illiteracy rates.   我们不能对农村的文盲率坐视不理。</t>
+          <t>The man who claimed to be my townsman turned out to be an impostor.   那个自称是我老乡的人结果是个骗子。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1672,17 +1660,18 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>imposter</t>
+          <t>incumbent</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>n. 冒名顶替者，骗子： one that assumes false identity or title for the purpose of deception</t>
+          <t>adj. 义不容辞的，必须的： imposed as an obligation or duty</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The man who claimed to be my townsman turned out to be an impostor.   那个自称是我老乡的人结果是个骗子。</t>
+          <t>It is incumbent upon individuals to sacrifice for their country when it is in danger.   当国家受难时，个人应该义不容辞地为国做出牺牲。
+It is incumbent upon the press to act not in its own best interests, but in society'sbest interests.  对于媒体来说，为社会的利益（而非自身利益）服务是其应尽的义务。</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1694,18 +1683,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>incumbent</t>
+          <t>splinter</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adj. 义不容辞的，必须的： imposed as an obligation or duty</t>
+          <t>n. 尖细条，刺： a sharp, slender piece, as of wood, bone, glass, or metal, split or broken off from amain body</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>It is incumbent upon individuals to sacrifice for their country when it is in danger.   当国家受难时，个人应该义不容辞地为国做出牺牲。
-It is incumbent upon the press to act not in its own best interests, but in society'sbest interests.  对于媒体来说，为社会的利益（而非自身利益）服务是其应尽的义务。</t>
+          <t>She got a splinter from the unfinished wall.  她的手被还没有装修的墙扎了一根刺。</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1717,17 +1705,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>splinter</t>
+          <t>calibrate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n. 尖细条，刺： a sharp, slender piece, as of wood, bone, glass, or metal, split or broken off from amain body</t>
+          <t>vt. 校准，调校： to check, adjust, or determine by comparison with a standard (the graduations ofa quantitative measuring instrument)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>She got a splinter from the unfinished wall.  她的手被还没有装修的墙扎了一根刺。</t>
+          <t>We need to calibrate the sextants navigation.   我们要为航行校准六分仪。</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1739,17 +1727,18 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>calibrate</t>
+          <t>commiserate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>vt. 校准，调校： to check, adjust, or determine by comparison with a standard (the graduations ofa quantitative measuring instrument)</t>
+          <t>vi. 表示怜悯，同情： to feel or express sympathy</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>We need to calibrate the sextants navigation.   我们要为航行校准六分仪。</t>
+          <t>commiserated over their failure  对他们的失败表示同情
+We commiserated with him but there was littlewe could do to make the situation better.   我们很同情他的遭遇，但是也只能表示无能为力。</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1761,18 +1750,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>commiserate</t>
+          <t>nullification</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>vi. 表示怜悯，同情： to feel or express sympathy</t>
+          <t>n. （尤指法律条文等正式的）废除，废弃： the doing away with something by formal action</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>commiserated over their failure  对他们的失败表示同情
-We commiserated with him but there was littlewe could do to make the situation better.   我们很同情他的遭遇，但是也只能表示无能为力。</t>
+          <t>the nullification of a treaty  废除条约</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1784,17 +1772,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nullification</t>
+          <t>behoove</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. （尤指法律条文等正式的）废除，废弃： the doing away with something by formal action</t>
+          <t>vt. 对…有利的： to be necessary, proper or advantageous for</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>the nullification of a treaty  废除条约</t>
+          <t>It behooves you at least to try.   你至少也应该尝试一下。</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1806,32 +1794,10 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>behoove</t>
+          <t>coarse</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>vt. 对…有利的： to be necessary, proper or advantageous for</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>It behooves you at least to try.   你至少也应该尝试一下。</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>coarse</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
         <is>
           <t>adj. 粗糙的，表面不平整的： not having a level or smooth surface
 adj. （声音）刺耳的： harsh, raucous, or rough in tone
@@ -1839,7 +1805,7 @@
 adj. （质量）低劣的： of low, common, or inferior quality</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>the coarse surface of the sandpaper  砂纸的粗糙表面
 a coarse laugh from the living room  客厅里传来的一阵刺耳笑声
@@ -1847,6 +1813,29 @@
 coarse imitations of quality merchandise  高级商品的粗劣仿制品</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>defray</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>vt. 支付： to undertake the payment of</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>The government has committed billions toward defraying the costs of the war.   政府为战争付出了成百上千亿元的代价。
+I don’t have sufficient fund to defray the expense.   我身上的现金还不够埋单。</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1856,18 +1845,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>defray</t>
+          <t>imperishable</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vt. 支付： to undertake the payment of</t>
+          <t>adj. 不能被摧毁的： impossible to destroy; not subject to decay
+adj. 不朽的，永恒的： enduring or occurring forever</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>The government has committed billions toward defraying the costs of the war.   政府为战争付出了成百上千亿元的代价。
-I don’t have sufficient fund to defray the expense.   我身上的现金还不够埋单。</t>
+          <t>Energy is imperishable.   能量本身是不能被毁灭的。
+My memories are within me, imperishable.  我的回忆已经和我融为一体，不可改变。</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1879,19 +1869,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>imperishable</t>
+          <t>machination</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>adj. 不能被摧毁的： impossible to destroy; not subject to decay
-adj. 不朽的，永恒的： enduring or occurring forever</t>
+          <t>n. 诡计： a scheming or crafty action or artful design intended to accomplish some usually evil end</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Energy is imperishable.   能量本身是不能被毁灭的。
-My memories are within me, imperishable.  我的回忆已经和我融为一体，不可改变。</t>
+          <t>The incredibly complicated machination to assassinate the president inevitably failed.   刺 杀 总 统 的 诡 计极其复杂，以至于不可避免地失败了。</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1903,17 +1891,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>machination</t>
+          <t>onset</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>n. 诡计： a scheming or crafty action or artful design intended to accomplish some usually evil end</t>
+          <t>n. 攻击，进攻： attack, assault
+n. 起始，开始： the point at which something begins</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>The incredibly complicated machination to assassinate the president inevitably failed.   刺 杀 总 统 的 诡 计极其复杂，以至于不可避免地失败了。</t>
+          <t>withstand the onset of the army  抵挡住了敌人军队的进攻
+If you take enough vitamin C at the onset of a cold, you'll probably recover faster.   如果你感冒刚一开始就服用足量的维他命 C，你可能会康复得更快。</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1925,21 +1915,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>onset</t>
+          <t>automatic</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>n. 攻击，进攻： attack, assault
-n. 起始，开始： the point at which something begins</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>withstand the onset of the army  抵挡住了敌人军队的进攻
-If you take enough vitamin C at the onset of a cold, you'll probably recover faster.   如果你感冒刚一开始就服用足量的维他命 C，你可能会康复得更快。</t>
-        </is>
-      </c>
+          <t>adj. （机器等）自动的： acting or operating in a manner essentially independent of external influence</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1949,40 +1933,46 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>automatic</t>
+          <t>bustle</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. （机器等）自动的： acting or operating in a manner essentially independent of external influence</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>bustle</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
         <is>
           <t>n. 忙乱，喧闹： noisy, energetic, and often obtrusive activity
 vi. （快速地）行走： to move briskly and often ostentatiously</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>the hustle and bustle of the big city  熙熙攘攘的大都市
 I couldn't concentrate in all the bustle of thestudent lounge.   学生休息室里过于嘈杂，我无法专心。
 the hostess bustled about, taking care of last-minute preparations for the party.  女主人四处走着，为聚会做最后的准备。</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>canonize</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>vt. 过分宠爱，过分崇拜： to love or admire too much
+vt. 使…崇高，使…神圣： to assign a high status or value to</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>a singing star so canonized by his fans that they refuse to believe anything bad about him  一 个 受 到 粉丝疯狂追捧的歌星，他们不会相信任何关于他的负面新闻
+Some movie buffs canonized David Fincher as today’s most preeminent director.   一些影迷把大卫·芬奇视作是当今世界上最为出色的导演。</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1992,46 +1982,44 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>canonize</t>
+          <t>endeavor</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>vt. 过分宠爱，过分崇拜： to love or admire too much
-vt. 使…崇高，使…神圣： to assign a high status or value to</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>a singing star so canonized by his fans that they refuse to believe anything bad about him  一 个 受 到 粉丝疯狂追捧的歌星，他们不会相信任何关于他的负面新闻
-Some movie buffs canonized David Fincher as today’s most preeminent director.   一些影迷把大卫·芬奇视作是当今世界上最为出色的导演。</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>endeavor</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
         <is>
           <t>n. 努力，奋斗： a conscientious or concerted effort toward an end
 vt. 努力做…，拼搏： to devote serious and sustained effort</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>We hope that this latest endeavor will yield much information about the atmosphere of the planet.  我们希望这最后一次的努力能够获取关于行星大气层的大量信息。
 endeavor to improve the quality of life in the inner city  努力改善市内的生活质量
 They endeavored tocreate a government that truly serves its people.   他们在努力地创立一个一心为人民服务的政府。</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>fitful</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>adj. 无规律的，缺乏周期的： having an erratic or intermittent character</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>He drifted off into a fitful sleep.   他慢慢地陷入了时睡时醒的状态。</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2041,17 +2029,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>fitful</t>
+          <t>oaf</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj. 无规律的，缺乏周期的： having an erratic or intermittent character</t>
+          <t>n. 愚蠢的人： a stupid person</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>He drifted off into a fitful sleep.   他慢慢地陷入了时睡时醒的状态。</t>
+          <t>Anyone who took him for an oaf and tried to cheat him would be in for a nasty surprise.   任 何 把 他 当 成 傻子然后想借机欺骗他的人就等着大吃一惊吧。</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2063,17 +2051,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>oaf</t>
+          <t>retentive</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>n. 愚蠢的人： a stupid person</t>
+          <t>adj. 记性好的： having the ability or capacity to retain knowledge or information with ease</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Anyone who took him for an oaf and tried to cheat him would be in for a nasty surprise.   任 何 把 他 当 成 傻子然后想借机欺骗他的人就等着大吃一惊吧。</t>
+          <t>Her retentive memory helped her sail through the history test.  她的好记性帮助她顺利通过了历史考试。</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2085,17 +2073,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>retentive</t>
+          <t>secede</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adj. 记性好的： having the ability or capacity to retain knowledge or information with ease</t>
+          <t>vi. 脱离，退出（组织、团体、联盟等）： to withdraw from an organization (as a religious communionor political party or federation)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Her retentive memory helped her sail through the history test.  她的好记性帮助她顺利通过了历史考试。</t>
+          <t>They threatened to secede from the coalition.   他们以退出联盟相要挟。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2107,17 +2095,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>secede</t>
+          <t>glacial</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>vi. 脱离，退出（组织、团体、联盟等）： to withdraw from an organization (as a religious communionor political party or federation)</t>
+          <t>adj. 极冷的：extremely cold
+adj. 冷漠的，无感情的： devoid of warmth and cordiality</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>They threatened to secede from the coalition.   他们以退出联盟相要挟。</t>
+          <t>The air from the sea felt glacial.   海上的空气冷极了。
+The Duchess gave him a glacial look and moved on.   公爵夫人冷冷地看了他一眼，然后就继续上路了。</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2129,21 +2119,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>glacial</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>adj. 极冷的：extremely cold
-adj. 冷漠的，无感情的： devoid of warmth and cordiality</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>The air from the sea felt glacial.   海上的空气冷极了。
-The Duchess gave him a glacial look and moved on.   公爵夫人冷冷地看了他一眼，然后就继续上路了。</t>
-        </is>
-      </c>
+          <t>glide</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2153,11 +2133,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>glide</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+          <t>monopolize</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>vt. 垄断，主宰： to have complete control over</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>They are virtually monopolizing the market.  他们实际上已经垄断了整个市场。
+To their surprise is wasthe vice president who monopolized the conversation.   令他们惊讶的是，主导整个谈话的居然是副总裁。</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2167,18 +2156,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>monopolize</t>
+          <t>pedagogical</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>vt. 垄断，主宰： to have complete control over</t>
+          <t>adj. 教学的，教师的： of, relating to, or befitting a teacher or education</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>They are virtually monopolizing the market.  他们实际上已经垄断了整个市场。
-To their surprise is wasthe vice president who monopolized the conversation.   令他们惊讶的是，主导整个谈话的居然是副总裁。</t>
+          <t>I have no brow of such a pedagogical tone.  我一点也不喜欢这种说教的口吻。</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2190,17 +2178,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>pedagogical</t>
+          <t>perilous</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 教学的，教师的： of, relating to, or befitting a teacher or education</t>
+          <t>adj. 危险的： involving potential loss or injury</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>I have no brow of such a pedagogical tone.  我一点也不喜欢这种说教的口吻。</t>
+          <t>perilous journey through hostile territory  穿过敌方领土的危险行程</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2212,17 +2200,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>perilous</t>
+          <t>pointer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 危险的： involving potential loss or injury</t>
+          <t>n. （仪表上的）指针： a scale indicator on a watch, balance, or other measuring instrument
+n. 忠告，建议： a useful suggestion or hintusually from an expert</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>perilous journey through hostile territory  穿过敌方领土的危险行程</t>
+          <t>The pointer on my bathroom scale must be stuck - I know I lost weight.   浴室磅秤里的指针肯定坏了——我知道我体重有下降的。
+Here are a few pointers to help you make a choice.  这里有一些能帮助你抉择的建议。</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2234,19 +2224,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>pointer</t>
+          <t>affliction</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>n. （仪表上的）指针： a scale indicator on a watch, balance, or other measuring instrument
-n. 忠告，建议： a useful suggestion or hintusually from an expert</t>
+          <t>n. 痛苦，悲伤，折磨： a state of great suffering of body or mind</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The pointer on my bathroom scale must be stuck - I know I lost weight.   浴室磅秤里的指针肯定坏了——我知道我体重有下降的。
-Here are a few pointers to help you make a choice.  这里有一些能帮助你抉择的建议。</t>
+          <t>She listened with deep affliction as her daughter told her about the latest trouble she was in.  她 怀 着巨大的痛苦聆听着女儿告诉她目前艰难的处境。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2258,17 +2246,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>affliction</t>
+          <t>dishearten</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 痛苦，悲伤，折磨： a state of great suffering of body or mind</t>
+          <t>vt. 使沮丧，使失去信心： to cause to lose spirit or morale</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>She listened with deep affliction as her daughter told her about the latest trouble she was in.  她 怀 着巨大的痛苦聆听着女儿告诉她目前艰难的处境。</t>
+          <t>We were greatly disheartened by the news that our grandmother was seriously ill.   听到祖母病重的消息，我们都很沮丧。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2280,17 +2268,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dishearten</t>
+          <t>disjunctive</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 使沮丧，使失去信心： to cause to lose spirit or morale</t>
+          <t>adj. 分离的： marked by breaks or disunity</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>We were greatly disheartened by the news that our grandmother was seriously ill.   听到祖母病重的消息，我们都很沮丧。</t>
+          <t>a disjunctive narrative sequence  分散的叙述顺序</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2302,17 +2290,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>disjunctive</t>
+          <t>featureless</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 分离的： marked by breaks or disunity</t>
+          <t>adj. 缺乏特征的： lacking distinguishing characteristics or features</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>a disjunctive narrative sequence  分散的叙述顺序</t>
+          <t>the featureless landscape of the steppe  大草原上缺乏特色的地貌</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2324,17 +2312,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>featureless</t>
+          <t>frosty</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adj. 缺乏特征的： lacking distinguishing characteristics or features</t>
+          <t>adj. 寒冷的： having a low or subnormal temperature
+adj. 无强烈感情的，冷淡的： lacking in friendliness or warmth of feeling</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>the featureless landscape of the steppe  大草原上缺乏特色的地貌</t>
+          <t>a frosty autumn that was a sign of the brutal winter that followed  一个极为寒冷的秋天，它象征着随之而来的、可能更加残暴的冬季
+She gave the telemarketer on the phone a frosty “No, thank you” and hung up.  她 向 电 话那 头 的推 销员冷冷地说了一句“不，谢谢”之后就挂掉了电话。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2346,19 +2336,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>frosty</t>
+          <t>sacrosanct</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj. 寒冷的： having a low or subnormal temperature
-adj. 无强烈感情的，冷淡的： lacking in friendliness or warmth of feeling</t>
+          <t>adj. 极为神圣的，不可侵犯的： most sacred or holy</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>a frosty autumn that was a sign of the brutal winter that followed  一个极为寒冷的秋天，它象征着随之而来的、可能更加残暴的冬季
-She gave the telemarketer on the phone a frosty “No, thank you” and hung up.  她 向 电 话那 头 的推 销员冷冷地说了一句“不，谢谢”之后就挂掉了电话。</t>
+          <t xml:space="preserve">The teacher's book of grades is sacrosanct, and someone could be expelled for changing anything in it.  </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2370,19 +2358,15 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sacrosanct</t>
+          <t>shifty</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. 极为神圣的，不可侵犯的： most sacred or holy</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The teacher's book of grades is sacrosanct, and someone could be expelled for changing anything in it.  </t>
-        </is>
-      </c>
+          <t>adj. （显得）狡诈的，（显得）欺诈的： having, displaying, or suggestive of deceitful character</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2392,15 +2376,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>shifty</t>
+          <t>wayward</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>adj. （显得）狡诈的，（显得）欺诈的： having, displaying, or suggestive of deceitful character</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>adj. 刚愎自用的，不服管束的： following one's own capricious, wanton, or depraved inclinations</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>had always been the most wayward of their three children  总是三个小孩里最不听话的一个
+waywardchildren with a history of behavioral problems  过去行为上有些问题的调皮小孩</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2410,18 +2399,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>wayward</t>
+          <t>backslide</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 刚愎自用的，不服管束的： following one's own capricious, wanton, or depraved inclinations</t>
+          <t>vi. （情况等）倒退，固态萌发： to revert to a worse condition</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>had always been the most wayward of their three children  总是三个小孩里最不听话的一个
-waywardchildren with a history of behavioral problems  过去行为上有些问题的调皮小孩</t>
+          <t>Keep these things in mind to help prevent you from backsliding.   牢记这些东西，他们能防止你旧病复犯。</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2433,17 +2421,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>backslide</t>
+          <t>beholden</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>vi. （情况等）倒退，固态萌发： to revert to a worse condition</t>
+          <t>adj. 欠他人人情的： owing something, such as gratitude, to another</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Keep these things in mind to help prevent you from backsliding.   牢记这些东西，他们能防止你旧病复犯。</t>
+          <t>Not wanting to be beholden to anyone, he insisted on paying his own way.  因为不想欠别人的人情，所以他坚持出自己的那一份钱。</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2455,17 +2443,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>beholden</t>
+          <t>beige</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 欠他人人情的： owing something, such as gratitude, to another</t>
+          <t>adj. 缺乏特征的： lacking distinction</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Not wanting to be beholden to anyone, he insisted on paying his own way.  因为不想欠别人的人情，所以他坚持出自己的那一份钱。</t>
+          <t>Some food critics have dismissed that chef's version of French cuisine as beige and boring.   一 些 美 食 评论家认为那名厨师所做的法国菜平凡无奇，令人厌倦。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2477,17 +2465,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>beige</t>
+          <t>menial</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 缺乏特征的： lacking distinction</t>
+          <t>n. 仆人，奴仆： a servant, especially a domestic servant
+adj. 卑贱的，低下的： showing, expressing, or offered in a spirit of humility or unseemlysubmissiveness</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Some food critics have dismissed that chef's version of French cuisine as beige and boring.   一 些 美 食 评论家认为那名厨师所做的法国菜平凡无奇，令人厌倦。</t>
+          <t>Immigrants to that country faced fierce prejudice and could expect to find work only as menials.   前 往 那个国家的移民遭到了严重的歧视，他们也许只能找到像仆人一类的工作。
+low-paid menial jobs such as cleaning the street  一些低收入的卑贱工作，比如扫大街</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2499,19 +2489,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>menial</t>
+          <t>peculiarity</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 仆人，奴仆： a servant, especially a domestic servant
-adj. 卑贱的，低下的： showing, expressing, or offered in a spirit of humility or unseemlysubmissiveness</t>
+          <t>n. 特征，特点： a distinguishing characteristic</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Immigrants to that country faced fierce prejudice and could expect to find work only as menials.   前 往 那个国家的移民遭到了严重的歧视，他们也许只能找到像仆人一类的工作。
-low-paid menial jobs such as cleaning the street  一些低收入的卑贱工作，比如扫大街</t>
+          <t>It is a peculiarity of the house that there is no front door.  没有大门是这座房子的一个特色。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2523,17 +2511,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>peculiarity</t>
+          <t>premeditate</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 特征，特点： a distinguishing characteristic</t>
+          <t>vt. 预谋： to think about and revolve in the mind beforehand</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>It is a peculiarity of the house that there is no front door.  没有大门是这座房子的一个特色。</t>
+          <t>carefully premeditating each step of his plan of campaign  仔细地计划着竞选计划中的每一个步骤</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2545,44 +2533,40 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>premeditate</t>
+          <t>wanting</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>vt. 预谋： to think about and revolve in the mind beforehand</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>carefully premeditating each step of his plan of campaign  仔细地计划着竞选计划中的每一个步骤</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>wanting</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 未出现的，缺少的： not present or in evidence
 adj. 未达到要求的： not being up to standards or expectations</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Grass is almost entirely wanting in that arid wasteland.   那片荒漠几乎没有长一丝青草。
 He examined her work and found it wanting.   他检查了她的作业，发现不合要求。
 We tried her cookingand found it to be very wanting.   我们试了试她的厨艺，结果发现很不尽人意。</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>idiosyncrasy</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>n. 独特而奇怪的习惯： an odd or peculiar habit</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2592,15 +2576,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>idiosyncrasy</t>
+          <t>august</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 独特而奇怪的习惯： an odd or peculiar habit</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>adj. 威严的，庄重的： having or showing a formal and serious or reserved manner
+adj. 盛大的，令人印象深刻的： large and impressive in size, grandeur, extent, or conception</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Unsurprisingly, the head of the bank is an august white-haired gentleman.  不出所料的，银行的总裁是一名白发苍苍的、令人顿生敬意的绅士。
+an august golden anniversary celebration for the company  盛大的周年庆祝会</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2610,19 +2600,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>august</t>
+          <t>coy</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adj. 威严的，庄重的： having or showing a formal and serious or reserved manner
-adj. 盛大的，令人印象深刻的： large and impressive in size, grandeur, extent, or conception</t>
+          <t>adj. 故作羞涩的： affectedly and usually flirtatiously shy or modest
+adj. 不愿与人交往的，内向的： tending to avoid people and social situations</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Unsurprisingly, the head of the bank is an august white-haired gentleman.  不出所料的，银行的总裁是一名白发苍苍的、令人顿生敬意的绅士。
-an august golden anniversary celebration for the company  盛大的周年庆祝会</t>
+          <t>Not wanting him to know that she was interested in him, she acted very coy at the dance.   她 在 舞 会 上故意装得很娇羞的样子，不想让他知道她喜欢他。
+She was modest without being coy.   她很低调，但又不至于内向。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2634,19 +2624,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>coy</t>
+          <t>demote</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>adj. 故作羞涩的： affectedly and usually flirtatiously shy or modest
-adj. 不愿与人交往的，内向的： tending to avoid people and social situations</t>
+          <t>vt. 降职，降级： to reduce to a lower grade or rank</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Not wanting him to know that she was interested in him, she acted very coy at the dance.   她 在 舞 会 上故意装得很娇羞的样子，不想让他知道她喜欢他。
-She was modest without being coy.   她很低调，但又不至于内向。</t>
+          <t>The court-martial’s decision was to demote the officer responsible for the failed mission.  军 事 法 庭 决定对为此次失败任务负责的军官进行降职处理。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2658,17 +2646,18 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>demote</t>
+          <t>staunch</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>vt. 降职，降级： to reduce to a lower grade or rank</t>
+          <t>adj. 忠诚的，坚定的： steadfast in loyalty or principle</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>The court-martial’s decision was to demote the officer responsible for the failed mission.  军 事 法 庭 决定对为此次失败任务负责的军官进行降职处理。</t>
+          <t>a staunch believer in the democratic system  民主制度的坚定拥护者
+No matter what happens I will beyour staunchest supporters.  不论发生什么，我都会是你最忠诚的支持者。</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2680,18 +2669,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>staunch</t>
+          <t>atrophy</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 忠诚的，坚定的： steadfast in loyalty or principle</t>
+          <t>vi. 萎缩，衰退： to waste away; wither or deteriorate</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>a staunch believer in the democratic system  民主制度的坚定拥护者
-No matter what happens I will beyour staunchest supporters.  不论发生什么，我都会是你最忠诚的支持者。</t>
+          <t>The years following the closing of the last textile mill, the town atrophied.   随着最后一家纺织厂的倒闭，整个城镇开始衰退。</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2703,45 +2691,45 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>atrophy</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>vi. 萎缩，衰退： to waste away; wither or deteriorate</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>The years following the closing of the last textile mill, the town atrophied.   随着最后一家纺织厂的倒闭，整个城镇开始衰退。</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>idle</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
         <is>
           <t>adj. 闲置的，未使用的： not turned to normal or appropriate use
 adj. 懒散的： shiftless, lazy
 vi. 懒散度日，无所事事： to pass (time) without working or while avoiding work</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>The car was idle for two weeks while they went on vacation.   因为他们出去旅行了，他们的车闲置了两周。
 an idle employee who always seems to be either on break or at lunch  这个懒散的员工似乎不是在休息就是在吃饭
 idle the afternoon away  打发下午的时光</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>splutter</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>vi. 急切而不清楚地说： to speak hastily and incoherently, as when confused or angry</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They begin to splutter and move restlessly about if they feel time is slipping away without some return.  </t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2751,17 +2739,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>splutter</t>
+          <t>vouchsafe</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vi. 急切而不清楚地说： to speak hastily and incoherently, as when confused or angry</t>
+          <t>vt. 允诺，给予： to grant or furnish often in a gracious or condescending manner</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">They begin to splutter and move restlessly about if they feel time is slipping away without some return.  </t>
+          <t>refused to vouchsafe an explanation  拒绝给出任何解释</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2773,17 +2761,18 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>vouchsafe</t>
+          <t>deadlock</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>vt. 允诺，给予： to grant or furnish often in a gracious or condescending manner</t>
+          <t>n. 僵局： a state of inaction or neutralization resulting from the opposition of equally powerfuluncompromising persons or factions
+vt. 使陷入僵局，使停顿： to bring or come to a deadlock</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>refused to vouchsafe an explanation  拒绝给出任何解释</t>
+          <t>The deadlock was broken with a key compromise.   一个关键性的妥协打破了僵局。</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2795,45 +2784,44 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>deadlock</t>
+          <t>groggy</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>n. 僵局： a state of inaction or neutralization resulting from the opposition of equally powerfuluncompromising persons or factions
-vt. 使陷入僵局，使停顿： to bring or come to a deadlock</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>The deadlock was broken with a key compromise.   一个关键性的妥协打破了僵局。</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>groggy</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
         <is>
           <t>adj. 虚弱的，（走路）不稳的： weak and unsteady on the feet or in action
 adj. 无法思考的，头脑不清的： not able to think or move normally because of being tired, sick, etc.</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>She was feeling a bit groggy when I saw her.   当我看到她的时候她显得有些走路不稳。
 I'm still a little groggy from my nap.   我还没完全从睡梦中清醒过来。
 The medicine sometimes makespatients groggy.   这种药偶尔会让病人产生醉酒一样的麻醉感。</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>acquisitive</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>adj. 贪婪的： strongly desirous of acquiring and possessing</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Acquisitive developers are trying to tear down the ancient temple and build a shopping mall instead.   贪婪的开发商打算铲平这座古老的神庙，取而代之地建造一座购物中心。</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2843,17 +2831,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>acquisitive</t>
+          <t>agonize</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 贪婪的： strongly desirous of acquiring and possessing</t>
+          <t>vt. 折磨，使痛苦： to cause to suffer agony
+vi. 感到痛苦： to suffer agony, torture, or anguish</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Acquisitive developers are trying to tear down the ancient temple and build a shopping mall instead.   贪婪的开发商打算铲平这座古老的神庙，取而代之地建造一座购物中心。</t>
+          <t>She got into more trouble, further agonizing her poor mother.  她惹上了更多的麻烦，进一步加剧了她可怜的母亲所遭受的痛苦。
+She agonized for days over the moral issues involved.   一连几天她都为被卷入的道德纠纷而感到痛苦。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2865,19 +2855,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>agonize</t>
+          <t>alienate</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vt. 折磨，使痛苦： to cause to suffer agony
-vi. 感到痛苦： to suffer agony, torture, or anguish</t>
+          <t>vt. 使…疏远： to make unfriendly, hostile, or indifferent especially where attachment formerlyexisted
+vt. 转让，让渡： to convey or transfer (as property or a right) usually by a specific act rather than thedue course of law</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>She got into more trouble, further agonizing her poor mother.  她惹上了更多的麻烦，进一步加剧了她可怜的母亲所遭受的痛苦。
-She agonized for days over the moral issues involved.   一连几天她都为被卷入的道德纠纷而感到痛苦。</t>
+          <t>His heartless treatment of their mother during the divorce proceeding has completely alienated the twochildren.   他在离婚过程中对妻子表现出来的残酷，已经彻底地让两个孩子与他疏远起来。
+A landowner has a right to alienate his right of ownership - in other words, he can sell the land if he wantsto.   地主拥有转让所有权的权力——也就是说如果愿意，他可以出售他的土地。</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2889,19 +2879,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>alienate</t>
+          <t>anachronistic</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vt. 使…疏远： to make unfriendly, hostile, or indifferent especially where attachment formerlyexisted
-vt. 转让，让渡： to convey or transfer (as property or a right) usually by a specific act rather than thedue course of law</t>
+          <t>adj. 时代错误的： chronologically misplaced</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>His heartless treatment of their mother during the divorce proceeding has completely alienated the twochildren.   他在离婚过程中对妻子表现出来的残酷，已经彻底地让两个孩子与他疏远起来。
-A landowner has a right to alienate his right of ownership - in other words, he can sell the land if he wantsto.   地主拥有转让所有权的权力——也就是说如果愿意，他可以出售他的土地。</t>
+          <t>Despite the occasional anachronistic word or concept, he has a good feel for the period.  尽 管 有 时 会犯一些词汇和概念上的时代性错误，但他对于那个时代的整体把握还是不错的。</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2913,17 +2901,18 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>anachronistic</t>
+          <t>antedate</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>adj. 时代错误的： chronologically misplaced</t>
+          <t>vt. 比…早，早于： to be of an earlier date than</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Despite the occasional anachronistic word or concept, he has a good feel for the period.  尽 管 有 时 会犯一些词汇和概念上的时代性错误，但他对于那个时代的整体把握还是不错的。</t>
+          <t>The church antedates the village itself.  这 座 教 堂 甚 至 在 村 庄 之 前 就 存 在 了 。
+Dinosaurs antedatecavemen by millions of years.   恐龙比穴居人要早几百万年出现。</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2935,46 +2924,45 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>antedate</t>
+          <t>arbitrary</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>vt. 比…早，早于： to be of an earlier date than</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>The church antedates the village itself.  这 座 教 堂 甚 至 在 村 庄 之 前 就 存 在 了 。
-Dinosaurs antedatecavemen by millions of years.   恐龙比穴居人要早几百万年出现。</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>arbitrary</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
         <is>
           <t>adj. 专横的，独断专行的： having or showing a tendency to force one's will on others without anyregard to fairness or necessity
 adj. 独裁的，拥有无限权力的： exercising power or authority without interference by others
 adj. 缺乏计划的，随意的： lacking a definite plan, purpose, or pattern</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>an arbitrary piano teacher who makes all her students do the same exercises over and over again  一个让学生反复练习同一首曲子的专横的老师
 a nation with no tradition of democracy, only a long history of arbitrary rulers  一个从来没有民主的传统，只有长期的独裁统治的国家
 The order of the names of the 10 semifinalists is entirely arbitrary.  半决赛上十名上场选手的顺序完全是随机的。</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>bogus</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>adj. 伪造的，假冒的： being such in appearance only and made or manufactured with the intentionof committing fraud</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>The evidence turned out to be completely bogus and the suspect may be innocent.  由 于 证 据 被 发 现是彻底伪造的，嫌犯很有可能是无辜的。</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2984,17 +2972,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>bogus</t>
+          <t>brandish</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>adj. 伪造的，假冒的： being such in appearance only and made or manufactured with the intentionof committing fraud</t>
+          <t>vt. （带有威胁性地）挥舞： to shake or wave (as a weapon) menacingly</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>The evidence turned out to be completely bogus and the suspect may be innocent.  由 于 证 据 被 发 现是彻底伪造的，嫌犯很有可能是无辜的。</t>
+          <t>I could see that the suspect was brandishing a knife and was in no way inclined to surrender.  我 可 以看到嫌犯在挥舞着一把刀，完全没有要投降的倾向。</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3006,17 +2994,18 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>brandish</t>
+          <t>cherished</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vt. （带有威胁性地）挥舞： to shake or wave (as a weapon) menacingly</t>
+          <t>adj. 受喜爱的，珍爱的： granted special treatment or attention</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>I could see that the suspect was brandishing a knife and was in no way inclined to surrender.  我 可 以看到嫌犯在挥舞着一把刀，完全没有要投降的倾向。</t>
+          <t>a cherished heirloom that has been in the family for generations  在这个家族里流传了几代的为大家喜爱的纺织机
+He described the picture with his wife as his most cherished possession.   他把这张与妻子和合影看作是自己最为珍爱的财富。</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3028,18 +3017,18 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>cherished</t>
+          <t>counterproductive</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 受喜爱的，珍爱的： granted special treatment or attention</t>
+          <t>adj. 反效果的，阻碍预期目标的： not producing or tending to hinder the attainment of a desired goal</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>a cherished heirloom that has been in the family for generations  在这个家族里流传了几代的为大家喜爱的纺织机
-He described the picture with his wife as his most cherished possession.   他把这张与妻子和合影看作是自己最为珍爱的财富。</t>
+          <t>Violence as a means to achieve an end is counterproductive.   (W.   E.   Brock)用暴力来实现目标往往是事与愿违的。——W.   E.   布洛克
+His uncontrollable anger is very counterproductive to his attempt at saving hismarriage.  他无法自控的愤怒只会对他拯救婚姻的企图起反作用。</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3051,18 +3040,18 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>counterproductive</t>
+          <t>deflect</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 反效果的，阻碍预期目标的： not producing or tending to hinder the attainment of a desired goal</t>
+          <t>vt. 使偏斜，使转向： to turn aside especially from a straight course or fixed direction</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Violence as a means to achieve an end is counterproductive.   (W.   E.   Brock)用暴力来实现目标往往是事与愿违的。——W.   E.   布洛克
-His uncontrollable anger is very counterproductive to his attempt at saving hismarriage.  他无法自控的愤怒只会对他拯救婚姻的企图起反作用。</t>
+          <t>The goalie deflected the ball with his hands.   守门员用双手将球击出。
+They are trying to deflect thepublic attention from the troubled economy.   他们试图将公众的注意力从经济的困境中移开。</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3074,18 +3063,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>deflect</t>
+          <t>erroneous</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vt. 使偏斜，使转向： to turn aside especially from a straight course or fixed direction</t>
+          <t>adj. 错误的，不正确的： containing or characterized by error</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>The goalie deflected the ball with his hands.   守门员用双手将球击出。
-They are trying to deflect thepublic attention from the troubled economy.   他们试图将公众的注意力从经济的困境中移开。</t>
+          <t>The news article about the new drug was filled with much erroneous information.   有关新药的新闻报道里充斥着大量的错误信息。</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3097,17 +3085,18 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>erroneous</t>
+          <t>fanciful</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 错误的，不正确的： containing or characterized by error</t>
+          <t>adj. 幻想中的，不真实的： not real and existing only in the imagination
+adj. 不切实际的，荒谬的： conceived or made without regard for reason or reality</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>The news article about the new drug was filled with much erroneous information.   有关新药的新闻报道里充斥着大量的错误信息。</t>
+          <t>a fanciful tale of a monster in the woods  一个有关栖息在丛林中的怪兽的传说故事</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3119,18 +3108,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>fanciful</t>
+          <t>fleeting</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 幻想中的，不真实的： not real and existing only in the imagination
-adj. 不切实际的，荒谬的： conceived or made without regard for reason or reality</t>
+          <t>adj. 稍纵即逝的，短暂的： lasting only for a short time; passing swiftly</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>a fanciful tale of a monster in the woods  一个有关栖息在丛林中的怪兽的传说故事</t>
+          <t>They have been waiting for more than 4 hours but caught only a fleeting glimpse of the movie star.   他们苦等了至少四个小时，却最终只短短地瞟到了电影明星一眼。</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3142,17 +3130,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>fleeting</t>
+          <t>foreground</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 稍纵即逝的，短暂的： lasting only for a short time; passing swiftly</t>
+          <t>vt. 强调，重视： to indicate the importance of by centering attention on</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>They have been waiting for more than 4 hours but caught only a fleeting glimpse of the movie star.   他们苦等了至少四个小时，却最终只短短地瞟到了电影明星一眼。</t>
+          <t>He repeatedly foregrounded his experience in international affairs in the course of his campaign for thepresidency.   在他竞选总统的过程中，他一再强调自己在处理国际事务方面的经验。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3164,17 +3152,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>foreground</t>
+          <t>gawky</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vt. 强调，重视： to indicate the importance of by centering attention on</t>
+          <t>adj. （举止）笨拙的： having or showing an inability to move in a graceful manner</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>He repeatedly foregrounded his experience in international affairs in the course of his campaign for thepresidency.   在他竞选总统的过程中，他一再强调自己在处理国际事务方面的经验。</t>
+          <t>The pathetic gawky woman was once a lithe ballerina but got severely injured in a car accident.   这 个 可怜的步态笨拙的妇女本来是一名轻巧优雅的芭蕾舞女，但是在一次车祸中受了重伤。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3186,17 +3174,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>gawky</t>
+          <t>indecorous</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. （举止）笨拙的： having or showing an inability to move in a graceful manner</t>
+          <t>adj. 不合乎礼节的，不得体的： conflicting with accepted standards of good conduct or good taste</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>The pathetic gawky woman was once a lithe ballerina but got severely injured in a car accident.   这 个 可怜的步态笨拙的妇女本来是一名轻巧优雅的芭蕾舞女，但是在一次车祸中受了重伤。</t>
+          <t>How can you make such an indecorous joke for a solemn moment in the marriage ceremony ? 你 怎 么能在庄严肃穆的结婚典礼上开那样一个不得体的玩笑呢？</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3208,19 +3196,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>indecorous</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>adj. 不合乎礼节的，不得体的： conflicting with accepted standards of good conduct or good taste</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>How can you make such an indecorous joke for a solemn moment in the marriage ceremony ? 你 怎 么能在庄严肃穆的结婚典礼上开那样一个不得体的玩笑呢？</t>
-        </is>
-      </c>
+          <t>lax</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3230,11 +3210,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>lax</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+          <t>lionize</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>vt. 追捧，把…捧为名人： to look on or treat (a person) as a celebrity</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>She was lionized everywhere after her novel won the Pulitzer Prize.   在她的小说获得普利策奖之后，她无论走到哪都受到追捧。</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3244,17 +3232,19 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>lionize</t>
+          <t>lurid</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>vt. 追捧，把…捧为名人： to look on or treat (a person) as a celebrity</t>
+          <t>adj. 恐怖的，令人反感的： causing horror or revulsion
+adj. 面色苍白的，病态的： wan and ghastly pale in appearance</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>She was lionized everywhere after her novel won the Pulitzer Prize.   在她的小说获得普利策奖之后，她无论走到哪都受到追捧。</t>
+          <t>We quickly drove past the lurid scene of the crash.   我们迅速驶过了可怕的车祸现场。
+The doctor was alarmed by the patient's lurid complexion.   病人惨白的面色给医生敲响了警钟。</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3266,19 +3256,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>lurid</t>
+          <t>malignant</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>adj. 恐怖的，令人反感的： causing horror or revulsion
-adj. 面色苍白的，病态的： wan and ghastly pale in appearance</t>
+          <t>adj. 恶毒的，邪恶的： having or showing a desire to cause someone pain or suffering for the sheerenjoyment of it; disposed to do evil</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>We quickly drove past the lurid scene of the crash.   我们迅速驶过了可怕的车祸现场。
-The doctor was alarmed by the patient's lurid complexion.   病人惨白的面色给医生敲响了警钟。</t>
+          <t xml:space="preserve">She has a malignant wish to poison everyone who was smarter, richer, or better-looking than she was.  </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3290,89 +3278,67 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>malignant</t>
+          <t>notoriety</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
-        <is>
-          <t>adj. 恶毒的，邪恶的： having or showing a desire to cause someone pain or suffering for the sheerenjoyment of it; disposed to do evil</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">She has a malignant wish to poison everyone who was smarter, richer, or better-looking than she was.  </t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>notoriety</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
         <is>
           <t>n. （尤指因为丑闻而出名的）名人： a person who is widely known and usually much talked about,especially for something bad; a notorious person
 n. 坏名声： the quality or condition of being notorious; ill fame</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>a television show featuring notorieties from 20 years of scandals  以二十年来因各色丑闻而出名的名人为卖点的电视节目
 She gained notoriety when nude photographs of her appeared in a magazine.   她的裸照出现在杂志上让她声名远播。
 His comment about the President has given him a notoriety that he enjoys very much.   他 对 于总统的评论让他获得了很让他满意的名声。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>overshadow</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>vt. 使变黯淡： to make dark, dim, or indistinct
 vt. （在重要性上）超越，超过： to exceed in importance</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t xml:space="preserve">Large trees overshadow the yard and darken the house for much of the day.   大树为院子遮挡了阳光，并使屋子里一天之中的大多数时候都很昏暗。
 Her mother's illness overshadowed her childhood.  她 母 亲 的 疾病让她的童年缺乏亮色。
 The forward’s outstanding performance should not overshadow the achievements of the rest of the team.  </t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>pioneer</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>n. 扩荒者，先驱者： one of the first to settle in a territory
 adj. 最初的，最早的： coming before all others in time or order
 vt. 开创，创造： to open up (an area) or prepare (a way)</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>the hardships that the pioneers endured while taming the wilderness  在驯服自然的过程中扩荒者所受到的种种磨难
 a pioneer in aviation  航空业的先驱
@@ -3381,6 +3347,29 @@
 rockets that pioneered outer space  开创了外太空纪元的火箭</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>pragmatic</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>adj. 实用主义的，务实的： a practical approach to problems and affairs</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Pragmatic men of power have had no time or inclination to deal withsocial morality.  (K.   B.   Clark) 务 实 的当权者不会有时间或者意向去处理社会道德的问题。——K.   B.   克拉克
+a pragmatic man, not given to grand,</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3390,18 +3379,18 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>pragmatic</t>
+          <t>refreshing</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>adj. 实用主义的，务实的： a practical approach to problems and affairs</t>
+          <t>adj. 令人心身振奋的，提神的： having a renewing effect on the state of the body or mind</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Pragmatic men of power have had no time or inclination to deal withsocial morality.  (K.   B.   Clark) 务 实 的当权者不会有时间或者意向去处理社会道德的问题。——K.   B.   克拉克
-a pragmatic man, not given to grand,</t>
+          <t>A glass of cold water is very refreshing on such a hot day.   大热天里的一杯冰水真是让人心旷神怡。
+Itis refreshing to hear some good news about him.   能听到他的好消息真是让人振奋。</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3413,46 +3402,45 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>refreshing</t>
+          <t>skittish</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
-        <is>
-          <t>adj. 令人心身振奋的，提神的： having a renewing effect on the state of the body or mind</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>A glass of cold water is very refreshing on such a hot day.   大热天里的一杯冰水真是让人心旷神怡。
-Itis refreshing to hear some good news about him.   能听到他的好消息真是让人振奋。</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>skittish</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
         <is>
           <t>adj. 容易受到惊吓的，胆小的： easily frightened
 adj. 容易激动的： easily excited by nature
 adj. 善变的，多变的： likely to change frequently, suddenly, or unexpectedly</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>The kitty is skittish around people she doesn't know.  小猫看到不认识的人就会显得特别胆小害怕。
 The skittish colt leapt up when we approached.  一看到我们靠近，小马驹就激动地猛跳起来。
 The skittish housing market had both buyers and sellers on edge.  变幻莫测的房市让买家和卖家都坐立不安。</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>stigmatize</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>vt. 使蒙上污名： to characterize or brand as disgraceful or ignominious</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Urban construction workers are often stigmatized by the rest of society as lazy and dirty.  城 市 里 的 建筑工人往往被社会里的其他人污蔑为是懒惰而肮脏的。</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3462,17 +3450,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>stigmatize</t>
+          <t>surpass</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>vt. 使蒙上污名： to characterize or brand as disgraceful or ignominious</t>
+          <t>vt. 超越，强于： to become better, greater, or stronger than
+vt. 突破（界限，纪录等）： to go beyond the limit of</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Urban construction workers are often stigmatized by the rest of society as lazy and dirty.  城 市 里 的 建筑工人往往被社会里的其他人污蔑为是懒惰而肮脏的。</t>
+          <t>She always tried to surpass her older brother at anything he did, which results in his diffidence.   她 在 任何一个方面都要比她哥哥优秀，由此导致了他自信心的匮乏。
+The sales of the band's newest CD have surpassed the combined sales of its last two albums.   乐 队 新专辑的发售量甚至超过了前两张销售量的总和。</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3484,21 +3474,15 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>surpass</t>
+          <t>thrill</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>vt. 超越，强于： to become better, greater, or stronger than
-vt. 突破（界限，纪录等）： to go beyond the limit of</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>She always tried to surpass her older brother at anything he did, which results in his diffidence.   她 在 任何一个方面都要比她哥哥优秀，由此导致了他自信心的匮乏。
-The sales of the band's newest CD have surpassed the combined sales of its last two albums.   乐 队 新专辑的发售量甚至超过了前两张销售量的总和。</t>
-        </is>
-      </c>
+          <t>n. 强烈的兴奋感，快感： a pleasurably intense stimulation of the feelings</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3508,15 +3492,21 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>thrill</t>
+          <t>timely</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>n. 强烈的兴奋感，快感： a pleasurably intense stimulation of the feelings</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>adj. 及时的，无拖延的： done, carried out, or given without delay
+adj. 恰到好处的，合乎适宜的： appropriate or adapted to the times or the occasion</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>When I order a pizza, I expect it to be delivered in a timely manner.   当我在外面点了披萨饼，我就希望它能按时送到。
+Timely invitation to lunch that came just as I was starting to feel hungry.   正当我开始感到饥饿的时候，就有人适时地邀请我吃午饭了。</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3526,19 +3516,18 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>timely</t>
+          <t>trifling</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>adj. 及时的，无拖延的： done, carried out, or given without delay
-adj. 恰到好处的，合乎适宜的： appropriate or adapted to the times or the occasion</t>
+          <t>adj. 细微的，不重要的： lacking in significance or solid worth</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>When I order a pizza, I expect it to be delivered in a timely manner.   当我在外面点了披萨饼，我就希望它能按时送到。
-Timely invitation to lunch that came just as I was starting to feel hungry.   正当我开始感到饥饿的时候，就有人适时地邀请我吃午饭了。</t>
+          <t>Deciding what you want to do for a living is no trifling matter.  决定维持生计的行当可不是一件小事。
+trifling differences between the theatrical and DVD versions of the movie  影院版和 DVD  版电影当中的细微区别</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3550,18 +3539,19 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>trifling</t>
+          <t>abreast</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>adj. 细微的，不重要的： lacking in significance or solid worth</t>
+          <t>adv. 并排地： beside one another with bodies in line
+adj. 熟知的： up to a particular standard or level especially of knowledge of recent developments</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Deciding what you want to do for a living is no trifling matter.  决定维持生计的行当可不是一件小事。
-trifling differences between the theatrical and DVD versions of the movie  影院版和 DVD  版电影当中的细微区别</t>
+          <t>a group of youths riding four abreast  四个一排骑着车的孩子们
+She tried to keep abreast of the latest fashion trends.   她总是尽可能地跟上时尚的潮流。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3573,19 +3563,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>abreast</t>
+          <t>absent</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adv. 并排地： beside one another with bodies in line
-adj. 熟知的： up to a particular standard or level especially of knowledge of recent developments</t>
+          <t>adj. 未出现的，缺乏的： not present, attending or existing</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>a group of youths riding four abreast  四个一排骑着车的孩子们
-She tried to keep abreast of the latest fashion trends.   她总是尽可能地跟上时尚的潮流。</t>
+          <t xml:space="preserve">The city's usual stir of activity was conspicuously absent due to the report of an escaped lion from the zoo.  </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3597,17 +3585,19 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>absent</t>
+          <t>acclaim</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>adj. 未出现的，缺乏的： not present, attending or existing</t>
+          <t>n. 称赞： public acknowledgment or admiration for an achievement
+vt. 赞扬，赞颂： to declare enthusiastic approval of</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">The city's usual stir of activity was conspicuously absent due to the report of an escaped lion from the zoo.  </t>
+          <t>Many people were involved in the search, but the person who actually found the missing girl got all theacclaim.   许许多多的人都参与了搜救行动，但是只有真正找到那个迷失的小女孩的人才受到称赞。
+He was acclaimed as the country's greatest modern painter.   他被盛赞为国内最优秀的现代画家。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3619,19 +3609,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>acclaim</t>
+          <t>accomplish</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>n. 称赞： public acknowledgment or admiration for an achievement
-vt. 赞扬，赞颂： to declare enthusiastic approval of</t>
+          <t>vt. 完成，实现： to carry through (as a process) to completion</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Many people were involved in the search, but the person who actually found the missing girl got all theacclaim.   许许多多的人都参与了搜救行动，但是只有真正找到那个迷失的小女孩的人才受到称赞。
-He was acclaimed as the country's greatest modern painter.   他被盛赞为国内最优秀的现代画家。</t>
+          <t>I don’t think we can accomplish our goal unless we cooperate.   我认为只有合作才能实现我们的目标。</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3643,39 +3631,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>accomplish</t>
+          <t>accord</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
-        <is>
-          <t>vt. 完成，实现： to carry through (as a process) to completion</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>I don’t think we can accomplish our goal unless we cooperate.   我认为只有合作才能实现我们的目标。</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>accord</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
         <is>
           <t>n. 一致： a state of consistency
 vi. 相符合，相一致： to be consistent or in harmony
 vt. 授予，给予： to grant or give especially as appropriate, due, or earned</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>This map doesn't seem to be in accord with the current layout of the streets.   这幅地图似乎与当前的街道情况不尽一致。
 a theory that accords with the known facts  与已知事实相一致的理论
@@ -3683,6 +3649,20 @@
 Women were finally accorded the right to vote in 1920.   女性最终在 1920 年获得了投票权。</t>
         </is>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>acknowledge</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3692,11 +3672,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>acknowledge</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+          <t>acquire</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>vt. 获取，获得： to get as one’s own</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>bacteria that acquire tolerance to antibiotics  产生了抗药性的细菌
+I have never acquired a taste forwine.  我从来就不具备对葡萄酒酒的品味能力。</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3706,18 +3695,18 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>acquire</t>
+          <t>adversity</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>vt. 获取，获得： to get as one’s own</t>
+          <t>n. 厄运，逆境： a state, condition, or instance of serious or continued difficulty or adverse fortune</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>bacteria that acquire tolerance to antibiotics  产生了抗药性的细菌
-I have never acquired a taste forwine.  我从来就不具备对葡萄酒酒的品味能力。</t>
+          <t>The fire is the test of gold, adversity of strong man.  (Martha Graham) 烈火试真金，逆境炼勇士。——玛莎·葛兰姆
+finally overcame all the adversities of the Great Depression and rebuilt their fortunes  终 于 度 过 了 大 萧条的困境，开始重新创造他们的财富</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3729,18 +3718,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>adversity</t>
+          <t>affectation</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n. 厄运，逆境： a state, condition, or instance of serious or continued difficulty or adverse fortune</t>
+          <t>n. 虚伪，做作： the act of taking on or displaying an attitude or mode of behavior not natural to oneselfor not genuinely felt</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>The fire is the test of gold, adversity of strong man.  (Martha Graham) 烈火试真金，逆境炼勇士。——玛莎·葛兰姆
-finally overcame all the adversities of the Great Depression and rebuilt their fortunes  终 于 度 过 了 大 萧条的困境，开始重新创造他们的财富</t>
+          <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3752,17 +3740,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>affectation</t>
+          <t>affirm</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>n. 虚伪，做作： the act of taking on or displaying an attitude or mode of behavior not natural to oneselfor not genuinely felt</t>
+          <t>vt. 声称为真，肯定属实： to assert (as a judgment or decree) as valid or confirmed</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
+          <t>He was unwilling to affirm without further study that the painting is an original Rembrandt.   在 缺 乏 进 一步研究的情况下，他不愿意声称这幅画作是出自伦布兰特的正品。</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3774,17 +3762,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>affirm</t>
+          <t>agility</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>vt. 声称为真，肯定属实： to assert (as a judgment or decree) as valid or confirmed</t>
+          <t>n. （身手）敏捷： ease and grace in physical activity</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>He was unwilling to affirm without further study that the painting is an original Rembrandt.   在 缺 乏 进 一步研究的情况下，他不愿意声称这幅画作是出自伦布兰特的正品。</t>
+          <t>His agility on the parallel bars has won him several medals.   他在双杠上的矫捷身姿助他赢得了数枚奖牌。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3796,17 +3784,18 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>agility</t>
+          <t>agreeable</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>n. （身手）敏捷： ease and grace in physical activity</t>
+          <t>adj. 令人愉悦的： pleasing to the mind or senses especially as according well with one's tastes orneeds</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>His agility on the parallel bars has won him several medals.   他在双杠上的矫捷身姿助他赢得了数枚奖牌。</t>
+          <t>Would you mind putting on some agreeable music for dinner ? 你 介 意 为 晚 饭 放 一 些 令 人 愉 快 的 音 乐吗？
+the agreeable melancholy resulting from a sense of the transitoriness of natural beauty  因 为 感 慨 自 然 之美稍纵即逝而产生的令人愉悦的忧伤</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3818,45 +3807,44 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>agreeable</t>
+          <t>alloy</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
-        <is>
-          <t>adj. 令人愉悦的： pleasing to the mind or senses especially as according well with one's tastes orneeds</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Would you mind putting on some agreeable music for dinner ? 你 介 意 为 晚 饭 放 一 些 令 人 愉 快 的 音 乐吗？
-the agreeable melancholy resulting from a sense of the transitoriness of natural beauty  因 为 感 慨 自 然 之美稍纵即逝而产生的令人愉悦的忧伤</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>alloy</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
         <is>
           <t>n. 合金，混合物： a distinct entity formed by the combining of two or more different things
 vt. 掺杂，降低纯度： to debase by the addition of an inferior element</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Brass is an alloy, consisting of copper and zinc.  黄铜是一种由铜和锌组成的合金。
 Television news hasalways been an alloy of journalism and show business.  电视新闻一直以来都是新闻界和演艺圈的混合体。
 idealism that was alloyed with political skill  因为掺入了政治技能而被削弱理想主义</t>
         </is>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ambivalent</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>adj. （尤指感情、态度）矛盾的： having a mixture of opposing feelings</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>He maintained an ambivalent attitude to religion throughout his life.   他一生都对宗教抱有矛盾的心态。</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3866,17 +3854,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ambivalent</t>
+          <t>analogous</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. （尤指感情、态度）矛盾的： having a mixture of opposing feelings</t>
+          <t>adj. 相似的，可比较的： having qualities in common</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>He maintained an ambivalent attitude to religion throughout his life.   他一生都对宗教抱有矛盾的心态。</t>
+          <t>Bad-mouthing your sister is analogous to slapping her in the face - it's just as bad.   说你姐姐的坏话和当</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3888,17 +3876,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>analogous</t>
+          <t>annotate</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 相似的，可比较的： having qualities in common</t>
+          <t>vt. 做注解： to furnish (a literary work) with critical commentary or explanatory notes</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Bad-mouthing your sister is analogous to slapping her in the face - it's just as bad.   说你姐姐的坏话和当</t>
+          <t>The advent of e-books enables user to freely annotate what they are reading without worrying about beingfined by libraries.   电子书的出现使得用户可以在不用担心被图书馆处以罚金的情况下自由地在读物上作注。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3910,44 +3898,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>annotate</t>
+          <t>antipathy</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>vt. 做注解： to furnish (a literary work) with critical commentary or explanatory notes</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>The advent of e-books enables user to freely annotate what they are reading without worrying about beingfined by libraries.   电子书的出现使得用户可以在不用担心被图书馆处以罚金的情况下自由地在读物上作注。</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>antipathy</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
         <is>
           <t>n. 厌恶，反感： settled aversion or dislike
 n. 令人反感的事物： an object of aversion</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>I feel no antipathy towards any of my opponents in the tournament.   我对锦标赛中碰到的任何对手都不存在反感。
 Cruelty to animals is one of my most deeply felt antipathies.   虐待动物是最让我反感的行为之一。</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_11.xlsx
+++ b/result/生词本导入模版_11.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,67 +434,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>demotion</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>n. 降级，降职： the act or an instance of bringing to a lower grade or rank</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Anyone who objects will get a demotion.   任何胆敢反对的人都会被降职。
 received a demotion fromsergeant to corporal  从中士降为下士</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>glower</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>vi. 怒目而视： to look or stare with sullen annoyance or anger</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Baseball fans glowering at their TVs as they watched their favorite team lose.   看着他们支持的球队输球，棒球迷们恶狠狠地盯着电视屏幕。
 He just glowered without speaking.   他一言不发地怒视着我。</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>grit</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>n. （面对困难时所表现出来的）毅力： the strength of mind that enables a person to endure pain orhardship</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>She was an athlete with true grit, continuing her training despite bad weather and an injury.   她 是 真 正 一个有着惊人毅力的运动员，即便是在受了伤外加天气恶劣的情况下仍然坚持训练。</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -492,17 +504,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>infraction</t>
+          <t>grit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. 违背，违犯： a failure to uphold the requirements of law, duty, or obligation</t>
+          <t>n. （面对困难时所表现出来的）毅力： the strength of mind that enables a person to endure pain orhardship</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Speeding is only a minor infraction, but vehicular homicide is a serious felony.   超速只是小的违章，但是用机动车故意杀人就是重罪了。</t>
+          <t>She was an athlete with true grit, continuing her training despite bad weather and an injury.   她 是 真 正 一个有着惊人毅力的运动员，即便是在受了伤外加天气恶劣的情况下仍然坚持训练。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -514,43 +526,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>infraction</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>n. 违背，违犯： a failure to uphold the requirements of law, duty, or obligation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Speeding is only a minor infraction, but vehicular homicide is a serious felony.   超速只是小的违章，但是用机动车故意杀人就是重罪了。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>madcap</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>n. 热爱冒险的人： a person who seeks out very dangerous or foolhardy adventures with noapparent fear
 adj. 大胆的，鲁莽的： behaving or acting impulsively or rashly; foolishly adventurous or bold</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>an incorrigible madcap who loves drag racing and white-water rafting  一个热爱飙车和激流竹筏的无药可救的冒险狂
 They switched from one madcap scheme to another.   他们从一个鲁莽的方案换到了另一个。</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>novice</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>n. 新手，初学者： a person new to a field or activity</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>a novice chess player  象棋初学者</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -560,66 +572,66 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>novice</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>n. 新手，初学者： a person new to a field or activity</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>a novice chess player  象棋初学者</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>observant</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>adj. 警惕的，警觉的： paying close attention usually for the purpose of anticipating approachingdanger or opportunity</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Good reporters are keenly observant of everything around them.   优秀的记者应该对身边所有的事情都保持高度的警惕。
 If you were more observant, you would perceive that something is troubling her deeply.  如果你能再警觉一些的话，你就会发现她正被某些东西困扰。</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>plenitude</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>n. 丰富，充沛： an amount or supply more than sufficient to meet one's needs
 n. 大量： a considerable amount</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>a region blessed with a plenitude of natural resources  充满着上帝赐予的丰富资源的地区
 She has gathered a plenitude of information on the topic.  有关这个话题她收集了大量的资料。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>replenish</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>vt. 补充： to fill or make complete again; add a new stock or supply to</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>He went to replenish her glass.   他去续杯了。</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -629,65 +641,65 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>replenish</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>vt. 补充： to fill or make complete again; add a new stock or supply to</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>He went to replenish her glass.   他去续杯了。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>stasis</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>n. 平衡，停滞： a condition of balance among various forces</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>For the time being, the populations of the national park's predators and prey remain in stasis.  目 前 国家公园中捕食者和猎物的数量保持着一定的平衡。
 Language is a primary element of culture,and stasis in the artsis tantamount to death.   (Charles Marsh) 语言是文化当中的主要元素，艺术的停滞和平衡就等同于死亡。——查理斯·马氏</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>tycoon</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>n. 大亨，巨头： a person of rank, power, or influence in a particular field</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>an oil tycoon who's widely considered the most powerful man in the county  被认为是郡上最有势力的一个石油大亨
 The automobile tycoon is on the verge of bankruptcy.  汽车巨头濒临破产的边缘。</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>umbrage</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>n. 不悦，生气： the feeling of being offended or resentful after a slight or indignity</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>He would take umbrage at the slightest suggestion of disrespect.  哪怕是一点点的不敬也会让他不悦。</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -697,44 +709,44 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>umbrage</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n. 不悦，生气： the feeling of being offended or resentful after a slight or indignity</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>He would take umbrage at the slightest suggestion of disrespect.  哪怕是一点点的不敬也会让他不悦。</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>wilt</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>vi. （花、植物等）萎蔫： to become limp or flaccid
 vi. 精神萎靡，憔悴： to feel or exhibit the effects of fatigue or exhaustion</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>The plants wilted after I forgot to water them for three whole days.  在我整整三天忘记浇水之后，植物们全都萎蔫了。
 She had wilted a bit after walking around the hot and humid city.   在炎热潮湿的城市中行走使得她略显憔悴。
 His brain wilted from hitherto unprecedented weariness.   在前所未有的疲劳面前，他的开始变得神情憔悴。</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>agape</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>adj. 急切盼望的： having or showing signs of eagerly awaiting something</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>At the sound of the sleigh bells the children were all agape, waiting for Santa to appear.  听到雪橇铃，孩子们开始好奇地等待圣诞老人的到来。</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -744,45 +756,45 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>agape</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adj. 急切盼望的： having or showing signs of eagerly awaiting something</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>At the sound of the sleigh bells the children were all agape, waiting for Santa to appear.  听到雪橇铃，孩子们开始好奇地等待圣诞老人的到来。</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>annex</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>n. 裙楼，副楼： a building added on to a larger one or an auxiliary building situated near a main one
 vt. 添加，合并： to join (something) to a mass, quantity, or number so as to bring about an overallincrease
 vt. 吞并，夺取（土地等）： to incorporate (a country or other territory) within the domain of a state</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>The new annex that will serve as the permanent home for the school library.   新的裙楼将成为学校图书馆的永久住所。
 plans to annex the supply room so as to make the classroom bigger  计划将工具房并入教室，从而扩充其容量
 Rome annexed the Nabatean kingdom in 106 AD.   公元前 106 年罗马帝国吞并了古城那巴顿。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>baffling</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adj. 令人疑惑的，难以理解的： making great mental demands; hard to comprehend or solve</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>I was constantly ill, with a baffling array of symptoms.   我常常生病，而且有着一系列令人困惑的症状。</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -792,17 +804,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bewitching</t>
+          <t>baffling</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adj. 迷人的，令人着迷的： having an often mysterious or magical power to attract</t>
+          <t>adj. 令人疑惑的，难以理解的： making great mental demands; hard to comprehend or solve</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>bewitching woman who has never lacked for suitors  一个从不缺乏追求者的迷人女子</t>
+          <t>I was constantly ill, with a baffling array of symptoms.   我常常生病，而且有着一系列令人困惑的症状。</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -814,90 +826,90 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>bewitching</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>adj. 迷人的，令人着迷的： having an often mysterious or magical power to attract</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bewitching woman who has never lacked for suitors  一个从不缺乏追求者的迷人女子</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bore</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>n. 令人厌烦的人或事物： one that causes boredom
 vt. 使厌倦，使厌烦： to make weary by being dull, repetitive, or tedious</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>For once, the graduation speaker wasn't a real bore.   就这一次毕业演讲者不是那么令人厌倦。
 The professor's lifeless and unimaginative teaching style bored the students to death.   教 授 毫 无 生 气 和想象力的说教方式让学生厌倦至极。</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>bumble</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>vi. 含糊不清地说，杂乱无章地说： to speak rapidly, inarticulately, and usually unintelligibly
 vi. 笨拙地行动： to move, act, or proceed clumsily</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Overcome with stage fright, I could only bumble through the speech.   由于怯场，我结结巴巴地说完了演讲稿。
 I sort of bumbled through the dance number, hoping that it would soon end.   我笨拙地跟着曲子舞蹈，心里指望着它快点结束。</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>carefree</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>adj. 无忧无虑的： free from care as having no worries or troubles</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>passengers on a luxury cruise ship enjoying a carefree vacation  在豪华游轮上享受着无忧旅途的乘客
 carefree college students on spring break  春假期间无忧无虑的大学生</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>chaperone</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>vt. 同行，护送： to go along with in order to provide assistance, protection, or companionship</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Three parents will chaperone the students on the school trip.  本次班级旅行将有三名家长同行。</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -907,90 +919,90 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>chaperone</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>vt. 同行，护送： to go along with in order to provide assistance, protection, or companionship</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Three parents will chaperone the students on the school trip.  本次班级旅行将有三名家长同行。</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>charisma</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>n. 魅力，吸引力： a special magnetic charm or appeal</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">a movie star with unique charisma  有着独特魅力的电影明星
 The candidate was lacking in charisma.  </t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>conflagration</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>n. 大火： a large destructive fire
 n. 武装冲突，战争： a state of armed violent struggle between states, nations, or groups</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">All the stock was destroyed in a warehouse conflagration.   仓库里所有的货物都被一场大火烧毁了。
 What began as a skirmish over disputed territory erupted into a conflagration that swept the continent.  </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>crow</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>vi. 感到高兴： to feel or express joy or triumph
 vi. 自鸣得意： to praise or express pride in one's own possessions, qualities, or accomplishmentsoften to excess</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Being the home of the new Super Bowl champs was the first thing that city residents had to crow about ina very long time.   当地的队伍获得超级碗冠军队伍是这个城市居民长期以来得以感到高兴的第一件事情。
 He is already crowing over his victory.  他已经在那里为自己的胜利而自鸣得意了。</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>dashing</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>adj. 爱好冒险的，大胆的： inclined or willing to take risks</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>the dashing heroes in stories about the American West  美国西部故事中那些勇敢无畏的英雄</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1000,17 +1012,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dated</t>
+          <t>dashing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>adj. 过时的： having passed its time of use or usefulness; out-of-date</t>
+          <t>adj. 爱好冒险的，大胆的： inclined or willing to take risks</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>His jokes are awfully dated, referring to things that happened years ago.   他的笑话全是些关于几年前的事情的过时货。</t>
+          <t>the dashing heroes in stories about the American West  美国西部故事中那些勇敢无畏的英雄</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1022,66 +1034,66 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>dated</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>adj. 过时的： having passed its time of use or usefulness; out-of-date</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>His jokes are awfully dated, referring to things that happened years ago.   他的笑话全是些关于几年前的事情的过时货。</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>dependable</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>adj. 可靠的，值得信赖的： capable of being depended on</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">a dependable source of income  可靠的收入来源
 He was a good friend and a dependable companion.  </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>deplorable</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>adj. 可鄙的，可耻的： worthy of severe condemnation or reproach
 adj. 悲惨的，可悲的： of a kind to cause great distress</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>We will not tolerate such deplorable behavior in a house of worship.   我们绝不能容许这样一种可鄙的行为出现在礼拜堂中。
 Many of them work under deplorable conditions.   许多人的工作环境十分悲惨。</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>dike</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>n. 堤坝，水坝： a bank usually of earth constructed to control or confine water</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An elaborate system of dikes was built to protect the lowlands from the relentless onslaught of the sea.  </t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1091,44 +1103,44 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>dike</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n. 堤坝，水坝： a bank usually of earth constructed to control or confine water</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An elaborate system of dikes was built to protect the lowlands from the relentless onslaught of the sea.  </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>escort</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>n. 护卫队，护送者： a person or group of persons accompanying another to give protection or as acourtesy
 vt. 同行，护送： to go along with in order to provide assistance, protection, or companionship</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>The mayor served as the First Lady's escort for her tour of the city.   市长陪同第一夫人参观了城市。
 Asenior student from the college escorted my parents and me on our tour of the campus.   来 自 学 院 的一个师兄陪同我和我父母参观了校园。
 a VIP escorted by an army of bodyguards and journalists  被 一 群 保 镖和记者包围的重要人物</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>felony</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>n. 重罪： one of several grave crimes, such as murder, rape, or burglary, punishable by a morestringent sentence than that given for a misdemeanor</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>a felony punishable by life imprisonment  可被判处无期徒刑的重罪</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1138,17 +1150,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>grumble</t>
+          <t>felony</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vi. （尤指低声地）抱怨，埋怨： to complain in a surly manner; mutter discontentedly</t>
+          <t>n. 重罪： one of several grave crimes, such as murder, rape, or burglary, punishable by a morestringent sentence than that given for a misdemeanor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The governed will always find something to grumble about.   (Crane Brinton)被统治者总能找到发牢骚的理由。——瑞恩·布林顿</t>
+          <t>a felony punishable by life imprisonment  可被判处无期徒刑的重罪</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1160,187 +1172,187 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>grumble</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>vi. （尤指低声地）抱怨，埋怨： to complain in a surly manner; mutter discontentedly</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The governed will always find something to grumble about.   (Crane Brinton)被统治者总能找到发牢骚的理由。——瑞恩·布林顿</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>heckle</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>vt. 起哄，使难堪： to harass and try to disconcert with questions, challenges, or gibes</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>a controversial player who was constantly heckled by the fans  一个时常被粉丝起哄的有争议的歌手
 Several protesters were heckling the speaker at the rally.   不少示威者在集会上起哄让发言者难堪。</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>lag</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>adj. 最终的，最后的： following all others of the same kind in order or time
 vi. 缓慢行走： to proceed or develop with comparative slowness
 vi. 萎靡，失去活力： to lose bodily strength or vigor</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>We're now in the lag end of the project.   现在我们到了项目的尾声阶段。
 The tired puppy was lagging behind the rest of the pack.  疲倦的小狗在队伍的后面缓缓地走着。
 During the fourth quarter the whole team seemed to lag.  到了第四节整支队伍似乎都已经精疲力竭了。</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>lance</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>n. 长矛，标枪： a weapon with a long straight handle and sharp head or blade
 vt. 刺穿，刺破： to penetrate or hold (something) with a pointed object</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>The lance struck squarely on the knight's shield, knocking him from his horse.   标枪正中盾牌，将骑士掀于马下。
 Doctors used to lance infected sores, so that they could drain clean.   以前医生会刺破受感染的疮，从而使脓液流出。</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>magnitude</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>n. 重要，重大： greatness in significance or influence
 n. 巨大： greatness in size or extent</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>The magnitude of the issue is severely underestimated.  这个事件的重要性被严重低估了。
 The mountain's sheer magnitude usually leaves tourists speechless.   巨大的山脉往往让旅游者哑口无言。</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>maneuver</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>vt. 巧妙地操纵： to guide with adroitness and design or to bring about or secure as a result of skillfulmanagement</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>They maneuvered him into signing the contract.  他们巧妙地诱使他签下合同。
 The host maneuveredthe conversation so as to avoid the touchy subject of her divorce.  主人巧妙地控制着对话的内容，以避免触及有关她离婚的敏感话题。</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>rampant</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>adj. （植物）生长茂盛的： growing thickly and vigorously
 adj. 猖獗的，不受限制的： occurring without restraint and frequently, widely, or menacingly</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>a rampant growth of weeds in the neglected yard  被遗忘的院子里杂草疯长
 Mayor promised to put a stop to the rampant crime that plagued the city.   市长承诺要采取措施，消灭那些扰乱城市治安的猖獗的犯罪活动。
 rampant corruption in city government  市政府中猖獗的腐败</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>remnant</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>n. 残余，剩余物： something left over</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">a remnant of his past glory  他辉煌过去的一丝残余
 The shop is selling remnants of cloth at half price.  </t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>residual</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>adj. 剩余的，残存的： of, relating to, or characteristic of a residue</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>residual radiation from nuclear tests  核试验所遗留下来的残余辐射</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1350,15 +1362,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>screen</t>
+          <t>residual</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>n. 掩护物，屏障： something that shelters, protects, or hides</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>adj. 剩余的，残存的： of, relating to, or characteristic of a residue</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>residual radiation from nuclear tests  核试验所遗留下来的残余辐射</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1368,19 +1384,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>scrimp</t>
+          <t>screen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>vi. 节俭： to avoid unnecessary waste or expense</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>They had to scrimp and save for years in order to be able to afford a house.   他们不得不节俭度日才能攒够钱买房。</t>
-        </is>
-      </c>
+          <t>n. 掩护物，屏障： something that shelters, protects, or hides</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1390,17 +1402,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>adjudicate</t>
+          <t>scrimp</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>vt. 裁决，判定： to hear and settlea case, dispute or conflict</t>
+          <t>vi. 节俭： to avoid unnecessary waste or expense</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>When my wife and I asked the salesclerk to adjudicate our disagreement, she agreed with me that thewhite shoes looked better.   我和我妻子要求售货员来裁决我们之间的争论，最后她还是同意了我的观点，认为白色的鞋子看起来更漂亮。</t>
+          <t>They had to scrimp and save for years in order to be able to afford a house.   他们不得不节俭度日才能攒够钱买房。</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1412,17 +1424,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>belligerence</t>
+          <t>adjudicate</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>n. 好斗，好战： an aggressive or truculent attitude, atmosphere, or disposition</t>
+          <t>vt. 裁决，判定： to hear and settlea case, dispute or conflict</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Among the Native American tribes of the colonial period, the Iroquois were known for their belligerence.  </t>
+          <t>When my wife and I asked the salesclerk to adjudicate our disagreement, she agreed with me that thewhite shoes looked better.   我和我妻子要求售货员来裁决我们之间的争论，最后她还是同意了我的观点，认为白色的鞋子看起来更漂亮。</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1434,17 +1446,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>canny</t>
+          <t>belligerence</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>adj. 精明的，聪明的： careful and shrewd, especially where one's own interests are concerned</t>
+          <t>n. 好斗，好战： an aggressive or truculent attitude, atmosphere, or disposition</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>He is a canny card player who is good at psyching out his opponents.  他是一个善于琢磨对手心思的精明的扑克玩家。</t>
+          <t xml:space="preserve">Among the Native American tribes of the colonial period, the Iroquois were known for their belligerence.  </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1456,17 +1468,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>disenchant</t>
+          <t>canny</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>vt. 使清醒： to free from illusion</t>
+          <t>adj. 精明的，聪明的： careful and shrewd, especially where one's own interests are concerned</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you thought that you could pass this course without doing any work, let me be the first to disenchant you.  </t>
+          <t>He is a canny card player who is good at psyching out his opponents.  他是一个善于琢磨对手心思的精明的扑克玩家。</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1478,17 +1490,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>forage</t>
+          <t>disenchant</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vi. 寻找： to make a search</t>
+          <t>vt. 使清醒： to free from illusion</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>went foraging for change for the parking meter  寻找付停车费的零钱</t>
+          <t xml:space="preserve">If you thought that you could pass this course without doing any work, let me be the first to disenchant you.  </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1500,17 +1512,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>illustrious</t>
+          <t>forage</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 著名的，杰出的： well known and very distinguished</t>
+          <t>vi. 寻找： to make a search</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>the most illustrious scientists of the century  本世纪最为杰出的科学家</t>
+          <t>went foraging for change for the parking meter  寻找付停车费的零钱</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1522,43 +1534,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>illustrious</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>adj. 著名的，杰出的： well known and very distinguished</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>the most illustrious scientists of the century  本世纪最为杰出的科学家</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>monarch</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>n. 君主，帝王： one who rules over a people with a sole, supreme, and usually hereditary authority
 n. 巨头，大亨： a person of rank, power, or influence in a particular field</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>The ruling monarch of Britain at that time was Queen Elizabeth I.  伊丽莎白一世是当时英国的君主。
 the reigning monarchs of the recording industry  唱片业的巨头们</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>plebeian</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>adj. 平民的，社会下层的： belonging to the class of people of low social or economic rank</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>a man who rose to greatness but never forgot his plebeian past  一个仕途通达，但从未忘却自己平民出身的人</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1568,17 +1580,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>squeamish</t>
+          <t>plebeian</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 恶心的，晕船的： affected with nausea</t>
+          <t>adj. 平民的，社会下层的： belonging to the class of people of low social or economic rank</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
+          <t>a man who rose to greatness but never forgot his plebeian past  一个仕途通达，但从未忘却自己平民出身的人</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1590,67 +1602,67 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>squeamish</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>adj. 恶心的，晕船的： affected with nausea</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>wrest</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>vt. 拧，扭动： to pull, force, or move by violent wringing or twisting movements
 vt. 辛苦地获得： to gain with difficulty by or as if by force, violence, or determined labor</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>wrest the lid off this pickle jar  把泡菜罐的盖子拧下来
 farmers who were used to wresting a living from the barren land  一度依靠贫瘠的土地恶劣度日的农民</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>complacent</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>adj. 自满的，自鸣得意的： feeling or showing an often excessive or unjustified satisfaction andpleasure in one's status, possessions, or attainments
 adj. 无所谓的，不关心的： having or showing a lack of interest or concern</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>a complacent junior accountant who was certain of her indispensability to the company  一 个 确 信 自 己 对于公司而言无可替代而自满的年轻会计
 We can't afford to be complacent about rural illiteracy rates.   我们不能对农村的文盲率坐视不理。</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>imposter</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>n. 冒名顶替者，骗子： one that assumes false identity or title for the purpose of deception</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>The man who claimed to be my townsman turned out to be an impostor.   那个自称是我老乡的人结果是个骗子。</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1660,42 +1672,42 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>imposter</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>n. 冒名顶替者，骗子： one that assumes false identity or title for the purpose of deception</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The man who claimed to be my townsman turned out to be an impostor.   那个自称是我老乡的人结果是个骗子。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>incumbent</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>adj. 义不容辞的，必须的： imposed as an obligation or duty</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>It is incumbent upon individuals to sacrifice for their country when it is in danger.   当国家受难时，个人应该义不容辞地为国做出牺牲。
 It is incumbent upon the press to act not in its own best interests, but in society'sbest interests.  对于媒体来说，为社会的利益（而非自身利益）服务是其应尽的义务。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>splinter</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>n. 尖细条，刺： a sharp, slender piece, as of wood, bone, glass, or metal, split or broken off from amain body</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>She got a splinter from the unfinished wall.  她的手被还没有装修的墙扎了一根刺。</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1705,17 +1717,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>calibrate</t>
+          <t>splinter</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>vt. 校准，调校： to check, adjust, or determine by comparison with a standard (the graduations ofa quantitative measuring instrument)</t>
+          <t>n. 尖细条，刺： a sharp, slender piece, as of wood, bone, glass, or metal, split or broken off from amain body</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>We need to calibrate the sextants navigation.   我们要为航行校准六分仪。</t>
+          <t>She got a splinter from the unfinished wall.  她的手被还没有装修的墙扎了一根刺。</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1727,42 +1739,42 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>calibrate</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>vt. 校准，调校： to check, adjust, or determine by comparison with a standard (the graduations ofa quantitative measuring instrument)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>We need to calibrate the sextants navigation.   我们要为航行校准六分仪。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>commiserate</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>vi. 表示怜悯，同情： to feel or express sympathy</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>commiserated over their failure  对他们的失败表示同情
 We commiserated with him but there was littlewe could do to make the situation better.   我们很同情他的遭遇，但是也只能表示无能为力。</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>nullification</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>n. （尤指法律条文等正式的）废除，废弃： the doing away with something by formal action</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>the nullification of a treaty  废除条约</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1772,17 +1784,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>behoove</t>
+          <t>nullification</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vt. 对…有利的： to be necessary, proper or advantageous for</t>
+          <t>n. （尤指法律条文等正式的）废除，废弃： the doing away with something by formal action</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>It behooves you at least to try.   你至少也应该尝试一下。</t>
+          <t>the nullification of a treaty  废除条约</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1794,10 +1806,32 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>behoove</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>vt. 对…有利的： to be necessary, proper or advantageous for</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>It behooves you at least to try.   你至少也应该尝试一下。</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>coarse</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>adj. 粗糙的，表面不平整的： not having a level or smooth surface
 adj. （声音）刺耳的： harsh, raucous, or rough in tone
@@ -1805,7 +1839,7 @@
 adj. （质量）低劣的： of low, common, or inferior quality</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>the coarse surface of the sandpaper  砂纸的粗糙表面
 a coarse laugh from the living room  客厅里传来的一阵刺耳笑声
@@ -1813,75 +1847,53 @@
 coarse imitations of quality merchandise  高级商品的粗劣仿制品</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>defray</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>vt. 支付： to undertake the payment of</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>The government has committed billions toward defraying the costs of the war.   政府为战争付出了成百上千亿元的代价。
 I don’t have sufficient fund to defray the expense.   我身上的现金还不够埋单。</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>imperishable</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>adj. 不能被摧毁的： impossible to destroy; not subject to decay
 adj. 不朽的，永恒的： enduring or occurring forever</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Energy is imperishable.   能量本身是不能被毁灭的。
 My memories are within me, imperishable.  我的回忆已经和我融为一体，不可改变。</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>machination</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>n. 诡计： a scheming or crafty action or artful design intended to accomplish some usually evil end</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>The incredibly complicated machination to assassinate the president inevitably failed.   刺 杀 总 统 的 诡 计极其复杂，以至于不可避免地失败了。</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1891,39 +1903,43 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>machination</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>n. 诡计： a scheming or crafty action or artful design intended to accomplish some usually evil end</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>The incredibly complicated machination to assassinate the president inevitably failed.   刺 杀 总 统 的 诡 计极其复杂，以至于不可避免地失败了。</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>onset</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>n. 攻击，进攻： attack, assault
 n. 起始，开始： the point at which something begins</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>withstand the onset of the army  抵挡住了敌人军队的进攻
 If you take enough vitamin C at the onset of a cold, you'll probably recover faster.   如果你感冒刚一开始就服用足量的维他命 C，你可能会康复得更快。</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>automatic</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>adj. （机器等）自动的： acting or operating in a manner essentially independent of external influence</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1933,93 +1949,89 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>automatic</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>adj. （机器等）自动的： acting or operating in a manner essentially independent of external influence</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>bustle</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>n. 忙乱，喧闹： noisy, energetic, and often obtrusive activity
 vi. （快速地）行走： to move briskly and often ostentatiously</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>the hustle and bustle of the big city  熙熙攘攘的大都市
 I couldn't concentrate in all the bustle of thestudent lounge.   学生休息室里过于嘈杂，我无法专心。
 the hostess bustled about, taking care of last-minute preparations for the party.  女主人四处走着，为聚会做最后的准备。</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>canonize</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>vt. 过分宠爱，过分崇拜： to love or admire too much
 vt. 使…崇高，使…神圣： to assign a high status or value to</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>a singing star so canonized by his fans that they refuse to believe anything bad about him  一 个 受 到 粉丝疯狂追捧的歌星，他们不会相信任何关于他的负面新闻
 Some movie buffs canonized David Fincher as today’s most preeminent director.   一些影迷把大卫·芬奇视作是当今世界上最为出色的导演。</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>endeavor</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>n. 努力，奋斗： a conscientious or concerted effort toward an end
 vt. 努力做…，拼搏： to devote serious and sustained effort</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>We hope that this latest endeavor will yield much information about the atmosphere of the planet.  我们希望这最后一次的努力能够获取关于行星大气层的大量信息。
 endeavor to improve the quality of life in the inner city  努力改善市内的生活质量
 They endeavored tocreate a government that truly serves its people.   他们在努力地创立一个一心为人民服务的政府。</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>fitful</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>adj. 无规律的，缺乏周期的： having an erratic or intermittent character</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>He drifted off into a fitful sleep.   他慢慢地陷入了时睡时醒的状态。</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2029,17 +2041,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>oaf</t>
+          <t>fitful</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>n. 愚蠢的人： a stupid person</t>
+          <t>adj. 无规律的，缺乏周期的： having an erratic or intermittent character</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Anyone who took him for an oaf and tried to cheat him would be in for a nasty surprise.   任 何 把 他 当 成 傻子然后想借机欺骗他的人就等着大吃一惊吧。</t>
+          <t>He drifted off into a fitful sleep.   他慢慢地陷入了时睡时醒的状态。</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2051,17 +2063,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>retentive</t>
+          <t>oaf</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj. 记性好的： having the ability or capacity to retain knowledge or information with ease</t>
+          <t>n. 愚蠢的人： a stupid person</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Her retentive memory helped her sail through the history test.  她的好记性帮助她顺利通过了历史考试。</t>
+          <t>Anyone who took him for an oaf and tried to cheat him would be in for a nasty surprise.   任 何 把 他 当 成 傻子然后想借机欺骗他的人就等着大吃一惊吧。</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2073,17 +2085,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>secede</t>
+          <t>retentive</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vi. 脱离，退出（组织、团体、联盟等）： to withdraw from an organization (as a religious communionor political party or federation)</t>
+          <t>adj. 记性好的： having the ability or capacity to retain knowledge or information with ease</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>They threatened to secede from the coalition.   他们以退出联盟相要挟。</t>
+          <t>Her retentive memory helped her sail through the history test.  她的好记性帮助她顺利通过了历史考试。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2095,35 +2107,43 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>secede</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>vi. 脱离，退出（组织、团体、联盟等）： to withdraw from an organization (as a religious communionor political party or federation)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>They threatened to secede from the coalition.   他们以退出联盟相要挟。</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>glacial</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 极冷的：extremely cold
 adj. 冷漠的，无感情的： devoid of warmth and cordiality</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>The air from the sea felt glacial.   海上的空气冷极了。
 The Duchess gave him a glacial look and moved on.   公爵夫人冷冷地看了他一眼，然后就继续上路了。</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>glide</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2133,42 +2153,34 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>glide</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>monopolize</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>vt. 垄断，主宰： to have complete control over</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>They are virtually monopolizing the market.  他们实际上已经垄断了整个市场。
 To their surprise is wasthe vice president who monopolized the conversation.   令他们惊讶的是，主导整个谈话的居然是副总裁。</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>pedagogical</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>adj. 教学的，教师的： of, relating to, or befitting a teacher or education</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>I have no brow of such a pedagogical tone.  我一点也不喜欢这种说教的口吻。</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2178,17 +2190,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>perilous</t>
+          <t>pedagogical</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 危险的： involving potential loss or injury</t>
+          <t>adj. 教学的，教师的： of, relating to, or befitting a teacher or education</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>perilous journey through hostile territory  穿过敌方领土的危险行程</t>
+          <t>I have no brow of such a pedagogical tone.  我一点也不喜欢这种说教的口吻。</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2200,43 +2212,43 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>perilous</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>adj. 危险的： involving potential loss or injury</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>perilous journey through hostile territory  穿过敌方领土的危险行程</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>pointer</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>n. （仪表上的）指针： a scale indicator on a watch, balance, or other measuring instrument
 n. 忠告，建议： a useful suggestion or hintusually from an expert</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>The pointer on my bathroom scale must be stuck - I know I lost weight.   浴室磅秤里的指针肯定坏了——我知道我体重有下降的。
 Here are a few pointers to help you make a choice.  这里有一些能帮助你抉择的建议。</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>affliction</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>n. 痛苦，悲伤，折磨： a state of great suffering of body or mind</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>She listened with deep affliction as her daughter told her about the latest trouble she was in.  她 怀 着巨大的痛苦聆听着女儿告诉她目前艰难的处境。</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2246,17 +2258,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dishearten</t>
+          <t>affliction</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 使沮丧，使失去信心： to cause to lose spirit or morale</t>
+          <t>n. 痛苦，悲伤，折磨： a state of great suffering of body or mind</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>We were greatly disheartened by the news that our grandmother was seriously ill.   听到祖母病重的消息，我们都很沮丧。</t>
+          <t>She listened with deep affliction as her daughter told her about the latest trouble she was in.  她 怀 着巨大的痛苦聆听着女儿告诉她目前艰难的处境。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2268,17 +2280,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>disjunctive</t>
+          <t>dishearten</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>adj. 分离的： marked by breaks or disunity</t>
+          <t>vt. 使沮丧，使失去信心： to cause to lose spirit or morale</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>a disjunctive narrative sequence  分散的叙述顺序</t>
+          <t>We were greatly disheartened by the news that our grandmother was seriously ill.   听到祖母病重的消息，我们都很沮丧。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2290,17 +2302,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>featureless</t>
+          <t>disjunctive</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 缺乏特征的： lacking distinguishing characteristics or features</t>
+          <t>adj. 分离的： marked by breaks or disunity</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>the featureless landscape of the steppe  大草原上缺乏特色的地貌</t>
+          <t>a disjunctive narrative sequence  分散的叙述顺序</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2312,43 +2324,43 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>featureless</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adj. 缺乏特征的： lacking distinguishing characteristics or features</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>the featureless landscape of the steppe  大草原上缺乏特色的地貌</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>frosty</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>adj. 寒冷的： having a low or subnormal temperature
 adj. 无强烈感情的，冷淡的： lacking in friendliness or warmth of feeling</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>a frosty autumn that was a sign of the brutal winter that followed  一个极为寒冷的秋天，它象征着随之而来的、可能更加残暴的冬季
 She gave the telemarketer on the phone a frosty “No, thank you” and hung up.  她 向 电 话那 头 的推 销员冷冷地说了一句“不，谢谢”之后就挂掉了电话。</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>sacrosanct</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>adj. 极为神圣的，不可侵犯的： most sacred or holy</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The teacher's book of grades is sacrosanct, and someone could be expelled for changing anything in it.  </t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2358,15 +2370,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>shifty</t>
+          <t>sacrosanct</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. （显得）狡诈的，（显得）欺诈的： having, displaying, or suggestive of deceitful character</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>adj. 极为神圣的，不可侵犯的： most sacred or holy</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The teacher's book of grades is sacrosanct, and someone could be expelled for changing anything in it.  </t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2376,42 +2392,38 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>shifty</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>adj. （显得）狡诈的，（显得）欺诈的： having, displaying, or suggestive of deceitful character</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>wayward</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>adj. 刚愎自用的，不服管束的： following one's own capricious, wanton, or depraved inclinations</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>had always been the most wayward of their three children  总是三个小孩里最不听话的一个
 waywardchildren with a history of behavioral problems  过去行为上有些问题的调皮小孩</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>backslide</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>vi. （情况等）倒退，固态萌发： to revert to a worse condition</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Keep these things in mind to help prevent you from backsliding.   牢记这些东西，他们能防止你旧病复犯。</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2421,17 +2433,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>beholden</t>
+          <t>backslide</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 欠他人人情的： owing something, such as gratitude, to another</t>
+          <t>vi. （情况等）倒退，固态萌发： to revert to a worse condition</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Not wanting to be beholden to anyone, he insisted on paying his own way.  因为不想欠别人的人情，所以他坚持出自己的那一份钱。</t>
+          <t>Keep these things in mind to help prevent you from backsliding.   牢记这些东西，他们能防止你旧病复犯。</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2443,17 +2455,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>beige</t>
+          <t>beholden</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 缺乏特征的： lacking distinction</t>
+          <t>adj. 欠他人人情的： owing something, such as gratitude, to another</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Some food critics have dismissed that chef's version of French cuisine as beige and boring.   一 些 美 食 评论家认为那名厨师所做的法国菜平凡无奇，令人厌倦。</t>
+          <t>Not wanting to be beholden to anyone, he insisted on paying his own way.  因为不想欠别人的人情，所以他坚持出自己的那一份钱。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2465,43 +2477,43 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>beige</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>adj. 缺乏特征的： lacking distinction</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Some food critics have dismissed that chef's version of French cuisine as beige and boring.   一 些 美 食 评论家认为那名厨师所做的法国菜平凡无奇，令人厌倦。</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>menial</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>n. 仆人，奴仆： a servant, especially a domestic servant
 adj. 卑贱的，低下的： showing, expressing, or offered in a spirit of humility or unseemlysubmissiveness</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Immigrants to that country faced fierce prejudice and could expect to find work only as menials.   前 往 那个国家的移民遭到了严重的歧视，他们也许只能找到像仆人一类的工作。
 low-paid menial jobs such as cleaning the street  一些低收入的卑贱工作，比如扫大街</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>peculiarity</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>n. 特征，特点： a distinguishing characteristic</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>It is a peculiarity of the house that there is no front door.  没有大门是这座房子的一个特色。</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2511,17 +2523,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>premeditate</t>
+          <t>peculiarity</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vt. 预谋： to think about and revolve in the mind beforehand</t>
+          <t>n. 特征，特点： a distinguishing characteristic</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>carefully premeditating each step of his plan of campaign  仔细地计划着竞选计划中的每一个步骤</t>
+          <t>It is a peculiarity of the house that there is no front door.  没有大门是这座房子的一个特色。</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2533,40 +2545,44 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>premeditate</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>vt. 预谋： to think about and revolve in the mind beforehand</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>carefully premeditating each step of his plan of campaign  仔细地计划着竞选计划中的每一个步骤</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 未出现的，缺少的： not present or in evidence
 adj. 未达到要求的： not being up to standards or expectations</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Grass is almost entirely wanting in that arid wasteland.   那片荒漠几乎没有长一丝青草。
 He examined her work and found it wanting.   他检查了她的作业，发现不合要求。
 We tried her cookingand found it to be very wanting.   我们试了试她的厨艺，结果发现很不尽人意。</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>idiosyncrasy</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>n. 独特而奇怪的习惯： an odd or peculiar habit</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2576,67 +2592,63 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>idiosyncrasy</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n. 独特而奇怪的习惯： an odd or peculiar habit</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
           <t>august</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>adj. 威严的，庄重的： having or showing a formal and serious or reserved manner
 adj. 盛大的，令人印象深刻的： large and impressive in size, grandeur, extent, or conception</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Unsurprisingly, the head of the bank is an august white-haired gentleman.  不出所料的，银行的总裁是一名白发苍苍的、令人顿生敬意的绅士。
 an august golden anniversary celebration for the company  盛大的周年庆祝会</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>coy</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>adj. 故作羞涩的： affectedly and usually flirtatiously shy or modest
 adj. 不愿与人交往的，内向的： tending to avoid people and social situations</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Not wanting him to know that she was interested in him, she acted very coy at the dance.   她 在 舞 会 上故意装得很娇羞的样子，不想让他知道她喜欢他。
 She was modest without being coy.   她很低调，但又不至于内向。</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>demote</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>vt. 降职，降级： to reduce to a lower grade or rank</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>The court-martial’s decision was to demote the officer responsible for the failed mission.  军 事 法 庭 决定对为此次失败任务负责的军官进行降职处理。</t>
-        </is>
-      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2646,42 +2658,42 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>demote</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>vt. 降职，降级： to reduce to a lower grade or rank</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The court-martial’s decision was to demote the officer responsible for the failed mission.  军 事 法 庭 决定对为此次失败任务负责的军官进行降职处理。</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>staunch</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>adj. 忠诚的，坚定的： steadfast in loyalty or principle</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>a staunch believer in the democratic system  民主制度的坚定拥护者
 No matter what happens I will beyour staunchest supporters.  不论发生什么，我都会是你最忠诚的支持者。</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>atrophy</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>vi. 萎缩，衰退： to waste away; wither or deteriorate</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>The years following the closing of the last textile mill, the town atrophied.   随着最后一家纺织厂的倒闭，整个城镇开始衰退。</t>
-        </is>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2691,45 +2703,45 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>atrophy</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>vi. 萎缩，衰退： to waste away; wither or deteriorate</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>The years following the closing of the last textile mill, the town atrophied.   随着最后一家纺织厂的倒闭，整个城镇开始衰退。</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>idle</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>adj. 闲置的，未使用的： not turned to normal or appropriate use
 adj. 懒散的： shiftless, lazy
 vi. 懒散度日，无所事事： to pass (time) without working or while avoiding work</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>The car was idle for two weeks while they went on vacation.   因为他们出去旅行了，他们的车闲置了两周。
 an idle employee who always seems to be either on break or at lunch  这个懒散的员工似乎不是在休息就是在吃饭
 idle the afternoon away  打发下午的时光</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>splutter</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>vi. 急切而不清楚地说： to speak hastily and incoherently, as when confused or angry</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">They begin to splutter and move restlessly about if they feel time is slipping away without some return.  </t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2739,17 +2751,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>vouchsafe</t>
+          <t>splutter</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vt. 允诺，给予： to grant or furnish often in a gracious or condescending manner</t>
+          <t>vi. 急切而不清楚地说： to speak hastily and incoherently, as when confused or angry</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>refused to vouchsafe an explanation  拒绝给出任何解释</t>
+          <t xml:space="preserve">They begin to splutter and move restlessly about if they feel time is slipping away without some return.  </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2761,67 +2773,67 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>vouchsafe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>vt. 允诺，给予： to grant or furnish often in a gracious or condescending manner</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>refused to vouchsafe an explanation  拒绝给出任何解释</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>deadlock</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>n. 僵局： a state of inaction or neutralization resulting from the opposition of equally powerfuluncompromising persons or factions
 vt. 使陷入僵局，使停顿： to bring or come to a deadlock</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>The deadlock was broken with a key compromise.   一个关键性的妥协打破了僵局。</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>groggy</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>adj. 虚弱的，（走路）不稳的： weak and unsteady on the feet or in action
 adj. 无法思考的，头脑不清的： not able to think or move normally because of being tired, sick, etc.</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>She was feeling a bit groggy when I saw her.   当我看到她的时候她显得有些走路不稳。
 I'm still a little groggy from my nap.   我还没完全从睡梦中清醒过来。
 The medicine sometimes makespatients groggy.   这种药偶尔会让病人产生醉酒一样的麻醉感。</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>acquisitive</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>adj. 贪婪的： strongly desirous of acquiring and possessing</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Acquisitive developers are trying to tear down the ancient temple and build a shopping mall instead.   贪婪的开发商打算铲平这座古老的神庙，取而代之地建造一座购物中心。</t>
-        </is>
-      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2831,67 +2843,67 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>acquisitive</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>adj. 贪婪的： strongly desirous of acquiring and possessing</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Acquisitive developers are trying to tear down the ancient temple and build a shopping mall instead.   贪婪的开发商打算铲平这座古老的神庙，取而代之地建造一座购物中心。</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
           <t>agonize</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>vt. 折磨，使痛苦： to cause to suffer agony
 vi. 感到痛苦： to suffer agony, torture, or anguish</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>She got into more trouble, further agonizing her poor mother.  她惹上了更多的麻烦，进一步加剧了她可怜的母亲所遭受的痛苦。
 She agonized for days over the moral issues involved.   一连几天她都为被卷入的道德纠纷而感到痛苦。</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>alienate</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>vt. 使…疏远： to make unfriendly, hostile, or indifferent especially where attachment formerlyexisted
 vt. 转让，让渡： to convey or transfer (as property or a right) usually by a specific act rather than thedue course of law</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>His heartless treatment of their mother during the divorce proceeding has completely alienated the twochildren.   他在离婚过程中对妻子表现出来的残酷，已经彻底地让两个孩子与他疏远起来。
 A landowner has a right to alienate his right of ownership - in other words, he can sell the land if he wantsto.   地主拥有转让所有权的权力——也就是说如果愿意，他可以出售他的土地。</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>anachronistic</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>adj. 时代错误的： chronologically misplaced</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Despite the occasional anachronistic word or concept, he has a good feel for the period.  尽 管 有 时 会犯一些词汇和概念上的时代性错误，但他对于那个时代的整体把握还是不错的。</t>
-        </is>
-      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2901,68 +2913,68 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>anachronistic</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>adj. 时代错误的： chronologically misplaced</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Despite the occasional anachronistic word or concept, he has a good feel for the period.  尽 管 有 时 会犯一些词汇和概念上的时代性错误，但他对于那个时代的整体把握还是不错的。</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>antedate</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>vt. 比…早，早于： to be of an earlier date than</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>The church antedates the village itself.  这 座 教 堂 甚 至 在 村 庄 之 前 就 存 在 了 。
 Dinosaurs antedatecavemen by millions of years.   恐龙比穴居人要早几百万年出现。</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>arbitrary</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>adj. 专横的，独断专行的： having or showing a tendency to force one's will on others without anyregard to fairness or necessity
 adj. 独裁的，拥有无限权力的： exercising power or authority without interference by others
 adj. 缺乏计划的，随意的： lacking a definite plan, purpose, or pattern</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>an arbitrary piano teacher who makes all her students do the same exercises over and over again  一个让学生反复练习同一首曲子的专横的老师
 a nation with no tradition of democracy, only a long history of arbitrary rulers  一个从来没有民主的传统，只有长期的独裁统治的国家
 The order of the names of the 10 semifinalists is entirely arbitrary.  半决赛上十名上场选手的顺序完全是随机的。</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>bogus</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>adj. 伪造的，假冒的： being such in appearance only and made or manufactured with the intentionof committing fraud</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>The evidence turned out to be completely bogus and the suspect may be innocent.  由 于 证 据 被 发 现是彻底伪造的，嫌犯很有可能是无辜的。</t>
-        </is>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2972,17 +2984,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>brandish</t>
+          <t>bogus</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vt. （带有威胁性地）挥舞： to shake or wave (as a weapon) menacingly</t>
+          <t>adj. 伪造的，假冒的： being such in appearance only and made or manufactured with the intentionof committing fraud</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>I could see that the suspect was brandishing a knife and was in no way inclined to surrender.  我 可 以看到嫌犯在挥舞着一把刀，完全没有要投降的倾向。</t>
+          <t>The evidence turned out to be completely bogus and the suspect may be innocent.  由 于 证 据 被 发 现是彻底伪造的，嫌犯很有可能是无辜的。</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2994,88 +3006,88 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>brandish</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>vt. （带有威胁性地）挥舞： to shake or wave (as a weapon) menacingly</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>I could see that the suspect was brandishing a knife and was in no way inclined to surrender.  我 可 以看到嫌犯在挥舞着一把刀，完全没有要投降的倾向。</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>cherished</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>adj. 受喜爱的，珍爱的： granted special treatment or attention</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>a cherished heirloom that has been in the family for generations  在这个家族里流传了几代的为大家喜爱的纺织机
 He described the picture with his wife as his most cherished possession.   他把这张与妻子和合影看作是自己最为珍爱的财富。</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>counterproductive</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>adj. 反效果的，阻碍预期目标的： not producing or tending to hinder the attainment of a desired goal</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Violence as a means to achieve an end is counterproductive.   (W.   E.   Brock)用暴力来实现目标往往是事与愿违的。——W.   E.   布洛克
 His uncontrollable anger is very counterproductive to his attempt at saving hismarriage.  他无法自控的愤怒只会对他拯救婚姻的企图起反作用。</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>deflect</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>vt. 使偏斜，使转向： to turn aside especially from a straight course or fixed direction</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>The goalie deflected the ball with his hands.   守门员用双手将球击出。
 They are trying to deflect thepublic attention from the troubled economy.   他们试图将公众的注意力从经济的困境中移开。</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>erroneous</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>adj. 错误的，不正确的： containing or characterized by error</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>The news article about the new drug was filled with much erroneous information.   有关新药的新闻报道里充斥着大量的错误信息。</t>
-        </is>
-      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3085,40 +3097,40 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>erroneous</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>adj. 错误的，不正确的： containing or characterized by error</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>The news article about the new drug was filled with much erroneous information.   有关新药的新闻报道里充斥着大量的错误信息。</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
           <t>fanciful</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>adj. 幻想中的，不真实的： not real and existing only in the imagination
 adj. 不切实际的，荒谬的： conceived or made without regard for reason or reality</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>a fanciful tale of a monster in the woods  一个有关栖息在丛林中的怪兽的传说故事</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>fleeting</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>adj. 稍纵即逝的，短暂的： lasting only for a short time; passing swiftly</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>They have been waiting for more than 4 hours but caught only a fleeting glimpse of the movie star.   他们苦等了至少四个小时，却最终只短短地瞟到了电影明星一眼。</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3130,17 +3142,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>foreground</t>
+          <t>fleeting</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>vt. 强调，重视： to indicate the importance of by centering attention on</t>
+          <t>adj. 稍纵即逝的，短暂的： lasting only for a short time; passing swiftly</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>He repeatedly foregrounded his experience in international affairs in the course of his campaign for thepresidency.   在他竞选总统的过程中，他一再强调自己在处理国际事务方面的经验。</t>
+          <t>They have been waiting for more than 4 hours but caught only a fleeting glimpse of the movie star.   他们苦等了至少四个小时，却最终只短短地瞟到了电影明星一眼。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3152,17 +3164,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>gawky</t>
+          <t>foreground</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. （举止）笨拙的： having or showing an inability to move in a graceful manner</t>
+          <t>vt. 强调，重视： to indicate the importance of by centering attention on</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The pathetic gawky woman was once a lithe ballerina but got severely injured in a car accident.   这 个 可怜的步态笨拙的妇女本来是一名轻巧优雅的芭蕾舞女，但是在一次车祸中受了重伤。</t>
+          <t>He repeatedly foregrounded his experience in international affairs in the course of his campaign for thepresidency.   在他竞选总统的过程中，他一再强调自己在处理国际事务方面的经验。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3174,17 +3186,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>indecorous</t>
+          <t>gawky</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 不合乎礼节的，不得体的： conflicting with accepted standards of good conduct or good taste</t>
+          <t>adj. （举止）笨拙的： having or showing an inability to move in a graceful manner</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>How can you make such an indecorous joke for a solemn moment in the marriage ceremony ? 你 怎 么能在庄严肃穆的结婚典礼上开那样一个不得体的玩笑呢？</t>
+          <t>The pathetic gawky woman was once a lithe ballerina but got severely injured in a car accident.   这 个 可怜的步态笨拙的妇女本来是一名轻巧优雅的芭蕾舞女，但是在一次车祸中受了重伤。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3196,11 +3208,19 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>lax</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
+          <t>indecorous</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>adj. 不合乎礼节的，不得体的： conflicting with accepted standards of good conduct or good taste</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>How can you make such an indecorous joke for a solemn moment in the marriage ceremony ? 你 怎 么能在庄严肃穆的结婚典礼上开那样一个不得体的玩笑呢？</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3210,19 +3230,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>lionize</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>vt. 追捧，把…捧为名人： to look on or treat (a person) as a celebrity</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>She was lionized everywhere after her novel won the Pulitzer Prize.   在她的小说获得普利策奖之后，她无论走到哪都受到追捧。</t>
-        </is>
-      </c>
+          <t>lax</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3232,43 +3244,43 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>lionize</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>vt. 追捧，把…捧为名人： to look on or treat (a person) as a celebrity</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>She was lionized everywhere after her novel won the Pulitzer Prize.   在她的小说获得普利策奖之后，她无论走到哪都受到追捧。</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>lurid</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>adj. 恐怖的，令人反感的： causing horror or revulsion
 adj. 面色苍白的，病态的： wan and ghastly pale in appearance</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>We quickly drove past the lurid scene of the crash.   我们迅速驶过了可怕的车祸现场。
 The doctor was alarmed by the patient's lurid complexion.   病人惨白的面色给医生敲响了警钟。</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>malignant</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>adj. 恶毒的，邪恶的： having or showing a desire to cause someone pain or suffering for the sheerenjoyment of it; disposed to do evil</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">She has a malignant wish to poison everyone who was smarter, richer, or better-looking than she was.  </t>
-        </is>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3278,67 +3290,89 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>malignant</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>adj. 恶毒的，邪恶的： having or showing a desire to cause someone pain or suffering for the sheerenjoyment of it; disposed to do evil</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">She has a malignant wish to poison everyone who was smarter, richer, or better-looking than she was.  </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>notoriety</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>n. （尤指因为丑闻而出名的）名人： a person who is widely known and usually much talked about,especially for something bad; a notorious person
 n. 坏名声： the quality or condition of being notorious; ill fame</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>a television show featuring notorieties from 20 years of scandals  以二十年来因各色丑闻而出名的名人为卖点的电视节目
 She gained notoriety when nude photographs of her appeared in a magazine.   她的裸照出现在杂志上让她声名远播。
 His comment about the President has given him a notoriety that he enjoys very much.   他 对 于总统的评论让他获得了很让他满意的名声。</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>overshadow</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 使变黯淡： to make dark, dim, or indistinct
 vt. （在重要性上）超越，超过： to exceed in importance</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t xml:space="preserve">Large trees overshadow the yard and darken the house for much of the day.   大树为院子遮挡了阳光，并使屋子里一天之中的大多数时候都很昏暗。
 Her mother's illness overshadowed her childhood.  她 母 亲 的 疾病让她的童年缺乏亮色。
 The forward’s outstanding performance should not overshadow the achievements of the rest of the team.  </t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>pioneer</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>n. 扩荒者，先驱者： one of the first to settle in a territory
 adj. 最初的，最早的： coming before all others in time or order
 vt. 开创，创造： to open up (an area) or prepare (a way)</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>the hardships that the pioneers endured while taming the wilderness  在驯服自然的过程中扩荒者所受到的种种磨难
 a pioneer in aviation  航空业的先驱
@@ -3347,100 +3381,78 @@
 rockets that pioneered outer space  开创了外太空纪元的火箭</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>pragmatic</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>adj. 实用主义的，务实的： a practical approach to problems and affairs</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Pragmatic men of power have had no time or inclination to deal withsocial morality.  (K.   B.   Clark) 务 实 的当权者不会有时间或者意向去处理社会道德的问题。——K.   B.   克拉克
 a pragmatic man, not given to grand,</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>refreshing</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>adj. 令人心身振奋的，提神的： having a renewing effect on the state of the body or mind</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>A glass of cold water is very refreshing on such a hot day.   大热天里的一杯冰水真是让人心旷神怡。
 Itis refreshing to hear some good news about him.   能听到他的好消息真是让人振奋。</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>skittish</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>adj. 容易受到惊吓的，胆小的： easily frightened
 adj. 容易激动的： easily excited by nature
 adj. 善变的，多变的： likely to change frequently, suddenly, or unexpectedly</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>The kitty is skittish around people she doesn't know.  小猫看到不认识的人就会显得特别胆小害怕。
 The skittish colt leapt up when we approached.  一看到我们靠近，小马驹就激动地猛跳起来。
 The skittish housing market had both buyers and sellers on edge.  变幻莫测的房市让买家和卖家都坐立不安。</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>stigmatize</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>vt. 使蒙上污名： to characterize or brand as disgraceful or ignominious</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Urban construction workers are often stigmatized by the rest of society as lazy and dirty.  城 市 里 的 建筑工人往往被社会里的其他人污蔑为是懒惰而肮脏的。</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3450,39 +3462,43 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>stigmatize</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>vt. 使蒙上污名： to characterize or brand as disgraceful or ignominious</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Urban construction workers are often stigmatized by the rest of society as lazy and dirty.  城 市 里 的 建筑工人往往被社会里的其他人污蔑为是懒惰而肮脏的。</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
           <t>surpass</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>vt. 超越，强于： to become better, greater, or stronger than
 vt. 突破（界限，纪录等）： to go beyond the limit of</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>She always tried to surpass her older brother at anything he did, which results in his diffidence.   她 在 任何一个方面都要比她哥哥优秀，由此导致了他自信心的匮乏。
 The sales of the band's newest CD have surpassed the combined sales of its last two albums.   乐 队 新专辑的发售量甚至超过了前两张销售量的总和。</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>thrill</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>n. 强烈的兴奋感，快感： a pleasurably intense stimulation of the feelings</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3492,90 +3508,86 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
+          <t>thrill</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>n. 强烈的兴奋感，快感： a pleasurably intense stimulation of the feelings</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>timely</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>adj. 及时的，无拖延的： done, carried out, or given without delay
 adj. 恰到好处的，合乎适宜的： appropriate or adapted to the times or the occasion</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>When I order a pizza, I expect it to be delivered in a timely manner.   当我在外面点了披萨饼，我就希望它能按时送到。
 Timely invitation to lunch that came just as I was starting to feel hungry.   正当我开始感到饥饿的时候，就有人适时地邀请我吃午饭了。</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>trifling</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 细微的，不重要的： lacking in significance or solid worth</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Deciding what you want to do for a living is no trifling matter.  决定维持生计的行当可不是一件小事。
 trifling differences between the theatrical and DVD versions of the movie  影院版和 DVD  版电影当中的细微区别</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>abreast</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>adv. 并排地： beside one another with bodies in line
 adj. 熟知的： up to a particular standard or level especially of knowledge of recent developments</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>a group of youths riding four abreast  四个一排骑着车的孩子们
 She tried to keep abreast of the latest fashion trends.   她总是尽可能地跟上时尚的潮流。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>absent</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>adj. 未出现的，缺乏的： not present, attending or existing</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The city's usual stir of activity was conspicuously absent due to the report of an escaped lion from the zoo.  </t>
-        </is>
-      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3585,43 +3597,43 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>absent</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>adj. 未出现的，缺乏的： not present, attending or existing</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The city's usual stir of activity was conspicuously absent due to the report of an escaped lion from the zoo.  </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
           <t>acclaim</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>n. 称赞： public acknowledgment or admiration for an achievement
 vt. 赞扬，赞颂： to declare enthusiastic approval of</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Many people were involved in the search, but the person who actually found the missing girl got all theacclaim.   许许多多的人都参与了搜救行动，但是只有真正找到那个迷失的小女孩的人才受到称赞。
 He was acclaimed as the country's greatest modern painter.   他被盛赞为国内最优秀的现代画家。</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>accomplish</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>vt. 完成，实现： to carry through (as a process) to completion</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>I don’t think we can accomplish our goal unless we cooperate.   我认为只有合作才能实现我们的目标。</t>
-        </is>
-      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3631,17 +3643,39 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>accomplish</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>vt. 完成，实现： to carry through (as a process) to completion</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>I don’t think we can accomplish our goal unless we cooperate.   我认为只有合作才能实现我们的目标。</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>accord</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>n. 一致： a state of consistency
 vi. 相符合，相一致： to be consistent or in harmony
 vt. 授予，给予： to grant or give especially as appropriate, due, or earned</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>This map doesn't seem to be in accord with the current layout of the streets.   这幅地图似乎与当前的街道情况不尽一致。
 a theory that accords with the known facts  与已知事实相一致的理论
@@ -3649,20 +3683,6 @@
 Women were finally accorded the right to vote in 1920.   女性最终在 1920 年获得了投票权。</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>acknowledge</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3672,65 +3692,57 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
+          <t>acknowledge</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
           <t>acquire</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>vt. 获取，获得： to get as one’s own</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>bacteria that acquire tolerance to antibiotics  产生了抗药性的细菌
 I have never acquired a taste forwine.  我从来就不具备对葡萄酒酒的品味能力。</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>adversity</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>n. 厄运，逆境： a state, condition, or instance of serious or continued difficulty or adverse fortune</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>The fire is the test of gold, adversity of strong man.  (Martha Graham) 烈火试真金，逆境炼勇士。——玛莎·葛兰姆
 finally overcame all the adversities of the Great Depression and rebuilt their fortunes  终 于 度 过 了 大 萧条的困境，开始重新创造他们的财富</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>affectation</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>n. 虚伪，做作： the act of taking on or displaying an attitude or mode of behavior not natural to oneselfor not genuinely felt</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
-        </is>
-      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3740,17 +3752,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>affirm</t>
+          <t>affectation</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vt. 声称为真，肯定属实： to assert (as a judgment or decree) as valid or confirmed</t>
+          <t>n. 虚伪，做作： the act of taking on or displaying an attitude or mode of behavior not natural to oneselfor not genuinely felt</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>He was unwilling to affirm without further study that the painting is an original Rembrandt.   在 缺 乏 进 一步研究的情况下，他不愿意声称这幅画作是出自伦布兰特的正品。</t>
+          <t>the rolling of the ship made the young sailor squeamish  摇晃的船只让年轻的水手感到恶心</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3762,17 +3774,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>agility</t>
+          <t>affirm</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>n. （身手）敏捷： ease and grace in physical activity</t>
+          <t>vt. 声称为真，肯定属实： to assert (as a judgment or decree) as valid or confirmed</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>His agility on the parallel bars has won him several medals.   他在双杠上的矫捷身姿助他赢得了数枚奖牌。</t>
+          <t>He was unwilling to affirm without further study that the painting is an original Rembrandt.   在 缺 乏 进 一步研究的情况下，他不愿意声称这幅画作是出自伦布兰特的正品。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3784,67 +3796,67 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>agility</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>n. （身手）敏捷： ease and grace in physical activity</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>His agility on the parallel bars has won him several medals.   他在双杠上的矫捷身姿助他赢得了数枚奖牌。</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
           <t>agreeable</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>adj. 令人愉悦的： pleasing to the mind or senses especially as according well with one's tastes orneeds</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Would you mind putting on some agreeable music for dinner ? 你 介 意 为 晚 饭 放 一 些 令 人 愉 快 的 音 乐吗？
 the agreeable melancholy resulting from a sense of the transitoriness of natural beauty  因 为 感 慨 自 然 之美稍纵即逝而产生的令人愉悦的忧伤</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>alloy</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>n. 合金，混合物： a distinct entity formed by the combining of two or more different things
 vt. 掺杂，降低纯度： to debase by the addition of an inferior element</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Brass is an alloy, consisting of copper and zinc.  黄铜是一种由铜和锌组成的合金。
 Television news hasalways been an alloy of journalism and show business.  电视新闻一直以来都是新闻界和演艺圈的混合体。
 idealism that was alloyed with political skill  因为掺入了政治技能而被削弱理想主义</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>ambivalent</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>adj. （尤指感情、态度）矛盾的： having a mixture of opposing feelings</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>He maintained an ambivalent attitude to religion throughout his life.   他一生都对宗教抱有矛盾的心态。</t>
-        </is>
-      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3854,17 +3866,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>analogous</t>
+          <t>ambivalent</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. 相似的，可比较的： having qualities in common</t>
+          <t>adj. （尤指感情、态度）矛盾的： having a mixture of opposing feelings</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bad-mouthing your sister is analogous to slapping her in the face - it's just as bad.   说你姐姐的坏话和当</t>
+          <t>He maintained an ambivalent attitude to religion throughout his life.   他一生都对宗教抱有矛盾的心态。</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3876,17 +3888,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>annotate</t>
+          <t>analogous</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>vt. 做注解： to furnish (a literary work) with critical commentary or explanatory notes</t>
+          <t>adj. 相似的，可比较的： having qualities in common</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>The advent of e-books enables user to freely annotate what they are reading without worrying about beingfined by libraries.   电子书的出现使得用户可以在不用担心被图书馆处以罚金的情况下自由地在读物上作注。</t>
+          <t>Bad-mouthing your sister is analogous to slapping her in the face - it's just as bad.   说你姐姐的坏话和当</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3898,22 +3910,44 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>annotate</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>vt. 做注解： to furnish (a literary work) with critical commentary or explanatory notes</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>The advent of e-books enables user to freely annotate what they are reading without worrying about beingfined by libraries.   电子书的出现使得用户可以在不用担心被图书馆处以罚金的情况下自由地在读物上作注。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>antipathy</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>n. 厌恶，反感： settled aversion or dislike
 n. 令人反感的事物： an object of aversion</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>I feel no antipathy towards any of my opponents in the tournament.   我对锦标赛中碰到的任何对手都不存在反感。
 Cruelty to animals is one of my most deeply felt antipathies.   虐待动物是最让我反感的行为之一。</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
